--- a/Arbeitsjournale/Arbeitsjournal Marina.xlsx
+++ b/Arbeitsjournale/Arbeitsjournal Marina.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\Google Drive\SemesterarbeitDB\Doks\Journal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\OneDrive\zbw\datenbanken\Modul 2\DBSemesterProject\Arbeitsjournale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{27BA4AE5-6429-452C-973B-530D48B947C0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Arbeitsjournal Semesterarbeit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name: Marina Scherrer</t>
   </si>
@@ -47,43 +45,13 @@
     <t>Besprechung</t>
   </si>
   <si>
-    <t>ERM skizzieren</t>
-  </si>
-  <si>
-    <t>Vorlage Dokumentation erstellt</t>
-  </si>
-  <si>
-    <t>ERM erstellt</t>
-  </si>
-  <si>
-    <t>Dokumentation: Kapitel 1, Verzeichnisse</t>
-  </si>
-  <si>
-    <t>ERM ergänzt</t>
-  </si>
-  <si>
-    <t>Dokumentation: Kapitel 2</t>
-  </si>
-  <si>
-    <t>DDL Kundenverwaltung</t>
-  </si>
-  <si>
     <t>Total Stunden</t>
   </si>
   <si>
-    <t>Versionierung</t>
+    <t>Arbeitsjournal Semesterarbeit, Modul 2</t>
   </si>
   <si>
-    <t>Dokumentation: Kapitel 3 + diverse Korrekturen</t>
-  </si>
-  <si>
-    <t>Telefonkonferenz</t>
-  </si>
-  <si>
-    <t>Fertigstellung Dokumentation</t>
-  </si>
-  <si>
-    <t>DML Kundenverwaltung</t>
+    <t>Stored Procedure BillPoD</t>
   </si>
 </sst>
 </file>
@@ -525,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -537,9 +505,9 @@
     <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -597,7 +565,7 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -655,13 +623,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -689,13 +657,13 @@
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>43321</v>
+        <v>43473</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -723,13 +691,13 @@
     </row>
     <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>43328</v>
+        <v>43485</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -756,15 +724,9 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>43331</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -790,15 +752,9 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>43333</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14">
-        <v>1.5</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -824,15 +780,9 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>43335</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -858,15 +808,9 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>43335</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -892,15 +836,9 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>43346</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -926,15 +864,9 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>43346</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -960,15 +892,9 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>43346</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -994,15 +920,9 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>43349</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1028,15 +948,9 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>43352</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14">
-        <v>3</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1062,15 +976,9 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>43358</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14">
-        <v>1.5</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1096,15 +1004,9 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>43358</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1130,15 +1032,9 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>43358</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14">
-        <v>2.5</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1669,12 +1565,12 @@
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19">
         <f>SUM(C6:C36)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>

--- a/Arbeitsjournale/Arbeitsjournal Marina.xlsx
+++ b/Arbeitsjournale/Arbeitsjournal Marina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\OneDrive\zbw\datenbanken\Modul 2\DBSemesterProject\Arbeitsjournale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{27BA4AE5-6429-452C-973B-530D48B947C0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{94F27F07-9F03-4ABF-ADF7-BF326867EB43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Name: Marina Scherrer</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Stored Procedure BillPoD</t>
+  </si>
+  <si>
+    <t>Stored Procedure BillPoDAuto</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -724,9 +727,15 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="11">
+        <v>43505</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -752,9 +761,15 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="11">
+        <v>43506</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -780,9 +795,15 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="11">
+        <v>43511</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1570,7 +1591,7 @@
       <c r="B38" s="18"/>
       <c r="C38" s="19">
         <f>SUM(C6:C36)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>

--- a/Arbeitsjournale/Arbeitsjournal Marina.xlsx
+++ b/Arbeitsjournale/Arbeitsjournal Marina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\OneDrive\zbw\datenbanken\Modul 2\DBSemesterProject\Arbeitsjournale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{94F27F07-9F03-4ABF-ADF7-BF326867EB43}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FD0657F9-7CA9-44A1-9D00-8F50BFF0F148}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Name: Marina Scherrer</t>
   </si>
@@ -497,18 +497,18 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -566,7 +566,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -624,7 +624,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43473</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43485</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43505</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>43506</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>43511</v>
       </c>
@@ -828,10 +828,16 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>43513</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>2</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -856,7 +862,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -884,7 +890,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="15"/>
       <c r="C13" s="13"/>
@@ -912,7 +918,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
       <c r="C14" s="13"/>
@@ -940,7 +946,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
@@ -968,7 +974,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
@@ -996,7 +1002,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -1024,7 +1030,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -1052,7 +1058,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -1080,7 +1086,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
@@ -1108,7 +1114,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
@@ -1136,7 +1142,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -1164,7 +1170,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
@@ -1192,7 +1198,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -1220,7 +1226,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
@@ -1248,7 +1254,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -1276,7 +1282,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
@@ -1304,7 +1310,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
@@ -1332,7 +1338,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -1360,7 +1366,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -1388,7 +1394,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -1416,7 +1422,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
@@ -1444,7 +1450,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
@@ -1472,7 +1478,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -1500,7 +1506,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -1528,7 +1534,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -1556,7 +1562,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="17"/>
@@ -1584,14 +1590,14 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19">
         <f>SUM(C6:C36)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -1617,7 +1623,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1645,7 +1651,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1673,7 +1679,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1701,7 +1707,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1729,7 +1735,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1757,7 +1763,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1785,7 +1791,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1813,7 +1819,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1841,7 +1847,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1869,7 +1875,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1897,7 +1903,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1925,7 +1931,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1953,7 +1959,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1981,7 +1987,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2009,7 +2015,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2037,7 +2043,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2065,7 +2071,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2093,7 +2099,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2121,7 +2127,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2149,7 +2155,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2177,7 +2183,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2205,7 +2211,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2233,7 +2239,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2261,7 +2267,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2289,7 +2295,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2317,7 +2323,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2345,7 +2351,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2373,7 +2379,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2401,7 +2407,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2429,7 +2435,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2457,7 +2463,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2485,7 +2491,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2513,7 +2519,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2541,7 +2547,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2569,7 +2575,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2597,7 +2603,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2625,7 +2631,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2653,7 +2659,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2681,7 +2687,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2709,7 +2715,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2737,7 +2743,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2765,7 +2771,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2793,7 +2799,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2821,7 +2827,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2849,7 +2855,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2877,7 +2883,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2905,7 +2911,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2933,7 +2939,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2961,7 +2967,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2989,7 +2995,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3017,7 +3023,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3045,7 +3051,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3073,7 +3079,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3101,7 +3107,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3129,7 +3135,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3157,7 +3163,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3185,7 +3191,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3213,7 +3219,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3241,7 +3247,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3269,7 +3275,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3297,7 +3303,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3325,7 +3331,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3353,7 +3359,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3381,7 +3387,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3409,7 +3415,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3437,7 +3443,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3465,7 +3471,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3493,7 +3499,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3521,7 +3527,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3549,7 +3555,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3577,7 +3583,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3605,7 +3611,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3633,7 +3639,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3661,7 +3667,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3689,7 +3695,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3717,7 +3723,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3745,7 +3751,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3773,7 +3779,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3801,7 +3807,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3829,7 +3835,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3857,7 +3863,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3885,7 +3891,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3913,7 +3919,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3941,7 +3947,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3969,7 +3975,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3997,7 +4003,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4025,7 +4031,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4053,7 +4059,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4081,7 +4087,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4109,7 +4115,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4137,7 +4143,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4165,7 +4171,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4193,7 +4199,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4221,7 +4227,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4249,7 +4255,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4277,7 +4283,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4305,7 +4311,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4333,7 +4339,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4361,7 +4367,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4389,7 +4395,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4417,7 +4423,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4445,7 +4451,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4473,7 +4479,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4501,7 +4507,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4529,7 +4535,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4557,7 +4563,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4585,7 +4591,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4613,7 +4619,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4641,7 +4647,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4669,7 +4675,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4697,7 +4703,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4725,7 +4731,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4753,7 +4759,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4781,7 +4787,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4809,7 +4815,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4837,7 +4843,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4865,7 +4871,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4893,7 +4899,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4921,7 +4927,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -4949,7 +4955,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -4977,7 +4983,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -5005,7 +5011,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -5033,7 +5039,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -5061,7 +5067,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -5089,7 +5095,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -5117,7 +5123,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -5145,7 +5151,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -5173,7 +5179,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -5201,7 +5207,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -5229,7 +5235,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -5257,7 +5263,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -5285,7 +5291,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -5313,7 +5319,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -5341,7 +5347,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -5369,7 +5375,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -5397,7 +5403,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -5425,7 +5431,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -5453,7 +5459,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -5481,7 +5487,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -5509,7 +5515,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -5537,7 +5543,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -5565,7 +5571,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -5593,7 +5599,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -5621,7 +5627,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -5649,7 +5655,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -5677,7 +5683,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -5705,7 +5711,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -5733,7 +5739,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -5761,7 +5767,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -5789,7 +5795,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -5817,7 +5823,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -5845,7 +5851,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -5873,7 +5879,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -5901,7 +5907,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -5929,7 +5935,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -5957,7 +5963,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -5985,7 +5991,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -6013,7 +6019,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -6041,7 +6047,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -6069,7 +6075,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -6097,7 +6103,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -6125,7 +6131,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -6153,7 +6159,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -6181,7 +6187,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -6209,7 +6215,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -6237,7 +6243,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -6265,7 +6271,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -6293,7 +6299,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -6321,7 +6327,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -6349,7 +6355,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -6377,7 +6383,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -6405,7 +6411,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -6433,7 +6439,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -6461,7 +6467,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -6489,7 +6495,7 @@
       <c r="Y212" s="5"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -6517,7 +6523,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -6545,7 +6551,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -6573,7 +6579,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -6601,7 +6607,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -6629,7 +6635,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -6657,7 +6663,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -6685,7 +6691,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -6713,7 +6719,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -6741,7 +6747,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -6769,7 +6775,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -6797,7 +6803,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -6825,7 +6831,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -6853,7 +6859,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -6881,7 +6887,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -6909,7 +6915,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -6937,7 +6943,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -6965,7 +6971,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -6993,7 +6999,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -7021,7 +7027,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -7049,7 +7055,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -7077,7 +7083,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -7105,7 +7111,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -7133,7 +7139,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -7161,7 +7167,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -7189,7 +7195,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -7217,7 +7223,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -7245,7 +7251,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -7273,7 +7279,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -7301,7 +7307,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -7329,7 +7335,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -7357,7 +7363,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -7385,7 +7391,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -7413,7 +7419,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -7441,7 +7447,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -7469,7 +7475,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -7497,7 +7503,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -7525,7 +7531,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -7553,7 +7559,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
@@ -7581,7 +7587,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
@@ -7609,7 +7615,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
@@ -7637,7 +7643,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -7665,7 +7671,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
@@ -7693,7 +7699,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
@@ -7721,7 +7727,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -7749,7 +7755,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -7777,7 +7783,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
@@ -7805,7 +7811,7 @@
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
     </row>
-    <row r="260" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
@@ -7833,7 +7839,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
@@ -7861,7 +7867,7 @@
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
     </row>
-    <row r="262" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -7889,7 +7895,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
@@ -7917,7 +7923,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
@@ -7945,7 +7951,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
@@ -7973,7 +7979,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -8001,7 +8007,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
@@ -8029,7 +8035,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
@@ -8057,7 +8063,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
@@ -8085,7 +8091,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
@@ -8113,7 +8119,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
@@ -8141,7 +8147,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
@@ -8169,7 +8175,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
@@ -8197,7 +8203,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
@@ -8225,7 +8231,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
@@ -8253,7 +8259,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
@@ -8281,7 +8287,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
@@ -8309,7 +8315,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
@@ -8337,7 +8343,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
@@ -8365,7 +8371,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
@@ -8393,7 +8399,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
@@ -8421,7 +8427,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
@@ -8449,7 +8455,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
@@ -8477,7 +8483,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
@@ -8505,7 +8511,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
@@ -8533,7 +8539,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
@@ -8561,7 +8567,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
@@ -8589,7 +8595,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
@@ -8617,7 +8623,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
@@ -8645,7 +8651,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
@@ -8673,7 +8679,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
@@ -8701,7 +8707,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
@@ -8729,7 +8735,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
@@ -8757,7 +8763,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
@@ -8785,7 +8791,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
@@ -8813,7 +8819,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -8841,7 +8847,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
@@ -8869,7 +8875,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
@@ -8897,7 +8903,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
@@ -8925,7 +8931,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
@@ -8953,7 +8959,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
@@ -8981,7 +8987,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -9009,7 +9015,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -9037,7 +9043,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -9065,7 +9071,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -9093,7 +9099,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -9121,7 +9127,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -9149,7 +9155,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -9177,7 +9183,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -9205,7 +9211,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -9233,7 +9239,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -9261,7 +9267,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -9289,7 +9295,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -9317,7 +9323,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -9345,7 +9351,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -9373,7 +9379,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -9401,7 +9407,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -9429,7 +9435,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -9457,7 +9463,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -9485,7 +9491,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -9513,7 +9519,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -9541,7 +9547,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -9569,7 +9575,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -9597,7 +9603,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -9625,7 +9631,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -9653,7 +9659,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -9681,7 +9687,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -9709,7 +9715,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -9737,7 +9743,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -9765,7 +9771,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -9793,7 +9799,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -9821,7 +9827,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -9849,7 +9855,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -9877,7 +9883,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -9905,7 +9911,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
     </row>
-    <row r="335" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -9933,7 +9939,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
     </row>
-    <row r="336" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -9961,7 +9967,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="5"/>
     </row>
-    <row r="337" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -9989,7 +9995,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
     </row>
-    <row r="338" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -10017,7 +10023,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="5"/>
     </row>
-    <row r="339" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -10045,7 +10051,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
     </row>
-    <row r="340" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
@@ -10073,7 +10079,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
     </row>
-    <row r="341" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -10101,7 +10107,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
     </row>
-    <row r="342" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
@@ -10129,7 +10135,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="5"/>
     </row>
-    <row r="343" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
@@ -10157,7 +10163,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
     </row>
-    <row r="344" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
@@ -10185,7 +10191,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
     </row>
-    <row r="345" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
@@ -10213,7 +10219,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
     </row>
-    <row r="346" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
@@ -10241,7 +10247,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="5"/>
     </row>
-    <row r="347" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
@@ -10269,7 +10275,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="5"/>
     </row>
-    <row r="348" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
@@ -10297,7 +10303,7 @@
       <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
     </row>
-    <row r="349" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
@@ -10325,7 +10331,7 @@
       <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
     </row>
-    <row r="350" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
@@ -10353,7 +10359,7 @@
       <c r="Y350" s="5"/>
       <c r="Z350" s="5"/>
     </row>
-    <row r="351" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
@@ -10381,7 +10387,7 @@
       <c r="Y351" s="5"/>
       <c r="Z351" s="5"/>
     </row>
-    <row r="352" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
@@ -10409,7 +10415,7 @@
       <c r="Y352" s="5"/>
       <c r="Z352" s="5"/>
     </row>
-    <row r="353" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
@@ -10437,7 +10443,7 @@
       <c r="Y353" s="5"/>
       <c r="Z353" s="5"/>
     </row>
-    <row r="354" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
@@ -10465,7 +10471,7 @@
       <c r="Y354" s="5"/>
       <c r="Z354" s="5"/>
     </row>
-    <row r="355" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
@@ -10493,7 +10499,7 @@
       <c r="Y355" s="5"/>
       <c r="Z355" s="5"/>
     </row>
-    <row r="356" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
@@ -10521,7 +10527,7 @@
       <c r="Y356" s="5"/>
       <c r="Z356" s="5"/>
     </row>
-    <row r="357" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
@@ -10549,7 +10555,7 @@
       <c r="Y357" s="5"/>
       <c r="Z357" s="5"/>
     </row>
-    <row r="358" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
@@ -10577,7 +10583,7 @@
       <c r="Y358" s="5"/>
       <c r="Z358" s="5"/>
     </row>
-    <row r="359" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
@@ -10605,7 +10611,7 @@
       <c r="Y359" s="5"/>
       <c r="Z359" s="5"/>
     </row>
-    <row r="360" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
@@ -10633,7 +10639,7 @@
       <c r="Y360" s="5"/>
       <c r="Z360" s="5"/>
     </row>
-    <row r="361" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
@@ -10661,7 +10667,7 @@
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
     </row>
-    <row r="362" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
@@ -10689,7 +10695,7 @@
       <c r="Y362" s="5"/>
       <c r="Z362" s="5"/>
     </row>
-    <row r="363" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
@@ -10717,7 +10723,7 @@
       <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
     </row>
-    <row r="364" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
@@ -10745,7 +10751,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
@@ -10773,7 +10779,7 @@
       <c r="Y365" s="5"/>
       <c r="Z365" s="5"/>
     </row>
-    <row r="366" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
@@ -10801,7 +10807,7 @@
       <c r="Y366" s="5"/>
       <c r="Z366" s="5"/>
     </row>
-    <row r="367" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
@@ -10829,7 +10835,7 @@
       <c r="Y367" s="5"/>
       <c r="Z367" s="5"/>
     </row>
-    <row r="368" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
@@ -10857,7 +10863,7 @@
       <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
     </row>
-    <row r="369" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
@@ -10885,7 +10891,7 @@
       <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
     </row>
-    <row r="370" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
@@ -10913,7 +10919,7 @@
       <c r="Y370" s="5"/>
       <c r="Z370" s="5"/>
     </row>
-    <row r="371" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
@@ -10941,7 +10947,7 @@
       <c r="Y371" s="5"/>
       <c r="Z371" s="5"/>
     </row>
-    <row r="372" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
@@ -10969,7 +10975,7 @@
       <c r="Y372" s="5"/>
       <c r="Z372" s="5"/>
     </row>
-    <row r="373" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
@@ -10997,7 +11003,7 @@
       <c r="Y373" s="5"/>
       <c r="Z373" s="5"/>
     </row>
-    <row r="374" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
@@ -11025,7 +11031,7 @@
       <c r="Y374" s="5"/>
       <c r="Z374" s="5"/>
     </row>
-    <row r="375" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
@@ -11053,7 +11059,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
@@ -11081,7 +11087,7 @@
       <c r="Y376" s="5"/>
       <c r="Z376" s="5"/>
     </row>
-    <row r="377" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
@@ -11109,7 +11115,7 @@
       <c r="Y377" s="5"/>
       <c r="Z377" s="5"/>
     </row>
-    <row r="378" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
@@ -11137,7 +11143,7 @@
       <c r="Y378" s="5"/>
       <c r="Z378" s="5"/>
     </row>
-    <row r="379" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
@@ -11165,7 +11171,7 @@
       <c r="Y379" s="5"/>
       <c r="Z379" s="5"/>
     </row>
-    <row r="380" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
@@ -11193,7 +11199,7 @@
       <c r="Y380" s="5"/>
       <c r="Z380" s="5"/>
     </row>
-    <row r="381" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
@@ -11221,7 +11227,7 @@
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
     </row>
-    <row r="382" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
@@ -11249,7 +11255,7 @@
       <c r="Y382" s="5"/>
       <c r="Z382" s="5"/>
     </row>
-    <row r="383" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
@@ -11277,7 +11283,7 @@
       <c r="Y383" s="5"/>
       <c r="Z383" s="5"/>
     </row>
-    <row r="384" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
@@ -11305,7 +11311,7 @@
       <c r="Y384" s="5"/>
       <c r="Z384" s="5"/>
     </row>
-    <row r="385" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
@@ -11333,7 +11339,7 @@
       <c r="Y385" s="5"/>
       <c r="Z385" s="5"/>
     </row>
-    <row r="386" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
@@ -11361,7 +11367,7 @@
       <c r="Y386" s="5"/>
       <c r="Z386" s="5"/>
     </row>
-    <row r="387" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
@@ -11389,7 +11395,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
@@ -11417,7 +11423,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
@@ -11445,7 +11451,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
@@ -11473,7 +11479,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
@@ -11501,7 +11507,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -11529,7 +11535,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
@@ -11557,7 +11563,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
@@ -11585,7 +11591,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
@@ -11613,7 +11619,7 @@
       <c r="Y395" s="5"/>
       <c r="Z395" s="5"/>
     </row>
-    <row r="396" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
@@ -11641,7 +11647,7 @@
       <c r="Y396" s="5"/>
       <c r="Z396" s="5"/>
     </row>
-    <row r="397" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
@@ -11669,7 +11675,7 @@
       <c r="Y397" s="5"/>
       <c r="Z397" s="5"/>
     </row>
-    <row r="398" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
@@ -11697,7 +11703,7 @@
       <c r="Y398" s="5"/>
       <c r="Z398" s="5"/>
     </row>
-    <row r="399" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
@@ -11725,7 +11731,7 @@
       <c r="Y399" s="5"/>
       <c r="Z399" s="5"/>
     </row>
-    <row r="400" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
@@ -11753,7 +11759,7 @@
       <c r="Y400" s="5"/>
       <c r="Z400" s="5"/>
     </row>
-    <row r="401" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
@@ -11781,7 +11787,7 @@
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
     </row>
-    <row r="402" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
@@ -11809,7 +11815,7 @@
       <c r="Y402" s="5"/>
       <c r="Z402" s="5"/>
     </row>
-    <row r="403" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
@@ -11837,7 +11843,7 @@
       <c r="Y403" s="5"/>
       <c r="Z403" s="5"/>
     </row>
-    <row r="404" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
@@ -11865,7 +11871,7 @@
       <c r="Y404" s="5"/>
       <c r="Z404" s="5"/>
     </row>
-    <row r="405" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -11893,7 +11899,7 @@
       <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
     </row>
-    <row r="406" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
@@ -11921,7 +11927,7 @@
       <c r="Y406" s="5"/>
       <c r="Z406" s="5"/>
     </row>
-    <row r="407" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
@@ -11949,7 +11955,7 @@
       <c r="Y407" s="5"/>
       <c r="Z407" s="5"/>
     </row>
-    <row r="408" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
@@ -11977,7 +11983,7 @@
       <c r="Y408" s="5"/>
       <c r="Z408" s="5"/>
     </row>
-    <row r="409" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
@@ -12005,7 +12011,7 @@
       <c r="Y409" s="5"/>
       <c r="Z409" s="5"/>
     </row>
-    <row r="410" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
@@ -12033,7 +12039,7 @@
       <c r="Y410" s="5"/>
       <c r="Z410" s="5"/>
     </row>
-    <row r="411" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
@@ -12061,7 +12067,7 @@
       <c r="Y411" s="5"/>
       <c r="Z411" s="5"/>
     </row>
-    <row r="412" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
@@ -12089,7 +12095,7 @@
       <c r="Y412" s="5"/>
       <c r="Z412" s="5"/>
     </row>
-    <row r="413" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
@@ -12117,7 +12123,7 @@
       <c r="Y413" s="5"/>
       <c r="Z413" s="5"/>
     </row>
-    <row r="414" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
@@ -12145,7 +12151,7 @@
       <c r="Y414" s="5"/>
       <c r="Z414" s="5"/>
     </row>
-    <row r="415" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
@@ -12173,7 +12179,7 @@
       <c r="Y415" s="5"/>
       <c r="Z415" s="5"/>
     </row>
-    <row r="416" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
@@ -12201,7 +12207,7 @@
       <c r="Y416" s="5"/>
       <c r="Z416" s="5"/>
     </row>
-    <row r="417" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
@@ -12229,7 +12235,7 @@
       <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
     </row>
-    <row r="418" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
@@ -12257,7 +12263,7 @@
       <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
     </row>
-    <row r="419" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
@@ -12285,7 +12291,7 @@
       <c r="Y419" s="5"/>
       <c r="Z419" s="5"/>
     </row>
-    <row r="420" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
@@ -12313,7 +12319,7 @@
       <c r="Y420" s="5"/>
       <c r="Z420" s="5"/>
     </row>
-    <row r="421" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
@@ -12341,7 +12347,7 @@
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
     </row>
-    <row r="422" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
@@ -12369,7 +12375,7 @@
       <c r="Y422" s="5"/>
       <c r="Z422" s="5"/>
     </row>
-    <row r="423" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
@@ -12397,7 +12403,7 @@
       <c r="Y423" s="5"/>
       <c r="Z423" s="5"/>
     </row>
-    <row r="424" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
@@ -12425,7 +12431,7 @@
       <c r="Y424" s="5"/>
       <c r="Z424" s="5"/>
     </row>
-    <row r="425" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
@@ -12453,7 +12459,7 @@
       <c r="Y425" s="5"/>
       <c r="Z425" s="5"/>
     </row>
-    <row r="426" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
@@ -12481,7 +12487,7 @@
       <c r="Y426" s="5"/>
       <c r="Z426" s="5"/>
     </row>
-    <row r="427" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
@@ -12509,7 +12515,7 @@
       <c r="Y427" s="5"/>
       <c r="Z427" s="5"/>
     </row>
-    <row r="428" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -12537,7 +12543,7 @@
       <c r="Y428" s="5"/>
       <c r="Z428" s="5"/>
     </row>
-    <row r="429" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
@@ -12565,7 +12571,7 @@
       <c r="Y429" s="5"/>
       <c r="Z429" s="5"/>
     </row>
-    <row r="430" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
@@ -12593,7 +12599,7 @@
       <c r="Y430" s="5"/>
       <c r="Z430" s="5"/>
     </row>
-    <row r="431" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
@@ -12621,7 +12627,7 @@
       <c r="Y431" s="5"/>
       <c r="Z431" s="5"/>
     </row>
-    <row r="432" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
@@ -12649,7 +12655,7 @@
       <c r="Y432" s="5"/>
       <c r="Z432" s="5"/>
     </row>
-    <row r="433" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -12677,7 +12683,7 @@
       <c r="Y433" s="5"/>
       <c r="Z433" s="5"/>
     </row>
-    <row r="434" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
@@ -12705,7 +12711,7 @@
       <c r="Y434" s="5"/>
       <c r="Z434" s="5"/>
     </row>
-    <row r="435" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
@@ -12733,7 +12739,7 @@
       <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
     </row>
-    <row r="436" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
@@ -12761,7 +12767,7 @@
       <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
     </row>
-    <row r="437" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
@@ -12789,7 +12795,7 @@
       <c r="Y437" s="5"/>
       <c r="Z437" s="5"/>
     </row>
-    <row r="438" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
@@ -12817,7 +12823,7 @@
       <c r="Y438" s="5"/>
       <c r="Z438" s="5"/>
     </row>
-    <row r="439" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
@@ -12845,7 +12851,7 @@
       <c r="Y439" s="5"/>
       <c r="Z439" s="5"/>
     </row>
-    <row r="440" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
@@ -12873,7 +12879,7 @@
       <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
     </row>
-    <row r="441" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
@@ -12901,7 +12907,7 @@
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
     </row>
-    <row r="442" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
@@ -12929,7 +12935,7 @@
       <c r="Y442" s="5"/>
       <c r="Z442" s="5"/>
     </row>
-    <row r="443" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
@@ -12957,7 +12963,7 @@
       <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
     </row>
-    <row r="444" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
@@ -12985,7 +12991,7 @@
       <c r="Y444" s="5"/>
       <c r="Z444" s="5"/>
     </row>
-    <row r="445" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
@@ -13013,7 +13019,7 @@
       <c r="Y445" s="5"/>
       <c r="Z445" s="5"/>
     </row>
-    <row r="446" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
@@ -13041,7 +13047,7 @@
       <c r="Y446" s="5"/>
       <c r="Z446" s="5"/>
     </row>
-    <row r="447" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
@@ -13069,7 +13075,7 @@
       <c r="Y447" s="5"/>
       <c r="Z447" s="5"/>
     </row>
-    <row r="448" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -13097,7 +13103,7 @@
       <c r="Y448" s="5"/>
       <c r="Z448" s="5"/>
     </row>
-    <row r="449" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6"/>
@@ -13125,7 +13131,7 @@
       <c r="Y449" s="5"/>
       <c r="Z449" s="5"/>
     </row>
-    <row r="450" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
@@ -13153,7 +13159,7 @@
       <c r="Y450" s="5"/>
       <c r="Z450" s="5"/>
     </row>
-    <row r="451" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6"/>
@@ -13181,7 +13187,7 @@
       <c r="Y451" s="5"/>
       <c r="Z451" s="5"/>
     </row>
-    <row r="452" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
@@ -13209,7 +13215,7 @@
       <c r="Y452" s="5"/>
       <c r="Z452" s="5"/>
     </row>
-    <row r="453" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6"/>
@@ -13237,7 +13243,7 @@
       <c r="Y453" s="5"/>
       <c r="Z453" s="5"/>
     </row>
-    <row r="454" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
@@ -13265,7 +13271,7 @@
       <c r="Y454" s="5"/>
       <c r="Z454" s="5"/>
     </row>
-    <row r="455" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="6"/>
@@ -13293,7 +13299,7 @@
       <c r="Y455" s="5"/>
       <c r="Z455" s="5"/>
     </row>
-    <row r="456" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
@@ -13321,7 +13327,7 @@
       <c r="Y456" s="5"/>
       <c r="Z456" s="5"/>
     </row>
-    <row r="457" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6"/>
@@ -13349,7 +13355,7 @@
       <c r="Y457" s="5"/>
       <c r="Z457" s="5"/>
     </row>
-    <row r="458" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
@@ -13377,7 +13383,7 @@
       <c r="Y458" s="5"/>
       <c r="Z458" s="5"/>
     </row>
-    <row r="459" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6"/>
@@ -13405,7 +13411,7 @@
       <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
     </row>
-    <row r="460" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
@@ -13433,7 +13439,7 @@
       <c r="Y460" s="5"/>
       <c r="Z460" s="5"/>
     </row>
-    <row r="461" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6"/>
@@ -13461,7 +13467,7 @@
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
     </row>
-    <row r="462" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
@@ -13489,7 +13495,7 @@
       <c r="Y462" s="5"/>
       <c r="Z462" s="5"/>
     </row>
-    <row r="463" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6"/>
@@ -13517,7 +13523,7 @@
       <c r="Y463" s="5"/>
       <c r="Z463" s="5"/>
     </row>
-    <row r="464" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
@@ -13545,7 +13551,7 @@
       <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
     </row>
-    <row r="465" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6"/>
@@ -13573,7 +13579,7 @@
       <c r="Y465" s="5"/>
       <c r="Z465" s="5"/>
     </row>
-    <row r="466" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
@@ -13601,7 +13607,7 @@
       <c r="Y466" s="5"/>
       <c r="Z466" s="5"/>
     </row>
-    <row r="467" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6"/>
@@ -13629,7 +13635,7 @@
       <c r="Y467" s="5"/>
       <c r="Z467" s="5"/>
     </row>
-    <row r="468" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
@@ -13657,7 +13663,7 @@
       <c r="Y468" s="5"/>
       <c r="Z468" s="5"/>
     </row>
-    <row r="469" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6"/>
@@ -13685,7 +13691,7 @@
       <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
     </row>
-    <row r="470" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
@@ -13713,7 +13719,7 @@
       <c r="Y470" s="5"/>
       <c r="Z470" s="5"/>
     </row>
-    <row r="471" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
@@ -13741,7 +13747,7 @@
       <c r="Y471" s="5"/>
       <c r="Z471" s="5"/>
     </row>
-    <row r="472" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
@@ -13769,7 +13775,7 @@
       <c r="Y472" s="5"/>
       <c r="Z472" s="5"/>
     </row>
-    <row r="473" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6"/>
@@ -13797,7 +13803,7 @@
       <c r="Y473" s="5"/>
       <c r="Z473" s="5"/>
     </row>
-    <row r="474" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
@@ -13825,7 +13831,7 @@
       <c r="Y474" s="5"/>
       <c r="Z474" s="5"/>
     </row>
-    <row r="475" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6"/>
@@ -13853,7 +13859,7 @@
       <c r="Y475" s="5"/>
       <c r="Z475" s="5"/>
     </row>
-    <row r="476" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
@@ -13881,7 +13887,7 @@
       <c r="Y476" s="5"/>
       <c r="Z476" s="5"/>
     </row>
-    <row r="477" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6"/>
@@ -13909,7 +13915,7 @@
       <c r="Y477" s="5"/>
       <c r="Z477" s="5"/>
     </row>
-    <row r="478" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
@@ -13937,7 +13943,7 @@
       <c r="Y478" s="5"/>
       <c r="Z478" s="5"/>
     </row>
-    <row r="479" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6"/>
@@ -13965,7 +13971,7 @@
       <c r="Y479" s="5"/>
       <c r="Z479" s="5"/>
     </row>
-    <row r="480" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
@@ -13993,7 +13999,7 @@
       <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
     </row>
-    <row r="481" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6"/>
@@ -14021,7 +14027,7 @@
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
     </row>
-    <row r="482" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
@@ -14049,7 +14055,7 @@
       <c r="Y482" s="5"/>
       <c r="Z482" s="5"/>
     </row>
-    <row r="483" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6"/>
@@ -14077,7 +14083,7 @@
       <c r="Y483" s="5"/>
       <c r="Z483" s="5"/>
     </row>
-    <row r="484" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
@@ -14105,7 +14111,7 @@
       <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
     </row>
-    <row r="485" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6"/>
@@ -14133,7 +14139,7 @@
       <c r="Y485" s="5"/>
       <c r="Z485" s="5"/>
     </row>
-    <row r="486" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
@@ -14161,7 +14167,7 @@
       <c r="Y486" s="5"/>
       <c r="Z486" s="5"/>
     </row>
-    <row r="487" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6"/>
@@ -14189,7 +14195,7 @@
       <c r="Y487" s="5"/>
       <c r="Z487" s="5"/>
     </row>
-    <row r="488" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
@@ -14217,7 +14223,7 @@
       <c r="Y488" s="5"/>
       <c r="Z488" s="5"/>
     </row>
-    <row r="489" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
@@ -14245,7 +14251,7 @@
       <c r="Y489" s="5"/>
       <c r="Z489" s="5"/>
     </row>
-    <row r="490" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
@@ -14273,7 +14279,7 @@
       <c r="Y490" s="5"/>
       <c r="Z490" s="5"/>
     </row>
-    <row r="491" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6"/>
@@ -14301,7 +14307,7 @@
       <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
     </row>
-    <row r="492" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
@@ -14329,7 +14335,7 @@
       <c r="Y492" s="5"/>
       <c r="Z492" s="5"/>
     </row>
-    <row r="493" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6"/>
@@ -14357,7 +14363,7 @@
       <c r="Y493" s="5"/>
       <c r="Z493" s="5"/>
     </row>
-    <row r="494" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
@@ -14385,7 +14391,7 @@
       <c r="Y494" s="5"/>
       <c r="Z494" s="5"/>
     </row>
-    <row r="495" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6"/>
@@ -14413,7 +14419,7 @@
       <c r="Y495" s="5"/>
       <c r="Z495" s="5"/>
     </row>
-    <row r="496" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
@@ -14441,7 +14447,7 @@
       <c r="Y496" s="5"/>
       <c r="Z496" s="5"/>
     </row>
-    <row r="497" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6"/>
@@ -14469,7 +14475,7 @@
       <c r="Y497" s="5"/>
       <c r="Z497" s="5"/>
     </row>
-    <row r="498" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
@@ -14497,7 +14503,7 @@
       <c r="Y498" s="5"/>
       <c r="Z498" s="5"/>
     </row>
-    <row r="499" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6"/>
@@ -14525,7 +14531,7 @@
       <c r="Y499" s="5"/>
       <c r="Z499" s="5"/>
     </row>
-    <row r="500" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
@@ -14553,7 +14559,7 @@
       <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
     </row>
-    <row r="501" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6"/>
@@ -14581,7 +14587,7 @@
       <c r="Y501" s="5"/>
       <c r="Z501" s="5"/>
     </row>
-    <row r="502" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
@@ -14609,7 +14615,7 @@
       <c r="Y502" s="5"/>
       <c r="Z502" s="5"/>
     </row>
-    <row r="503" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6"/>
@@ -14637,7 +14643,7 @@
       <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
     </row>
-    <row r="504" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
@@ -14665,7 +14671,7 @@
       <c r="Y504" s="5"/>
       <c r="Z504" s="5"/>
     </row>
-    <row r="505" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6"/>
@@ -14693,7 +14699,7 @@
       <c r="Y505" s="5"/>
       <c r="Z505" s="5"/>
     </row>
-    <row r="506" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
@@ -14721,7 +14727,7 @@
       <c r="Y506" s="5"/>
       <c r="Z506" s="5"/>
     </row>
-    <row r="507" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6"/>
@@ -14749,7 +14755,7 @@
       <c r="Y507" s="5"/>
       <c r="Z507" s="5"/>
     </row>
-    <row r="508" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
@@ -14777,7 +14783,7 @@
       <c r="Y508" s="5"/>
       <c r="Z508" s="5"/>
     </row>
-    <row r="509" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6"/>
@@ -14805,7 +14811,7 @@
       <c r="Y509" s="5"/>
       <c r="Z509" s="5"/>
     </row>
-    <row r="510" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
@@ -14833,7 +14839,7 @@
       <c r="Y510" s="5"/>
       <c r="Z510" s="5"/>
     </row>
-    <row r="511" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6"/>
@@ -14861,7 +14867,7 @@
       <c r="Y511" s="5"/>
       <c r="Z511" s="5"/>
     </row>
-    <row r="512" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
@@ -14889,7 +14895,7 @@
       <c r="Y512" s="5"/>
       <c r="Z512" s="5"/>
     </row>
-    <row r="513" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6"/>
@@ -14917,7 +14923,7 @@
       <c r="Y513" s="5"/>
       <c r="Z513" s="5"/>
     </row>
-    <row r="514" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
@@ -14945,7 +14951,7 @@
       <c r="Y514" s="5"/>
       <c r="Z514" s="5"/>
     </row>
-    <row r="515" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6"/>
@@ -14973,7 +14979,7 @@
       <c r="Y515" s="5"/>
       <c r="Z515" s="5"/>
     </row>
-    <row r="516" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
@@ -15001,7 +15007,7 @@
       <c r="Y516" s="5"/>
       <c r="Z516" s="5"/>
     </row>
-    <row r="517" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6"/>
@@ -15029,7 +15035,7 @@
       <c r="Y517" s="5"/>
       <c r="Z517" s="5"/>
     </row>
-    <row r="518" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
@@ -15057,7 +15063,7 @@
       <c r="Y518" s="5"/>
       <c r="Z518" s="5"/>
     </row>
-    <row r="519" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6"/>
@@ -15085,7 +15091,7 @@
       <c r="Y519" s="5"/>
       <c r="Z519" s="5"/>
     </row>
-    <row r="520" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
@@ -15113,7 +15119,7 @@
       <c r="Y520" s="5"/>
       <c r="Z520" s="5"/>
     </row>
-    <row r="521" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6"/>
@@ -15141,7 +15147,7 @@
       <c r="Y521" s="5"/>
       <c r="Z521" s="5"/>
     </row>
-    <row r="522" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
@@ -15169,7 +15175,7 @@
       <c r="Y522" s="5"/>
       <c r="Z522" s="5"/>
     </row>
-    <row r="523" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6"/>
@@ -15197,7 +15203,7 @@
       <c r="Y523" s="5"/>
       <c r="Z523" s="5"/>
     </row>
-    <row r="524" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6"/>
@@ -15225,7 +15231,7 @@
       <c r="Y524" s="5"/>
       <c r="Z524" s="5"/>
     </row>
-    <row r="525" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6"/>
@@ -15253,7 +15259,7 @@
       <c r="Y525" s="5"/>
       <c r="Z525" s="5"/>
     </row>
-    <row r="526" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6"/>
@@ -15281,7 +15287,7 @@
       <c r="Y526" s="5"/>
       <c r="Z526" s="5"/>
     </row>
-    <row r="527" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6"/>
@@ -15309,7 +15315,7 @@
       <c r="Y527" s="5"/>
       <c r="Z527" s="5"/>
     </row>
-    <row r="528" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6"/>
@@ -15337,7 +15343,7 @@
       <c r="Y528" s="5"/>
       <c r="Z528" s="5"/>
     </row>
-    <row r="529" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6"/>
@@ -15365,7 +15371,7 @@
       <c r="Y529" s="5"/>
       <c r="Z529" s="5"/>
     </row>
-    <row r="530" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6"/>
@@ -15393,7 +15399,7 @@
       <c r="Y530" s="5"/>
       <c r="Z530" s="5"/>
     </row>
-    <row r="531" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
       <c r="C531" s="6"/>
@@ -15421,7 +15427,7 @@
       <c r="Y531" s="5"/>
       <c r="Z531" s="5"/>
     </row>
-    <row r="532" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6"/>
@@ -15449,7 +15455,7 @@
       <c r="Y532" s="5"/>
       <c r="Z532" s="5"/>
     </row>
-    <row r="533" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
       <c r="C533" s="6"/>
@@ -15477,7 +15483,7 @@
       <c r="Y533" s="5"/>
       <c r="Z533" s="5"/>
     </row>
-    <row r="534" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
@@ -15505,7 +15511,7 @@
       <c r="Y534" s="5"/>
       <c r="Z534" s="5"/>
     </row>
-    <row r="535" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6"/>
@@ -15533,7 +15539,7 @@
       <c r="Y535" s="5"/>
       <c r="Z535" s="5"/>
     </row>
-    <row r="536" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
@@ -15561,7 +15567,7 @@
       <c r="Y536" s="5"/>
       <c r="Z536" s="5"/>
     </row>
-    <row r="537" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6"/>
@@ -15589,7 +15595,7 @@
       <c r="Y537" s="5"/>
       <c r="Z537" s="5"/>
     </row>
-    <row r="538" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6"/>
@@ -15617,7 +15623,7 @@
       <c r="Y538" s="5"/>
       <c r="Z538" s="5"/>
     </row>
-    <row r="539" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6"/>
@@ -15645,7 +15651,7 @@
       <c r="Y539" s="5"/>
       <c r="Z539" s="5"/>
     </row>
-    <row r="540" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6"/>
@@ -15673,7 +15679,7 @@
       <c r="Y540" s="5"/>
       <c r="Z540" s="5"/>
     </row>
-    <row r="541" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6"/>
@@ -15701,7 +15707,7 @@
       <c r="Y541" s="5"/>
       <c r="Z541" s="5"/>
     </row>
-    <row r="542" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
       <c r="C542" s="6"/>
@@ -15729,7 +15735,7 @@
       <c r="Y542" s="5"/>
       <c r="Z542" s="5"/>
     </row>
-    <row r="543" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6"/>
@@ -15757,7 +15763,7 @@
       <c r="Y543" s="5"/>
       <c r="Z543" s="5"/>
     </row>
-    <row r="544" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6"/>
@@ -15785,7 +15791,7 @@
       <c r="Y544" s="5"/>
       <c r="Z544" s="5"/>
     </row>
-    <row r="545" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
       <c r="C545" s="6"/>
@@ -15813,7 +15819,7 @@
       <c r="Y545" s="5"/>
       <c r="Z545" s="5"/>
     </row>
-    <row r="546" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6"/>
@@ -15841,7 +15847,7 @@
       <c r="Y546" s="5"/>
       <c r="Z546" s="5"/>
     </row>
-    <row r="547" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6"/>
@@ -15869,7 +15875,7 @@
       <c r="Y547" s="5"/>
       <c r="Z547" s="5"/>
     </row>
-    <row r="548" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6"/>
@@ -15897,7 +15903,7 @@
       <c r="Y548" s="5"/>
       <c r="Z548" s="5"/>
     </row>
-    <row r="549" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6"/>
@@ -15925,7 +15931,7 @@
       <c r="Y549" s="5"/>
       <c r="Z549" s="5"/>
     </row>
-    <row r="550" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6"/>
@@ -15953,7 +15959,7 @@
       <c r="Y550" s="5"/>
       <c r="Z550" s="5"/>
     </row>
-    <row r="551" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6"/>
@@ -15981,7 +15987,7 @@
       <c r="Y551" s="5"/>
       <c r="Z551" s="5"/>
     </row>
-    <row r="552" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
       <c r="C552" s="6"/>
@@ -16009,7 +16015,7 @@
       <c r="Y552" s="5"/>
       <c r="Z552" s="5"/>
     </row>
-    <row r="553" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6"/>
@@ -16037,7 +16043,7 @@
       <c r="Y553" s="5"/>
       <c r="Z553" s="5"/>
     </row>
-    <row r="554" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6"/>
@@ -16065,7 +16071,7 @@
       <c r="Y554" s="5"/>
       <c r="Z554" s="5"/>
     </row>
-    <row r="555" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6"/>
@@ -16093,7 +16099,7 @@
       <c r="Y555" s="5"/>
       <c r="Z555" s="5"/>
     </row>
-    <row r="556" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6"/>
@@ -16121,7 +16127,7 @@
       <c r="Y556" s="5"/>
       <c r="Z556" s="5"/>
     </row>
-    <row r="557" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6"/>
@@ -16149,7 +16155,7 @@
       <c r="Y557" s="5"/>
       <c r="Z557" s="5"/>
     </row>
-    <row r="558" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6"/>
@@ -16177,7 +16183,7 @@
       <c r="Y558" s="5"/>
       <c r="Z558" s="5"/>
     </row>
-    <row r="559" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6"/>
@@ -16205,7 +16211,7 @@
       <c r="Y559" s="5"/>
       <c r="Z559" s="5"/>
     </row>
-    <row r="560" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6"/>
@@ -16233,7 +16239,7 @@
       <c r="Y560" s="5"/>
       <c r="Z560" s="5"/>
     </row>
-    <row r="561" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6"/>
@@ -16261,7 +16267,7 @@
       <c r="Y561" s="5"/>
       <c r="Z561" s="5"/>
     </row>
-    <row r="562" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6"/>
@@ -16289,7 +16295,7 @@
       <c r="Y562" s="5"/>
       <c r="Z562" s="5"/>
     </row>
-    <row r="563" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6"/>
@@ -16317,7 +16323,7 @@
       <c r="Y563" s="5"/>
       <c r="Z563" s="5"/>
     </row>
-    <row r="564" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6"/>
@@ -16345,7 +16351,7 @@
       <c r="Y564" s="5"/>
       <c r="Z564" s="5"/>
     </row>
-    <row r="565" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6"/>
@@ -16373,7 +16379,7 @@
       <c r="Y565" s="5"/>
       <c r="Z565" s="5"/>
     </row>
-    <row r="566" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6"/>
@@ -16401,7 +16407,7 @@
       <c r="Y566" s="5"/>
       <c r="Z566" s="5"/>
     </row>
-    <row r="567" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6"/>
@@ -16429,7 +16435,7 @@
       <c r="Y567" s="5"/>
       <c r="Z567" s="5"/>
     </row>
-    <row r="568" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6"/>
@@ -16457,7 +16463,7 @@
       <c r="Y568" s="5"/>
       <c r="Z568" s="5"/>
     </row>
-    <row r="569" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6"/>
@@ -16485,7 +16491,7 @@
       <c r="Y569" s="5"/>
       <c r="Z569" s="5"/>
     </row>
-    <row r="570" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6"/>
@@ -16513,7 +16519,7 @@
       <c r="Y570" s="5"/>
       <c r="Z570" s="5"/>
     </row>
-    <row r="571" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6"/>
@@ -16541,7 +16547,7 @@
       <c r="Y571" s="5"/>
       <c r="Z571" s="5"/>
     </row>
-    <row r="572" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6"/>
@@ -16569,7 +16575,7 @@
       <c r="Y572" s="5"/>
       <c r="Z572" s="5"/>
     </row>
-    <row r="573" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6"/>
@@ -16597,7 +16603,7 @@
       <c r="Y573" s="5"/>
       <c r="Z573" s="5"/>
     </row>
-    <row r="574" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6"/>
@@ -16625,7 +16631,7 @@
       <c r="Y574" s="5"/>
       <c r="Z574" s="5"/>
     </row>
-    <row r="575" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6"/>
@@ -16653,7 +16659,7 @@
       <c r="Y575" s="5"/>
       <c r="Z575" s="5"/>
     </row>
-    <row r="576" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="5"/>
       <c r="C576" s="6"/>
@@ -16681,7 +16687,7 @@
       <c r="Y576" s="5"/>
       <c r="Z576" s="5"/>
     </row>
-    <row r="577" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
       <c r="C577" s="6"/>
@@ -16709,7 +16715,7 @@
       <c r="Y577" s="5"/>
       <c r="Z577" s="5"/>
     </row>
-    <row r="578" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="5"/>
       <c r="C578" s="6"/>
@@ -16737,7 +16743,7 @@
       <c r="Y578" s="5"/>
       <c r="Z578" s="5"/>
     </row>
-    <row r="579" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
       <c r="C579" s="6"/>
@@ -16765,7 +16771,7 @@
       <c r="Y579" s="5"/>
       <c r="Z579" s="5"/>
     </row>
-    <row r="580" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="5"/>
       <c r="C580" s="6"/>
@@ -16793,7 +16799,7 @@
       <c r="Y580" s="5"/>
       <c r="Z580" s="5"/>
     </row>
-    <row r="581" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="5"/>
       <c r="C581" s="6"/>
@@ -16821,7 +16827,7 @@
       <c r="Y581" s="5"/>
       <c r="Z581" s="5"/>
     </row>
-    <row r="582" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="5"/>
       <c r="C582" s="6"/>
@@ -16849,7 +16855,7 @@
       <c r="Y582" s="5"/>
       <c r="Z582" s="5"/>
     </row>
-    <row r="583" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="5"/>
       <c r="C583" s="6"/>
@@ -16877,7 +16883,7 @@
       <c r="Y583" s="5"/>
       <c r="Z583" s="5"/>
     </row>
-    <row r="584" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="5"/>
       <c r="C584" s="6"/>
@@ -16905,7 +16911,7 @@
       <c r="Y584" s="5"/>
       <c r="Z584" s="5"/>
     </row>
-    <row r="585" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6"/>
@@ -16933,7 +16939,7 @@
       <c r="Y585" s="5"/>
       <c r="Z585" s="5"/>
     </row>
-    <row r="586" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
@@ -16961,7 +16967,7 @@
       <c r="Y586" s="5"/>
       <c r="Z586" s="5"/>
     </row>
-    <row r="587" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6"/>
@@ -16989,7 +16995,7 @@
       <c r="Y587" s="5"/>
       <c r="Z587" s="5"/>
     </row>
-    <row r="588" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="5"/>
       <c r="C588" s="6"/>
@@ -17017,7 +17023,7 @@
       <c r="Y588" s="5"/>
       <c r="Z588" s="5"/>
     </row>
-    <row r="589" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6"/>
@@ -17045,7 +17051,7 @@
       <c r="Y589" s="5"/>
       <c r="Z589" s="5"/>
     </row>
-    <row r="590" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="5"/>
       <c r="C590" s="6"/>
@@ -17073,7 +17079,7 @@
       <c r="Y590" s="5"/>
       <c r="Z590" s="5"/>
     </row>
-    <row r="591" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="5"/>
       <c r="C591" s="6"/>
@@ -17101,7 +17107,7 @@
       <c r="Y591" s="5"/>
       <c r="Z591" s="5"/>
     </row>
-    <row r="592" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="5"/>
       <c r="C592" s="6"/>
@@ -17129,7 +17135,7 @@
       <c r="Y592" s="5"/>
       <c r="Z592" s="5"/>
     </row>
-    <row r="593" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6"/>
@@ -17157,7 +17163,7 @@
       <c r="Y593" s="5"/>
       <c r="Z593" s="5"/>
     </row>
-    <row r="594" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
@@ -17185,7 +17191,7 @@
       <c r="Y594" s="5"/>
       <c r="Z594" s="5"/>
     </row>
-    <row r="595" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6"/>
@@ -17213,7 +17219,7 @@
       <c r="Y595" s="5"/>
       <c r="Z595" s="5"/>
     </row>
-    <row r="596" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
@@ -17241,7 +17247,7 @@
       <c r="Y596" s="5"/>
       <c r="Z596" s="5"/>
     </row>
-    <row r="597" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6"/>
@@ -17269,7 +17275,7 @@
       <c r="Y597" s="5"/>
       <c r="Z597" s="5"/>
     </row>
-    <row r="598" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
@@ -17297,7 +17303,7 @@
       <c r="Y598" s="5"/>
       <c r="Z598" s="5"/>
     </row>
-    <row r="599" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6"/>
@@ -17325,7 +17331,7 @@
       <c r="Y599" s="5"/>
       <c r="Z599" s="5"/>
     </row>
-    <row r="600" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
@@ -17353,7 +17359,7 @@
       <c r="Y600" s="5"/>
       <c r="Z600" s="5"/>
     </row>
-    <row r="601" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="5"/>
       <c r="C601" s="6"/>
@@ -17381,7 +17387,7 @@
       <c r="Y601" s="5"/>
       <c r="Z601" s="5"/>
     </row>
-    <row r="602" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
@@ -17409,7 +17415,7 @@
       <c r="Y602" s="5"/>
       <c r="Z602" s="5"/>
     </row>
-    <row r="603" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6"/>
@@ -17437,7 +17443,7 @@
       <c r="Y603" s="5"/>
       <c r="Z603" s="5"/>
     </row>
-    <row r="604" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
@@ -17465,7 +17471,7 @@
       <c r="Y604" s="5"/>
       <c r="Z604" s="5"/>
     </row>
-    <row r="605" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6"/>
@@ -17493,7 +17499,7 @@
       <c r="Y605" s="5"/>
       <c r="Z605" s="5"/>
     </row>
-    <row r="606" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6"/>
@@ -17521,7 +17527,7 @@
       <c r="Y606" s="5"/>
       <c r="Z606" s="5"/>
     </row>
-    <row r="607" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6"/>
@@ -17549,7 +17555,7 @@
       <c r="Y607" s="5"/>
       <c r="Z607" s="5"/>
     </row>
-    <row r="608" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6"/>
@@ -17577,7 +17583,7 @@
       <c r="Y608" s="5"/>
       <c r="Z608" s="5"/>
     </row>
-    <row r="609" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6"/>
@@ -17605,7 +17611,7 @@
       <c r="Y609" s="5"/>
       <c r="Z609" s="5"/>
     </row>
-    <row r="610" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6"/>
@@ -17633,7 +17639,7 @@
       <c r="Y610" s="5"/>
       <c r="Z610" s="5"/>
     </row>
-    <row r="611" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="5"/>
       <c r="C611" s="6"/>
@@ -17661,7 +17667,7 @@
       <c r="Y611" s="5"/>
       <c r="Z611" s="5"/>
     </row>
-    <row r="612" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6"/>
@@ -17689,7 +17695,7 @@
       <c r="Y612" s="5"/>
       <c r="Z612" s="5"/>
     </row>
-    <row r="613" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6"/>
@@ -17717,7 +17723,7 @@
       <c r="Y613" s="5"/>
       <c r="Z613" s="5"/>
     </row>
-    <row r="614" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="5"/>
       <c r="C614" s="6"/>
@@ -17745,7 +17751,7 @@
       <c r="Y614" s="5"/>
       <c r="Z614" s="5"/>
     </row>
-    <row r="615" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="5"/>
       <c r="C615" s="6"/>
@@ -17773,7 +17779,7 @@
       <c r="Y615" s="5"/>
       <c r="Z615" s="5"/>
     </row>
-    <row r="616" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="5"/>
       <c r="C616" s="6"/>
@@ -17801,7 +17807,7 @@
       <c r="Y616" s="5"/>
       <c r="Z616" s="5"/>
     </row>
-    <row r="617" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6"/>
@@ -17829,7 +17835,7 @@
       <c r="Y617" s="5"/>
       <c r="Z617" s="5"/>
     </row>
-    <row r="618" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6"/>
@@ -17857,7 +17863,7 @@
       <c r="Y618" s="5"/>
       <c r="Z618" s="5"/>
     </row>
-    <row r="619" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6"/>
@@ -17885,7 +17891,7 @@
       <c r="Y619" s="5"/>
       <c r="Z619" s="5"/>
     </row>
-    <row r="620" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6"/>
@@ -17913,7 +17919,7 @@
       <c r="Y620" s="5"/>
       <c r="Z620" s="5"/>
     </row>
-    <row r="621" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6"/>
@@ -17941,7 +17947,7 @@
       <c r="Y621" s="5"/>
       <c r="Z621" s="5"/>
     </row>
-    <row r="622" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6"/>
@@ -17969,7 +17975,7 @@
       <c r="Y622" s="5"/>
       <c r="Z622" s="5"/>
     </row>
-    <row r="623" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6"/>
@@ -17997,7 +18003,7 @@
       <c r="Y623" s="5"/>
       <c r="Z623" s="5"/>
     </row>
-    <row r="624" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6"/>
@@ -18025,7 +18031,7 @@
       <c r="Y624" s="5"/>
       <c r="Z624" s="5"/>
     </row>
-    <row r="625" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6"/>
@@ -18053,7 +18059,7 @@
       <c r="Y625" s="5"/>
       <c r="Z625" s="5"/>
     </row>
-    <row r="626" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="5"/>
       <c r="C626" s="6"/>
@@ -18081,7 +18087,7 @@
       <c r="Y626" s="5"/>
       <c r="Z626" s="5"/>
     </row>
-    <row r="627" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6"/>
@@ -18109,7 +18115,7 @@
       <c r="Y627" s="5"/>
       <c r="Z627" s="5"/>
     </row>
-    <row r="628" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6"/>
@@ -18137,7 +18143,7 @@
       <c r="Y628" s="5"/>
       <c r="Z628" s="5"/>
     </row>
-    <row r="629" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6"/>
@@ -18165,7 +18171,7 @@
       <c r="Y629" s="5"/>
       <c r="Z629" s="5"/>
     </row>
-    <row r="630" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6"/>
@@ -18193,7 +18199,7 @@
       <c r="Y630" s="5"/>
       <c r="Z630" s="5"/>
     </row>
-    <row r="631" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6"/>
@@ -18221,7 +18227,7 @@
       <c r="Y631" s="5"/>
       <c r="Z631" s="5"/>
     </row>
-    <row r="632" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6"/>
@@ -18249,7 +18255,7 @@
       <c r="Y632" s="5"/>
       <c r="Z632" s="5"/>
     </row>
-    <row r="633" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6"/>
@@ -18277,7 +18283,7 @@
       <c r="Y633" s="5"/>
       <c r="Z633" s="5"/>
     </row>
-    <row r="634" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
@@ -18305,7 +18311,7 @@
       <c r="Y634" s="5"/>
       <c r="Z634" s="5"/>
     </row>
-    <row r="635" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6"/>
@@ -18333,7 +18339,7 @@
       <c r="Y635" s="5"/>
       <c r="Z635" s="5"/>
     </row>
-    <row r="636" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
@@ -18361,7 +18367,7 @@
       <c r="Y636" s="5"/>
       <c r="Z636" s="5"/>
     </row>
-    <row r="637" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6"/>
@@ -18389,7 +18395,7 @@
       <c r="Y637" s="5"/>
       <c r="Z637" s="5"/>
     </row>
-    <row r="638" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
@@ -18417,7 +18423,7 @@
       <c r="Y638" s="5"/>
       <c r="Z638" s="5"/>
     </row>
-    <row r="639" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6"/>
@@ -18445,7 +18451,7 @@
       <c r="Y639" s="5"/>
       <c r="Z639" s="5"/>
     </row>
-    <row r="640" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
@@ -18473,7 +18479,7 @@
       <c r="Y640" s="5"/>
       <c r="Z640" s="5"/>
     </row>
-    <row r="641" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6"/>
@@ -18501,7 +18507,7 @@
       <c r="Y641" s="5"/>
       <c r="Z641" s="5"/>
     </row>
-    <row r="642" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
@@ -18529,7 +18535,7 @@
       <c r="Y642" s="5"/>
       <c r="Z642" s="5"/>
     </row>
-    <row r="643" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6"/>
@@ -18557,7 +18563,7 @@
       <c r="Y643" s="5"/>
       <c r="Z643" s="5"/>
     </row>
-    <row r="644" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
@@ -18585,7 +18591,7 @@
       <c r="Y644" s="5"/>
       <c r="Z644" s="5"/>
     </row>
-    <row r="645" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6"/>
@@ -18613,7 +18619,7 @@
       <c r="Y645" s="5"/>
       <c r="Z645" s="5"/>
     </row>
-    <row r="646" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
@@ -18641,7 +18647,7 @@
       <c r="Y646" s="5"/>
       <c r="Z646" s="5"/>
     </row>
-    <row r="647" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6"/>
@@ -18669,7 +18675,7 @@
       <c r="Y647" s="5"/>
       <c r="Z647" s="5"/>
     </row>
-    <row r="648" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
@@ -18697,7 +18703,7 @@
       <c r="Y648" s="5"/>
       <c r="Z648" s="5"/>
     </row>
-    <row r="649" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6"/>
@@ -18725,7 +18731,7 @@
       <c r="Y649" s="5"/>
       <c r="Z649" s="5"/>
     </row>
-    <row r="650" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
@@ -18753,7 +18759,7 @@
       <c r="Y650" s="5"/>
       <c r="Z650" s="5"/>
     </row>
-    <row r="651" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="5"/>
       <c r="C651" s="6"/>
@@ -18781,7 +18787,7 @@
       <c r="Y651" s="5"/>
       <c r="Z651" s="5"/>
     </row>
-    <row r="652" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="5"/>
       <c r="C652" s="6"/>
@@ -18809,7 +18815,7 @@
       <c r="Y652" s="5"/>
       <c r="Z652" s="5"/>
     </row>
-    <row r="653" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="5"/>
       <c r="C653" s="6"/>
@@ -18837,7 +18843,7 @@
       <c r="Y653" s="5"/>
       <c r="Z653" s="5"/>
     </row>
-    <row r="654" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="5"/>
       <c r="C654" s="6"/>
@@ -18865,7 +18871,7 @@
       <c r="Y654" s="5"/>
       <c r="Z654" s="5"/>
     </row>
-    <row r="655" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="5"/>
       <c r="C655" s="6"/>
@@ -18893,7 +18899,7 @@
       <c r="Y655" s="5"/>
       <c r="Z655" s="5"/>
     </row>
-    <row r="656" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="5"/>
       <c r="C656" s="6"/>
@@ -18921,7 +18927,7 @@
       <c r="Y656" s="5"/>
       <c r="Z656" s="5"/>
     </row>
-    <row r="657" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="5"/>
       <c r="C657" s="6"/>
@@ -18949,7 +18955,7 @@
       <c r="Y657" s="5"/>
       <c r="Z657" s="5"/>
     </row>
-    <row r="658" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="5"/>
       <c r="C658" s="6"/>
@@ -18977,7 +18983,7 @@
       <c r="Y658" s="5"/>
       <c r="Z658" s="5"/>
     </row>
-    <row r="659" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="5"/>
       <c r="C659" s="6"/>
@@ -19005,7 +19011,7 @@
       <c r="Y659" s="5"/>
       <c r="Z659" s="5"/>
     </row>
-    <row r="660" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6"/>
@@ -19033,7 +19039,7 @@
       <c r="Y660" s="5"/>
       <c r="Z660" s="5"/>
     </row>
-    <row r="661" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6"/>
@@ -19061,7 +19067,7 @@
       <c r="Y661" s="5"/>
       <c r="Z661" s="5"/>
     </row>
-    <row r="662" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6"/>
@@ -19089,7 +19095,7 @@
       <c r="Y662" s="5"/>
       <c r="Z662" s="5"/>
     </row>
-    <row r="663" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6"/>
@@ -19117,7 +19123,7 @@
       <c r="Y663" s="5"/>
       <c r="Z663" s="5"/>
     </row>
-    <row r="664" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6"/>
@@ -19145,7 +19151,7 @@
       <c r="Y664" s="5"/>
       <c r="Z664" s="5"/>
     </row>
-    <row r="665" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6"/>
@@ -19173,7 +19179,7 @@
       <c r="Y665" s="5"/>
       <c r="Z665" s="5"/>
     </row>
-    <row r="666" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6"/>
@@ -19201,7 +19207,7 @@
       <c r="Y666" s="5"/>
       <c r="Z666" s="5"/>
     </row>
-    <row r="667" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6"/>
@@ -19229,7 +19235,7 @@
       <c r="Y667" s="5"/>
       <c r="Z667" s="5"/>
     </row>
-    <row r="668" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6"/>
@@ -19257,7 +19263,7 @@
       <c r="Y668" s="5"/>
       <c r="Z668" s="5"/>
     </row>
-    <row r="669" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6"/>
@@ -19285,7 +19291,7 @@
       <c r="Y669" s="5"/>
       <c r="Z669" s="5"/>
     </row>
-    <row r="670" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6"/>
@@ -19313,7 +19319,7 @@
       <c r="Y670" s="5"/>
       <c r="Z670" s="5"/>
     </row>
-    <row r="671" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6"/>
@@ -19341,7 +19347,7 @@
       <c r="Y671" s="5"/>
       <c r="Z671" s="5"/>
     </row>
-    <row r="672" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6"/>
@@ -19369,7 +19375,7 @@
       <c r="Y672" s="5"/>
       <c r="Z672" s="5"/>
     </row>
-    <row r="673" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="5"/>
       <c r="C673" s="6"/>
@@ -19397,7 +19403,7 @@
       <c r="Y673" s="5"/>
       <c r="Z673" s="5"/>
     </row>
-    <row r="674" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="5"/>
       <c r="C674" s="6"/>
@@ -19425,7 +19431,7 @@
       <c r="Y674" s="5"/>
       <c r="Z674" s="5"/>
     </row>
-    <row r="675" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="5"/>
       <c r="C675" s="6"/>
@@ -19453,7 +19459,7 @@
       <c r="Y675" s="5"/>
       <c r="Z675" s="5"/>
     </row>
-    <row r="676" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="5"/>
       <c r="C676" s="6"/>
@@ -19481,7 +19487,7 @@
       <c r="Y676" s="5"/>
       <c r="Z676" s="5"/>
     </row>
-    <row r="677" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="5"/>
       <c r="C677" s="6"/>
@@ -19509,7 +19515,7 @@
       <c r="Y677" s="5"/>
       <c r="Z677" s="5"/>
     </row>
-    <row r="678" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="5"/>
       <c r="C678" s="6"/>
@@ -19537,7 +19543,7 @@
       <c r="Y678" s="5"/>
       <c r="Z678" s="5"/>
     </row>
-    <row r="679" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="5"/>
       <c r="C679" s="6"/>
@@ -19565,7 +19571,7 @@
       <c r="Y679" s="5"/>
       <c r="Z679" s="5"/>
     </row>
-    <row r="680" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="5"/>
       <c r="C680" s="6"/>
@@ -19593,7 +19599,7 @@
       <c r="Y680" s="5"/>
       <c r="Z680" s="5"/>
     </row>
-    <row r="681" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="5"/>
       <c r="C681" s="6"/>
@@ -19621,7 +19627,7 @@
       <c r="Y681" s="5"/>
       <c r="Z681" s="5"/>
     </row>
-    <row r="682" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="5"/>
       <c r="C682" s="6"/>
@@ -19649,7 +19655,7 @@
       <c r="Y682" s="5"/>
       <c r="Z682" s="5"/>
     </row>
-    <row r="683" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="5"/>
       <c r="C683" s="6"/>
@@ -19677,7 +19683,7 @@
       <c r="Y683" s="5"/>
       <c r="Z683" s="5"/>
     </row>
-    <row r="684" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="5"/>
       <c r="C684" s="6"/>
@@ -19705,7 +19711,7 @@
       <c r="Y684" s="5"/>
       <c r="Z684" s="5"/>
     </row>
-    <row r="685" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="5"/>
       <c r="C685" s="6"/>
@@ -19733,7 +19739,7 @@
       <c r="Y685" s="5"/>
       <c r="Z685" s="5"/>
     </row>
-    <row r="686" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="5"/>
       <c r="C686" s="6"/>
@@ -19761,7 +19767,7 @@
       <c r="Y686" s="5"/>
       <c r="Z686" s="5"/>
     </row>
-    <row r="687" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="5"/>
       <c r="C687" s="6"/>
@@ -19789,7 +19795,7 @@
       <c r="Y687" s="5"/>
       <c r="Z687" s="5"/>
     </row>
-    <row r="688" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="5"/>
       <c r="C688" s="6"/>
@@ -19817,7 +19823,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="5"/>
       <c r="C689" s="6"/>
@@ -19845,7 +19851,7 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="5"/>
       <c r="C690" s="6"/>
@@ -19873,7 +19879,7 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="5"/>
       <c r="C691" s="6"/>
@@ -19901,7 +19907,7 @@
       <c r="Y691" s="5"/>
       <c r="Z691" s="5"/>
     </row>
-    <row r="692" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="5"/>
       <c r="C692" s="6"/>
@@ -19929,7 +19935,7 @@
       <c r="Y692" s="5"/>
       <c r="Z692" s="5"/>
     </row>
-    <row r="693" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="5"/>
       <c r="C693" s="6"/>
@@ -19957,7 +19963,7 @@
       <c r="Y693" s="5"/>
       <c r="Z693" s="5"/>
     </row>
-    <row r="694" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="5"/>
       <c r="C694" s="6"/>
@@ -19985,7 +19991,7 @@
       <c r="Y694" s="5"/>
       <c r="Z694" s="5"/>
     </row>
-    <row r="695" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="5"/>
       <c r="C695" s="6"/>
@@ -20013,7 +20019,7 @@
       <c r="Y695" s="5"/>
       <c r="Z695" s="5"/>
     </row>
-    <row r="696" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="5"/>
       <c r="C696" s="6"/>
@@ -20041,7 +20047,7 @@
       <c r="Y696" s="5"/>
       <c r="Z696" s="5"/>
     </row>
-    <row r="697" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="5"/>
       <c r="C697" s="6"/>
@@ -20069,7 +20075,7 @@
       <c r="Y697" s="5"/>
       <c r="Z697" s="5"/>
     </row>
-    <row r="698" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="5"/>
       <c r="C698" s="6"/>
@@ -20097,7 +20103,7 @@
       <c r="Y698" s="5"/>
       <c r="Z698" s="5"/>
     </row>
-    <row r="699" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="5"/>
       <c r="C699" s="6"/>
@@ -20125,7 +20131,7 @@
       <c r="Y699" s="5"/>
       <c r="Z699" s="5"/>
     </row>
-    <row r="700" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="5"/>
       <c r="C700" s="6"/>
@@ -20153,7 +20159,7 @@
       <c r="Y700" s="5"/>
       <c r="Z700" s="5"/>
     </row>
-    <row r="701" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="5"/>
       <c r="C701" s="6"/>
@@ -20181,7 +20187,7 @@
       <c r="Y701" s="5"/>
       <c r="Z701" s="5"/>
     </row>
-    <row r="702" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="5"/>
       <c r="C702" s="6"/>
@@ -20209,7 +20215,7 @@
       <c r="Y702" s="5"/>
       <c r="Z702" s="5"/>
     </row>
-    <row r="703" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="5"/>
       <c r="C703" s="6"/>
@@ -20237,7 +20243,7 @@
       <c r="Y703" s="5"/>
       <c r="Z703" s="5"/>
     </row>
-    <row r="704" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="5"/>
       <c r="C704" s="6"/>
@@ -20265,7 +20271,7 @@
       <c r="Y704" s="5"/>
       <c r="Z704" s="5"/>
     </row>
-    <row r="705" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="5"/>
       <c r="C705" s="6"/>
@@ -20293,7 +20299,7 @@
       <c r="Y705" s="5"/>
       <c r="Z705" s="5"/>
     </row>
-    <row r="706" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="5"/>
       <c r="C706" s="6"/>
@@ -20321,7 +20327,7 @@
       <c r="Y706" s="5"/>
       <c r="Z706" s="5"/>
     </row>
-    <row r="707" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="5"/>
       <c r="C707" s="6"/>
@@ -20349,7 +20355,7 @@
       <c r="Y707" s="5"/>
       <c r="Z707" s="5"/>
     </row>
-    <row r="708" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="5"/>
       <c r="C708" s="6"/>
@@ -20377,7 +20383,7 @@
       <c r="Y708" s="5"/>
       <c r="Z708" s="5"/>
     </row>
-    <row r="709" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="5"/>
       <c r="C709" s="6"/>
@@ -20405,7 +20411,7 @@
       <c r="Y709" s="5"/>
       <c r="Z709" s="5"/>
     </row>
-    <row r="710" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6"/>
@@ -20433,7 +20439,7 @@
       <c r="Y710" s="5"/>
       <c r="Z710" s="5"/>
     </row>
-    <row r="711" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6"/>
@@ -20461,7 +20467,7 @@
       <c r="Y711" s="5"/>
       <c r="Z711" s="5"/>
     </row>
-    <row r="712" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6"/>
@@ -20489,7 +20495,7 @@
       <c r="Y712" s="5"/>
       <c r="Z712" s="5"/>
     </row>
-    <row r="713" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6"/>
@@ -20517,7 +20523,7 @@
       <c r="Y713" s="5"/>
       <c r="Z713" s="5"/>
     </row>
-    <row r="714" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
@@ -20545,7 +20551,7 @@
       <c r="Y714" s="5"/>
       <c r="Z714" s="5"/>
     </row>
-    <row r="715" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6"/>
@@ -20573,7 +20579,7 @@
       <c r="Y715" s="5"/>
       <c r="Z715" s="5"/>
     </row>
-    <row r="716" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
@@ -20601,7 +20607,7 @@
       <c r="Y716" s="5"/>
       <c r="Z716" s="5"/>
     </row>
-    <row r="717" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6"/>
@@ -20629,7 +20635,7 @@
       <c r="Y717" s="5"/>
       <c r="Z717" s="5"/>
     </row>
-    <row r="718" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
@@ -20657,7 +20663,7 @@
       <c r="Y718" s="5"/>
       <c r="Z718" s="5"/>
     </row>
-    <row r="719" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6"/>
@@ -20685,7 +20691,7 @@
       <c r="Y719" s="5"/>
       <c r="Z719" s="5"/>
     </row>
-    <row r="720" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
@@ -20713,7 +20719,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6"/>
@@ -20741,7 +20747,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
@@ -20769,7 +20775,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
@@ -20797,7 +20803,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="5"/>
       <c r="C724" s="6"/>
@@ -20825,7 +20831,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="5"/>
       <c r="C725" s="6"/>
@@ -20853,7 +20859,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="5"/>
       <c r="C726" s="6"/>
@@ -20881,7 +20887,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="5"/>
       <c r="C727" s="6"/>
@@ -20909,7 +20915,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="5"/>
       <c r="C728" s="6"/>
@@ -20937,7 +20943,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6"/>
@@ -20965,7 +20971,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="5"/>
       <c r="C730" s="6"/>
@@ -20993,7 +20999,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="5"/>
       <c r="C731" s="6"/>
@@ -21021,7 +21027,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="5"/>
       <c r="C732" s="6"/>
@@ -21049,7 +21055,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="5"/>
       <c r="C733" s="6"/>
@@ -21077,7 +21083,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="5"/>
       <c r="C734" s="6"/>
@@ -21105,7 +21111,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="5"/>
       <c r="C735" s="6"/>
@@ -21133,7 +21139,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="5"/>
       <c r="C736" s="6"/>
@@ -21161,7 +21167,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="5"/>
       <c r="C737" s="6"/>
@@ -21189,7 +21195,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="5"/>
       <c r="C738" s="6"/>
@@ -21217,7 +21223,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="5"/>
       <c r="C739" s="6"/>
@@ -21245,7 +21251,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="5"/>
       <c r="C740" s="6"/>
@@ -21273,7 +21279,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="5"/>
       <c r="C741" s="6"/>
@@ -21301,7 +21307,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="5"/>
       <c r="C742" s="6"/>
@@ -21329,7 +21335,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="5"/>
       <c r="C743" s="6"/>
@@ -21357,7 +21363,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="5"/>
       <c r="C744" s="6"/>
@@ -21385,7 +21391,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="5"/>
       <c r="C745" s="6"/>
@@ -21413,7 +21419,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="5"/>
       <c r="C746" s="6"/>
@@ -21441,7 +21447,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="5"/>
       <c r="C747" s="6"/>
@@ -21469,7 +21475,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="5"/>
       <c r="C748" s="6"/>
@@ -21497,7 +21503,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="5"/>
       <c r="C749" s="6"/>
@@ -21525,7 +21531,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="5"/>
       <c r="C750" s="6"/>
@@ -21553,7 +21559,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="5"/>
       <c r="C751" s="6"/>
@@ -21581,7 +21587,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="5"/>
       <c r="C752" s="6"/>
@@ -21609,7 +21615,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="5"/>
       <c r="C753" s="6"/>
@@ -21637,7 +21643,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="5"/>
       <c r="C754" s="6"/>
@@ -21665,7 +21671,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="5"/>
       <c r="C755" s="6"/>
@@ -21693,7 +21699,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="5"/>
       <c r="C756" s="6"/>
@@ -21721,7 +21727,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="5"/>
       <c r="C757" s="6"/>
@@ -21749,7 +21755,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="5"/>
       <c r="C758" s="6"/>
@@ -21777,7 +21783,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="5"/>
       <c r="C759" s="6"/>
@@ -21805,7 +21811,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="5"/>
       <c r="C760" s="6"/>
@@ -21833,7 +21839,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="5"/>
       <c r="C761" s="6"/>
@@ -21861,7 +21867,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="5"/>
       <c r="C762" s="6"/>
@@ -21889,7 +21895,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="5"/>
       <c r="C763" s="6"/>
@@ -21917,7 +21923,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="5"/>
       <c r="C764" s="6"/>
@@ -21945,7 +21951,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="5"/>
       <c r="C765" s="6"/>
@@ -21973,7 +21979,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="5"/>
       <c r="C766" s="6"/>
@@ -22001,7 +22007,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="5"/>
       <c r="C767" s="6"/>
@@ -22029,7 +22035,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="5"/>
       <c r="C768" s="6"/>
@@ -22057,7 +22063,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="5"/>
       <c r="C769" s="6"/>
@@ -22085,7 +22091,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="5"/>
       <c r="C770" s="6"/>
@@ -22113,7 +22119,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="5"/>
       <c r="C771" s="6"/>
@@ -22141,7 +22147,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="5"/>
       <c r="C772" s="6"/>
@@ -22169,7 +22175,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="5"/>
       <c r="C773" s="6"/>
@@ -22197,7 +22203,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="5"/>
       <c r="C774" s="6"/>
@@ -22225,7 +22231,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="5"/>
       <c r="C775" s="6"/>
@@ -22253,7 +22259,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="5"/>
       <c r="C776" s="6"/>
@@ -22281,7 +22287,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="5"/>
       <c r="C777" s="6"/>
@@ -22309,7 +22315,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="5"/>
       <c r="C778" s="6"/>
@@ -22337,7 +22343,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="5"/>
       <c r="C779" s="6"/>
@@ -22365,7 +22371,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="5"/>
       <c r="C780" s="6"/>
@@ -22393,7 +22399,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="5"/>
       <c r="C781" s="6"/>
@@ -22421,7 +22427,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="5"/>
       <c r="C782" s="6"/>
@@ -22449,7 +22455,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="5"/>
       <c r="C783" s="6"/>
@@ -22477,7 +22483,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="5"/>
       <c r="C784" s="6"/>
@@ -22505,7 +22511,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="5"/>
       <c r="C785" s="6"/>
@@ -22533,7 +22539,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="5"/>
       <c r="C786" s="6"/>
@@ -22561,7 +22567,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="5"/>
       <c r="C787" s="6"/>
@@ -22589,7 +22595,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="5"/>
       <c r="C788" s="6"/>
@@ -22617,7 +22623,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="5"/>
       <c r="C789" s="6"/>
@@ -22645,7 +22651,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="5"/>
       <c r="C790" s="6"/>
@@ -22673,7 +22679,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="5"/>
       <c r="C791" s="6"/>
@@ -22701,7 +22707,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="5"/>
       <c r="C792" s="6"/>
@@ -22729,7 +22735,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="5"/>
       <c r="C793" s="6"/>
@@ -22757,7 +22763,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="5"/>
       <c r="C794" s="6"/>
@@ -22785,7 +22791,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="5"/>
       <c r="C795" s="6"/>
@@ -22813,7 +22819,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="5"/>
       <c r="C796" s="6"/>
@@ -22841,7 +22847,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="5"/>
       <c r="C797" s="6"/>
@@ -22869,7 +22875,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="5"/>
       <c r="C798" s="6"/>
@@ -22897,7 +22903,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="5"/>
       <c r="C799" s="6"/>
@@ -22925,7 +22931,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="5"/>
       <c r="C800" s="6"/>
@@ -22953,7 +22959,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="5"/>
       <c r="C801" s="6"/>
@@ -22981,7 +22987,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="5"/>
       <c r="C802" s="6"/>
@@ -23009,7 +23015,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="5"/>
       <c r="C803" s="6"/>
@@ -23037,7 +23043,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="5"/>
       <c r="C804" s="6"/>
@@ -23065,7 +23071,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="5"/>
       <c r="C805" s="6"/>
@@ -23093,7 +23099,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="5"/>
       <c r="C806" s="6"/>
@@ -23121,7 +23127,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="5"/>
       <c r="C807" s="6"/>
@@ -23149,7 +23155,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="5"/>
       <c r="C808" s="6"/>
@@ -23177,7 +23183,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="5"/>
       <c r="C809" s="6"/>
@@ -23205,7 +23211,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="5"/>
       <c r="C810" s="6"/>
@@ -23233,7 +23239,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="5"/>
       <c r="C811" s="6"/>
@@ -23261,7 +23267,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="5"/>
       <c r="C812" s="6"/>
@@ -23289,7 +23295,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="5"/>
       <c r="C813" s="6"/>
@@ -23317,7 +23323,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="5"/>
       <c r="C814" s="6"/>
@@ -23345,7 +23351,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="5"/>
       <c r="C815" s="6"/>
@@ -23373,7 +23379,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="5"/>
       <c r="C816" s="6"/>
@@ -23401,7 +23407,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="5"/>
       <c r="C817" s="6"/>
@@ -23429,7 +23435,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="5"/>
       <c r="C818" s="6"/>
@@ -23457,7 +23463,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="5"/>
       <c r="C819" s="6"/>
@@ -23485,7 +23491,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="5"/>
       <c r="C820" s="6"/>
@@ -23513,7 +23519,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="5"/>
       <c r="C821" s="6"/>
@@ -23541,7 +23547,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="5"/>
       <c r="C822" s="6"/>
@@ -23569,7 +23575,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="5"/>
       <c r="C823" s="6"/>
@@ -23597,7 +23603,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="5"/>
       <c r="C824" s="6"/>
@@ -23625,7 +23631,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="5"/>
       <c r="C825" s="6"/>
@@ -23653,7 +23659,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="5"/>
       <c r="C826" s="6"/>
@@ -23681,7 +23687,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="5"/>
       <c r="C827" s="6"/>
@@ -23709,7 +23715,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="5"/>
       <c r="C828" s="6"/>
@@ -23737,7 +23743,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="5"/>
       <c r="C829" s="6"/>
@@ -23765,7 +23771,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="5"/>
       <c r="C830" s="6"/>
@@ -23793,7 +23799,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="5"/>
       <c r="C831" s="6"/>
@@ -23821,7 +23827,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="5"/>
       <c r="C832" s="6"/>
@@ -23849,7 +23855,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="5"/>
       <c r="C833" s="6"/>
@@ -23877,7 +23883,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="5"/>
       <c r="C834" s="6"/>
@@ -23905,7 +23911,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="5"/>
       <c r="C835" s="6"/>
@@ -23933,7 +23939,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="5"/>
       <c r="C836" s="6"/>
@@ -23961,7 +23967,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="5"/>
       <c r="C837" s="6"/>
@@ -23989,7 +23995,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="5"/>
       <c r="C838" s="6"/>
@@ -24017,7 +24023,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="5"/>
       <c r="C839" s="6"/>
@@ -24045,7 +24051,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="5"/>
       <c r="C840" s="6"/>
@@ -24073,7 +24079,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="5"/>
       <c r="C841" s="6"/>
@@ -24101,7 +24107,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="5"/>
       <c r="C842" s="6"/>
@@ -24129,7 +24135,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="5"/>
       <c r="C843" s="6"/>
@@ -24157,7 +24163,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="5"/>
       <c r="C844" s="6"/>
@@ -24185,7 +24191,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="5"/>
       <c r="C845" s="6"/>
@@ -24213,7 +24219,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="5"/>
       <c r="C846" s="6"/>
@@ -24241,7 +24247,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="5"/>
       <c r="C847" s="6"/>
@@ -24269,7 +24275,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="5"/>
       <c r="C848" s="6"/>
@@ -24297,7 +24303,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="5"/>
       <c r="C849" s="6"/>
@@ -24325,7 +24331,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="5"/>
       <c r="C850" s="6"/>
@@ -24353,7 +24359,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="5"/>
       <c r="C851" s="6"/>
@@ -24381,7 +24387,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="5"/>
       <c r="C852" s="6"/>
@@ -24409,7 +24415,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="5"/>
       <c r="C853" s="6"/>
@@ -24437,7 +24443,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="5"/>
       <c r="C854" s="6"/>
@@ -24465,7 +24471,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="5"/>
       <c r="C855" s="6"/>
@@ -24493,7 +24499,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="5"/>
       <c r="C856" s="6"/>
@@ -24521,7 +24527,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="5"/>
       <c r="C857" s="6"/>
@@ -24549,7 +24555,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="5"/>
       <c r="C858" s="6"/>
@@ -24577,7 +24583,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="5"/>
       <c r="C859" s="6"/>
@@ -24605,7 +24611,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="5"/>
       <c r="C860" s="6"/>
@@ -24633,7 +24639,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="5"/>
       <c r="C861" s="6"/>
@@ -24661,7 +24667,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="5"/>
       <c r="C862" s="6"/>
@@ -24689,7 +24695,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="5"/>
       <c r="C863" s="6"/>
@@ -24717,7 +24723,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="5"/>
       <c r="C864" s="6"/>
@@ -24745,7 +24751,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="5"/>
       <c r="C865" s="6"/>
@@ -24773,7 +24779,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="5"/>
       <c r="C866" s="6"/>
@@ -24801,7 +24807,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="5"/>
       <c r="C867" s="6"/>
@@ -24829,7 +24835,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="5"/>
       <c r="C868" s="6"/>
@@ -24857,7 +24863,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="5"/>
       <c r="C869" s="6"/>
@@ -24885,7 +24891,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="5"/>
       <c r="C870" s="6"/>
@@ -24913,7 +24919,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="5"/>
       <c r="C871" s="6"/>
@@ -24941,7 +24947,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="5"/>
       <c r="C872" s="6"/>
@@ -24969,7 +24975,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="5"/>
       <c r="C873" s="6"/>
@@ -24997,7 +25003,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="5"/>
       <c r="C874" s="6"/>
@@ -25025,7 +25031,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="5"/>
       <c r="C875" s="6"/>
@@ -25053,7 +25059,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="5"/>
       <c r="C876" s="6"/>
@@ -25081,7 +25087,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="5"/>
       <c r="C877" s="6"/>
@@ -25109,7 +25115,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="5"/>
       <c r="C878" s="6"/>
@@ -25137,7 +25143,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="5"/>
       <c r="C879" s="6"/>
@@ -25165,7 +25171,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="5"/>
       <c r="C880" s="6"/>
@@ -25193,7 +25199,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="5"/>
       <c r="C881" s="6"/>
@@ -25221,7 +25227,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="5"/>
       <c r="C882" s="6"/>
@@ -25249,7 +25255,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="5"/>
       <c r="C883" s="6"/>
@@ -25277,7 +25283,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="5"/>
       <c r="C884" s="6"/>
@@ -25305,7 +25311,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="5"/>
       <c r="C885" s="6"/>
@@ -25333,7 +25339,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="5"/>
       <c r="C886" s="6"/>
@@ -25361,7 +25367,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="5"/>
       <c r="C887" s="6"/>
@@ -25389,7 +25395,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="5"/>
       <c r="C888" s="6"/>
@@ -25417,7 +25423,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="5"/>
       <c r="C889" s="6"/>
@@ -25445,7 +25451,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="5"/>
       <c r="C890" s="6"/>
@@ -25473,7 +25479,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="5"/>
       <c r="C891" s="6"/>
@@ -25501,7 +25507,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="5"/>
       <c r="C892" s="6"/>
@@ -25529,7 +25535,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="5"/>
       <c r="C893" s="6"/>
@@ -25557,7 +25563,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="5"/>
       <c r="C894" s="6"/>
@@ -25585,7 +25591,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="5"/>
       <c r="C895" s="6"/>
@@ -25613,7 +25619,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="5"/>
       <c r="C896" s="6"/>
@@ -25641,7 +25647,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="5"/>
       <c r="C897" s="6"/>
@@ -25669,7 +25675,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="5"/>
       <c r="C898" s="6"/>
@@ -25697,7 +25703,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="5"/>
       <c r="C899" s="6"/>
@@ -25725,7 +25731,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="5"/>
       <c r="C900" s="6"/>
@@ -25753,7 +25759,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="5"/>
       <c r="C901" s="6"/>
@@ -25781,7 +25787,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="5"/>
       <c r="C902" s="6"/>
@@ -25809,7 +25815,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="5"/>
       <c r="C903" s="6"/>
@@ -25837,7 +25843,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="5"/>
       <c r="C904" s="6"/>
@@ -25865,7 +25871,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="5"/>
       <c r="C905" s="6"/>
@@ -25893,7 +25899,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="5"/>
       <c r="C906" s="6"/>
@@ -25921,7 +25927,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="5"/>
       <c r="C907" s="6"/>
@@ -25949,7 +25955,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="5"/>
       <c r="C908" s="6"/>
@@ -25977,7 +25983,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="5"/>
       <c r="C909" s="6"/>
@@ -26005,7 +26011,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="5"/>
       <c r="C910" s="6"/>
@@ -26033,7 +26039,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="5"/>
       <c r="C911" s="6"/>
@@ -26061,7 +26067,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="5"/>
       <c r="C912" s="6"/>
@@ -26089,7 +26095,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="5"/>
       <c r="C913" s="6"/>
@@ -26117,7 +26123,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="5"/>
       <c r="C914" s="6"/>
@@ -26145,7 +26151,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="5"/>
       <c r="C915" s="6"/>
@@ -26173,7 +26179,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="5"/>
       <c r="C916" s="6"/>
@@ -26201,7 +26207,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="5"/>
       <c r="C917" s="6"/>
@@ -26229,7 +26235,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="5"/>
       <c r="C918" s="6"/>
@@ -26257,7 +26263,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="5"/>
       <c r="C919" s="6"/>
@@ -26285,7 +26291,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="5"/>
       <c r="C920" s="6"/>
@@ -26313,7 +26319,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="5"/>
       <c r="C921" s="6"/>
@@ -26341,7 +26347,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="5"/>
       <c r="C922" s="6"/>
@@ -26369,7 +26375,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="5"/>
       <c r="C923" s="6"/>
@@ -26397,7 +26403,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="5"/>
       <c r="C924" s="6"/>
@@ -26425,7 +26431,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="5"/>
       <c r="C925" s="6"/>
@@ -26453,7 +26459,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="5"/>
       <c r="C926" s="6"/>
@@ -26481,7 +26487,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="5"/>
       <c r="C927" s="6"/>
@@ -26509,7 +26515,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="5"/>
       <c r="C928" s="6"/>
@@ -26537,7 +26543,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="5"/>
       <c r="C929" s="6"/>
@@ -26565,7 +26571,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="5"/>
       <c r="C930" s="6"/>
@@ -26593,7 +26599,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="5"/>
       <c r="C931" s="6"/>
@@ -26621,7 +26627,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="5"/>
       <c r="C932" s="6"/>
@@ -26649,7 +26655,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="5"/>
       <c r="C933" s="6"/>
@@ -26677,7 +26683,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="5"/>
       <c r="C934" s="6"/>
@@ -26705,7 +26711,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="5"/>
       <c r="C935" s="6"/>
@@ -26733,7 +26739,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="5"/>
       <c r="C936" s="6"/>
@@ -26761,7 +26767,7 @@
       <c r="Y936" s="5"/>
       <c r="Z936" s="5"/>
     </row>
-    <row r="937" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="5"/>
       <c r="C937" s="6"/>
@@ -26789,7 +26795,7 @@
       <c r="Y937" s="5"/>
       <c r="Z937" s="5"/>
     </row>
-    <row r="938" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="5"/>
       <c r="C938" s="6"/>
@@ -26817,7 +26823,7 @@
       <c r="Y938" s="5"/>
       <c r="Z938" s="5"/>
     </row>
-    <row r="939" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="5"/>
       <c r="C939" s="6"/>
@@ -26845,7 +26851,7 @@
       <c r="Y939" s="5"/>
       <c r="Z939" s="5"/>
     </row>
-    <row r="940" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="5"/>
       <c r="C940" s="6"/>
@@ -26873,7 +26879,7 @@
       <c r="Y940" s="5"/>
       <c r="Z940" s="5"/>
     </row>
-    <row r="941" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="5"/>
       <c r="C941" s="6"/>
@@ -26901,7 +26907,7 @@
       <c r="Y941" s="5"/>
       <c r="Z941" s="5"/>
     </row>
-    <row r="942" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="5"/>
       <c r="C942" s="6"/>
@@ -26929,7 +26935,7 @@
       <c r="Y942" s="5"/>
       <c r="Z942" s="5"/>
     </row>
-    <row r="943" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="5"/>
       <c r="C943" s="6"/>
@@ -26957,7 +26963,7 @@
       <c r="Y943" s="5"/>
       <c r="Z943" s="5"/>
     </row>
-    <row r="944" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="5"/>
       <c r="C944" s="6"/>
@@ -26985,7 +26991,7 @@
       <c r="Y944" s="5"/>
       <c r="Z944" s="5"/>
     </row>
-    <row r="945" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="5"/>
       <c r="C945" s="6"/>
@@ -27013,7 +27019,7 @@
       <c r="Y945" s="5"/>
       <c r="Z945" s="5"/>
     </row>
-    <row r="946" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="5"/>
       <c r="C946" s="6"/>
@@ -27041,7 +27047,7 @@
       <c r="Y946" s="5"/>
       <c r="Z946" s="5"/>
     </row>
-    <row r="947" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="5"/>
       <c r="C947" s="6"/>
@@ -27069,7 +27075,7 @@
       <c r="Y947" s="5"/>
       <c r="Z947" s="5"/>
     </row>
-    <row r="948" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="5"/>
       <c r="C948" s="6"/>
@@ -27097,7 +27103,7 @@
       <c r="Y948" s="5"/>
       <c r="Z948" s="5"/>
     </row>
-    <row r="949" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="5"/>
       <c r="C949" s="6"/>
@@ -27125,7 +27131,7 @@
       <c r="Y949" s="5"/>
       <c r="Z949" s="5"/>
     </row>
-    <row r="950" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="5"/>
       <c r="C950" s="6"/>
@@ -27153,7 +27159,7 @@
       <c r="Y950" s="5"/>
       <c r="Z950" s="5"/>
     </row>
-    <row r="951" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="5"/>
       <c r="C951" s="6"/>
@@ -27181,7 +27187,7 @@
       <c r="Y951" s="5"/>
       <c r="Z951" s="5"/>
     </row>
-    <row r="952" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
       <c r="B952" s="5"/>
       <c r="C952" s="6"/>
@@ -27209,7 +27215,7 @@
       <c r="Y952" s="5"/>
       <c r="Z952" s="5"/>
     </row>
-    <row r="953" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
       <c r="B953" s="5"/>
       <c r="C953" s="6"/>
@@ -27237,7 +27243,7 @@
       <c r="Y953" s="5"/>
       <c r="Z953" s="5"/>
     </row>
-    <row r="954" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
       <c r="B954" s="5"/>
       <c r="C954" s="6"/>
@@ -27265,7 +27271,7 @@
       <c r="Y954" s="5"/>
       <c r="Z954" s="5"/>
     </row>
-    <row r="955" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
       <c r="B955" s="5"/>
       <c r="C955" s="6"/>
@@ -27293,7 +27299,7 @@
       <c r="Y955" s="5"/>
       <c r="Z955" s="5"/>
     </row>
-    <row r="956" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
       <c r="B956" s="5"/>
       <c r="C956" s="6"/>
@@ -27321,7 +27327,7 @@
       <c r="Y956" s="5"/>
       <c r="Z956" s="5"/>
     </row>
-    <row r="957" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
       <c r="B957" s="5"/>
       <c r="C957" s="6"/>
@@ -27349,7 +27355,7 @@
       <c r="Y957" s="5"/>
       <c r="Z957" s="5"/>
     </row>
-    <row r="958" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
       <c r="B958" s="5"/>
       <c r="C958" s="6"/>
@@ -27377,7 +27383,7 @@
       <c r="Y958" s="5"/>
       <c r="Z958" s="5"/>
     </row>
-    <row r="959" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
       <c r="B959" s="5"/>
       <c r="C959" s="6"/>
@@ -27405,7 +27411,7 @@
       <c r="Y959" s="5"/>
       <c r="Z959" s="5"/>
     </row>
-    <row r="960" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
       <c r="B960" s="5"/>
       <c r="C960" s="6"/>
@@ -27433,7 +27439,7 @@
       <c r="Y960" s="5"/>
       <c r="Z960" s="5"/>
     </row>
-    <row r="961" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
       <c r="B961" s="5"/>
       <c r="C961" s="6"/>
@@ -27461,7 +27467,7 @@
       <c r="Y961" s="5"/>
       <c r="Z961" s="5"/>
     </row>
-    <row r="962" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
       <c r="B962" s="5"/>
       <c r="C962" s="6"/>
@@ -27489,7 +27495,7 @@
       <c r="Y962" s="5"/>
       <c r="Z962" s="5"/>
     </row>
-    <row r="963" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
       <c r="B963" s="5"/>
       <c r="C963" s="6"/>
@@ -27517,7 +27523,7 @@
       <c r="Y963" s="5"/>
       <c r="Z963" s="5"/>
     </row>
-    <row r="964" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
       <c r="B964" s="5"/>
       <c r="C964" s="6"/>
@@ -27545,7 +27551,7 @@
       <c r="Y964" s="5"/>
       <c r="Z964" s="5"/>
     </row>
-    <row r="965" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
       <c r="B965" s="5"/>
       <c r="C965" s="6"/>
@@ -27573,7 +27579,7 @@
       <c r="Y965" s="5"/>
       <c r="Z965" s="5"/>
     </row>
-    <row r="966" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
       <c r="B966" s="5"/>
       <c r="C966" s="6"/>
@@ -27601,7 +27607,7 @@
       <c r="Y966" s="5"/>
       <c r="Z966" s="5"/>
     </row>
-    <row r="967" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
       <c r="B967" s="5"/>
       <c r="C967" s="6"/>
@@ -27629,7 +27635,7 @@
       <c r="Y967" s="5"/>
       <c r="Z967" s="5"/>
     </row>
-    <row r="968" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
       <c r="B968" s="5"/>
       <c r="C968" s="6"/>
@@ -27657,7 +27663,7 @@
       <c r="Y968" s="5"/>
       <c r="Z968" s="5"/>
     </row>
-    <row r="969" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
       <c r="B969" s="5"/>
       <c r="C969" s="6"/>
@@ -27685,7 +27691,7 @@
       <c r="Y969" s="5"/>
       <c r="Z969" s="5"/>
     </row>
-    <row r="970" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
       <c r="B970" s="5"/>
       <c r="C970" s="6"/>
@@ -27713,7 +27719,7 @@
       <c r="Y970" s="5"/>
       <c r="Z970" s="5"/>
     </row>
-    <row r="971" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
       <c r="B971" s="5"/>
       <c r="C971" s="6"/>
@@ -27741,7 +27747,7 @@
       <c r="Y971" s="5"/>
       <c r="Z971" s="5"/>
     </row>
-    <row r="972" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
       <c r="B972" s="5"/>
       <c r="C972" s="6"/>
@@ -27769,7 +27775,7 @@
       <c r="Y972" s="5"/>
       <c r="Z972" s="5"/>
     </row>
-    <row r="973" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
       <c r="B973" s="5"/>
       <c r="C973" s="6"/>
@@ -27797,7 +27803,7 @@
       <c r="Y973" s="5"/>
       <c r="Z973" s="5"/>
     </row>
-    <row r="974" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
       <c r="B974" s="5"/>
       <c r="C974" s="6"/>
@@ -27825,7 +27831,7 @@
       <c r="Y974" s="5"/>
       <c r="Z974" s="5"/>
     </row>
-    <row r="975" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
       <c r="B975" s="5"/>
       <c r="C975" s="6"/>
@@ -27853,7 +27859,7 @@
       <c r="Y975" s="5"/>
       <c r="Z975" s="5"/>
     </row>
-    <row r="976" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
       <c r="B976" s="5"/>
       <c r="C976" s="6"/>
@@ -27881,7 +27887,7 @@
       <c r="Y976" s="5"/>
       <c r="Z976" s="5"/>
     </row>
-    <row r="977" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
       <c r="B977" s="5"/>
       <c r="C977" s="6"/>
@@ -27909,7 +27915,7 @@
       <c r="Y977" s="5"/>
       <c r="Z977" s="5"/>
     </row>
-    <row r="978" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
       <c r="B978" s="5"/>
       <c r="C978" s="6"/>
@@ -27937,7 +27943,7 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
       <c r="B979" s="5"/>
       <c r="C979" s="6"/>
@@ -27965,7 +27971,7 @@
       <c r="Y979" s="5"/>
       <c r="Z979" s="5"/>
     </row>
-    <row r="980" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
       <c r="B980" s="5"/>
       <c r="C980" s="6"/>
@@ -27993,7 +27999,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
       <c r="B981" s="5"/>
       <c r="C981" s="6"/>
@@ -28021,7 +28027,7 @@
       <c r="Y981" s="5"/>
       <c r="Z981" s="5"/>
     </row>
-    <row r="982" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
       <c r="B982" s="5"/>
       <c r="C982" s="6"/>
@@ -28049,7 +28055,7 @@
       <c r="Y982" s="5"/>
       <c r="Z982" s="5"/>
     </row>
-    <row r="983" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
       <c r="B983" s="5"/>
       <c r="C983" s="6"/>
@@ -28077,7 +28083,7 @@
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
     </row>
-    <row r="984" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
       <c r="B984" s="5"/>
       <c r="C984" s="6"/>
@@ -28105,7 +28111,7 @@
       <c r="Y984" s="5"/>
       <c r="Z984" s="5"/>
     </row>
-    <row r="985" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
       <c r="B985" s="5"/>
       <c r="C985" s="6"/>
@@ -28133,7 +28139,7 @@
       <c r="Y985" s="5"/>
       <c r="Z985" s="5"/>
     </row>
-    <row r="986" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
       <c r="B986" s="5"/>
       <c r="C986" s="6"/>
@@ -28161,7 +28167,7 @@
       <c r="Y986" s="5"/>
       <c r="Z986" s="5"/>
     </row>
-    <row r="987" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
       <c r="B987" s="5"/>
       <c r="C987" s="6"/>
@@ -28189,7 +28195,7 @@
       <c r="Y987" s="5"/>
       <c r="Z987" s="5"/>
     </row>
-    <row r="988" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
       <c r="B988" s="5"/>
       <c r="C988" s="6"/>
@@ -28217,7 +28223,7 @@
       <c r="Y988" s="5"/>
       <c r="Z988" s="5"/>
     </row>
-    <row r="989" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="5"/>
       <c r="C989" s="6"/>
@@ -28245,7 +28251,7 @@
       <c r="Y989" s="5"/>
       <c r="Z989" s="5"/>
     </row>
-    <row r="990" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
       <c r="B990" s="5"/>
       <c r="C990" s="6"/>
@@ -28273,7 +28279,7 @@
       <c r="Y990" s="5"/>
       <c r="Z990" s="5"/>
     </row>
-    <row r="991" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
       <c r="B991" s="5"/>
       <c r="C991" s="6"/>
@@ -28301,7 +28307,7 @@
       <c r="Y991" s="5"/>
       <c r="Z991" s="5"/>
     </row>
-    <row r="992" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
       <c r="B992" s="5"/>
       <c r="C992" s="6"/>
@@ -28329,7 +28335,7 @@
       <c r="Y992" s="5"/>
       <c r="Z992" s="5"/>
     </row>
-    <row r="993" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
       <c r="B993" s="5"/>
       <c r="C993" s="6"/>
@@ -28357,7 +28363,7 @@
       <c r="Y993" s="5"/>
       <c r="Z993" s="5"/>
     </row>
-    <row r="994" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
       <c r="B994" s="5"/>
       <c r="C994" s="6"/>
@@ -28385,7 +28391,7 @@
       <c r="Y994" s="5"/>
       <c r="Z994" s="5"/>
     </row>
-    <row r="995" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
       <c r="B995" s="5"/>
       <c r="C995" s="6"/>
@@ -28413,7 +28419,7 @@
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
     </row>
-    <row r="996" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
       <c r="B996" s="5"/>
       <c r="C996" s="6"/>
@@ -28441,7 +28447,7 @@
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
     </row>
-    <row r="997" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
       <c r="B997" s="5"/>
       <c r="C997" s="6"/>
@@ -28469,7 +28475,7 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
       <c r="B998" s="5"/>
       <c r="C998" s="6"/>
@@ -28497,7 +28503,7 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
       <c r="B999" s="5"/>
       <c r="C999" s="6"/>

--- a/Arbeitsjournale/Arbeitsjournal Marina.xlsx
+++ b/Arbeitsjournale/Arbeitsjournal Marina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maris\OneDrive\zbw\datenbanken\Modul 2\DBSemesterProject\Arbeitsjournale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FD0657F9-7CA9-44A1-9D00-8F50BFF0F148}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{8B57DB9A-BACB-46E8-83E4-CF132762CCF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{69FC7099-E86C-400D-ABE6-CEE7193E5D26}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name: Marina Scherrer</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Stored Procedure BillPoDAuto</t>
+  </si>
+  <si>
+    <t>Doku 2. Semester, Procedure BillPod beschrieben</t>
   </si>
 </sst>
 </file>
@@ -134,8 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -167,10 +170,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -497,18 +496,18 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="3" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,7 +537,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -566,7 +565,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -596,7 +595,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -624,7 +623,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -658,7 +657,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>43473</v>
       </c>
@@ -692,7 +691,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>43485</v>
       </c>
@@ -726,14 +725,14 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>43505</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>4</v>
       </c>
       <c r="D8" s="5"/>
@@ -760,14 +759,14 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>43506</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
       <c r="D9" s="5"/>
@@ -794,7 +793,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>43511</v>
       </c>
@@ -828,7 +827,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>43513</v>
       </c>
@@ -862,10 +861,16 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>43526</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.5</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -890,9 +895,9 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -918,9 +923,9 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -946,10 +951,10 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -974,10 +979,10 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1002,10 +1007,10 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+    <row r="17" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1030,10 +1035,10 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+    <row r="18" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1058,10 +1063,10 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+    <row r="19" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1086,10 +1091,10 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1114,10 +1119,10 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1142,10 +1147,10 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1170,10 +1175,10 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1198,10 +1203,10 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1226,10 +1231,10 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1254,10 +1259,10 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1282,10 +1287,10 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1310,10 +1315,10 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1338,10 +1343,10 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1366,10 +1371,10 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1394,10 +1399,10 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1422,10 +1427,10 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1450,10 +1455,10 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1478,10 +1483,10 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1506,10 +1511,10 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -1534,10 +1539,10 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1562,10 +1567,10 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1590,40 +1595,40 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17">
         <f>SUM(C6:C36)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-    </row>
-    <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1651,7 +1656,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1679,7 +1684,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1707,7 +1712,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1735,7 +1740,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1763,7 +1768,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1791,7 +1796,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1819,7 +1824,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1847,7 +1852,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1875,7 +1880,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1903,7 +1908,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1931,7 +1936,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1959,7 +1964,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1987,7 +1992,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2015,7 +2020,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2043,7 +2048,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2071,7 +2076,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2099,7 +2104,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2127,7 +2132,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2155,7 +2160,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2183,7 +2188,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2211,7 +2216,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2239,7 +2244,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2267,7 +2272,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2295,7 +2300,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2323,7 +2328,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2351,7 +2356,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2379,7 +2384,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2407,7 +2412,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2435,7 +2440,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2463,7 +2468,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2491,7 +2496,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2519,7 +2524,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2547,7 +2552,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2575,7 +2580,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2603,7 +2608,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -2631,7 +2636,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -2659,7 +2664,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -2687,7 +2692,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -2715,7 +2720,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -2743,7 +2748,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2771,7 +2776,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -2799,7 +2804,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2827,7 +2832,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -2855,7 +2860,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2883,7 +2888,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2911,7 +2916,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2939,7 +2944,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2967,7 +2972,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2995,7 +3000,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3023,7 +3028,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3051,7 +3056,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3079,7 +3084,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3107,7 +3112,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3135,7 +3140,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3163,7 +3168,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3191,7 +3196,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3219,7 +3224,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3247,7 +3252,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3275,7 +3280,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3303,7 +3308,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3331,7 +3336,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3359,7 +3364,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3387,7 +3392,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3415,7 +3420,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3443,7 +3448,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3471,7 +3476,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3499,7 +3504,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3527,7 +3532,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3555,7 +3560,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3583,7 +3588,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3611,7 +3616,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3639,7 +3644,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3667,7 +3672,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3695,7 +3700,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3723,7 +3728,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3751,7 +3756,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3779,7 +3784,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3807,7 +3812,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3835,7 +3840,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3863,7 +3868,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3891,7 +3896,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3919,7 +3924,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3947,7 +3952,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3975,7 +3980,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4003,7 +4008,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4031,7 +4036,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4059,7 +4064,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4087,7 +4092,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4115,7 +4120,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4143,7 +4148,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4171,7 +4176,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4199,7 +4204,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4227,7 +4232,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4255,7 +4260,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4283,7 +4288,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4311,7 +4316,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4339,7 +4344,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4367,7 +4372,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4395,7 +4400,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4423,7 +4428,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4451,7 +4456,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4479,7 +4484,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4507,7 +4512,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4535,7 +4540,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4563,7 +4568,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4591,7 +4596,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4619,7 +4624,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4647,7 +4652,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4675,7 +4680,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4703,7 +4708,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4731,7 +4736,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4759,7 +4764,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4787,7 +4792,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4815,7 +4820,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4843,7 +4848,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4871,7 +4876,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4899,7 +4904,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4927,7 +4932,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -4955,7 +4960,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -4983,7 +4988,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -5011,7 +5016,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -5039,7 +5044,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -5067,7 +5072,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -5095,7 +5100,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -5123,7 +5128,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -5151,7 +5156,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -5179,7 +5184,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -5207,7 +5212,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -5235,7 +5240,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -5263,7 +5268,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -5291,7 +5296,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -5319,7 +5324,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -5347,7 +5352,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -5375,7 +5380,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -5403,7 +5408,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -5431,7 +5436,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -5459,7 +5464,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -5487,7 +5492,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -5515,7 +5520,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -5543,7 +5548,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -5571,7 +5576,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -5599,7 +5604,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -5627,7 +5632,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -5655,7 +5660,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -5683,7 +5688,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -5711,7 +5716,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -5739,7 +5744,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -5767,7 +5772,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -5795,7 +5800,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -5823,7 +5828,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -5851,7 +5856,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -5879,7 +5884,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -5907,7 +5912,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -5935,7 +5940,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -5963,7 +5968,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -5991,7 +5996,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -6019,7 +6024,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -6047,7 +6052,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -6075,7 +6080,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -6103,7 +6108,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -6131,7 +6136,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -6159,7 +6164,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -6187,7 +6192,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
@@ -6215,7 +6220,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="6"/>
@@ -6243,7 +6248,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="6"/>
@@ -6271,7 +6276,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="6"/>
@@ -6299,7 +6304,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="6"/>
@@ -6327,7 +6332,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
@@ -6355,7 +6360,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="6"/>
@@ -6383,7 +6388,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="6"/>
@@ -6411,7 +6416,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="6"/>
@@ -6439,7 +6444,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="6"/>
@@ -6467,7 +6472,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="6"/>
@@ -6495,7 +6500,7 @@
       <c r="Y212" s="5"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="6"/>
@@ -6523,7 +6528,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="6"/>
@@ -6551,7 +6556,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="6"/>
@@ -6579,7 +6584,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="6"/>
@@ -6607,7 +6612,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="6"/>
@@ -6635,7 +6640,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="6"/>
@@ -6663,7 +6668,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -6691,7 +6696,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6"/>
@@ -6719,7 +6724,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6"/>
@@ -6747,7 +6752,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6"/>
@@ -6775,7 +6780,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6"/>
@@ -6803,7 +6808,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6"/>
@@ -6831,7 +6836,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6"/>
@@ -6859,7 +6864,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6"/>
@@ -6887,7 +6892,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6"/>
@@ -6915,7 +6920,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6"/>
@@ -6943,7 +6948,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="6"/>
@@ -6971,7 +6976,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="6"/>
@@ -6999,7 +7004,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="6"/>
@@ -7027,7 +7032,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -7055,7 +7060,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="6"/>
@@ -7083,7 +7088,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="6"/>
@@ -7111,7 +7116,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
@@ -7139,7 +7144,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
@@ -7167,7 +7172,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
@@ -7195,7 +7200,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
@@ -7223,7 +7228,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
@@ -7251,7 +7256,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
@@ -7279,7 +7284,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
@@ -7307,7 +7312,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
@@ -7335,7 +7340,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
@@ -7363,7 +7368,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
@@ -7391,7 +7396,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -7419,7 +7424,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
@@ -7447,7 +7452,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
@@ -7475,7 +7480,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
@@ -7503,7 +7508,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
@@ -7531,7 +7536,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
@@ -7559,7 +7564,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
@@ -7587,7 +7592,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
@@ -7615,7 +7620,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
@@ -7643,7 +7648,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -7671,7 +7676,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
@@ -7699,7 +7704,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
@@ -7727,7 +7732,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -7755,7 +7760,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="6"/>
@@ -7783,7 +7788,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="6"/>
@@ -7811,7 +7816,7 @@
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
     </row>
-    <row r="260" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="6"/>
@@ -7839,7 +7844,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="6"/>
@@ -7867,7 +7872,7 @@
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
     </row>
-    <row r="262" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="6"/>
@@ -7895,7 +7900,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="6"/>
@@ -7923,7 +7928,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
@@ -7951,7 +7956,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
@@ -7979,7 +7984,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
@@ -8007,7 +8012,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
@@ -8035,7 +8040,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
@@ -8063,7 +8068,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
@@ -8091,7 +8096,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
@@ -8119,7 +8124,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
@@ -8147,7 +8152,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
@@ -8175,7 +8180,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
@@ -8203,7 +8208,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
@@ -8231,7 +8236,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
@@ -8259,7 +8264,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
@@ -8287,7 +8292,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
@@ -8315,7 +8320,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
@@ -8343,7 +8348,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
@@ -8371,7 +8376,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
@@ -8399,7 +8404,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
@@ -8427,7 +8432,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
@@ -8455,7 +8460,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
@@ -8483,7 +8488,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
@@ -8511,7 +8516,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
@@ -8539,7 +8544,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
@@ -8567,7 +8572,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
@@ -8595,7 +8600,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
@@ -8623,7 +8628,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
@@ -8651,7 +8656,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
@@ -8679,7 +8684,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
@@ -8707,7 +8712,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
@@ -8735,7 +8740,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
@@ -8763,7 +8768,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
@@ -8791,7 +8796,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
@@ -8819,7 +8824,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -8847,7 +8852,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
@@ -8875,7 +8880,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
@@ -8903,7 +8908,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
@@ -8931,7 +8936,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
@@ -8959,7 +8964,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
@@ -8987,7 +8992,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
@@ -9015,7 +9020,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
@@ -9043,7 +9048,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
@@ -9071,7 +9076,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
@@ -9099,7 +9104,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
@@ -9127,7 +9132,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
@@ -9155,7 +9160,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -9183,7 +9188,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
@@ -9211,7 +9216,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
@@ -9239,7 +9244,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
@@ -9267,7 +9272,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
@@ -9295,7 +9300,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
@@ -9323,7 +9328,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
@@ -9351,7 +9356,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
@@ -9379,7 +9384,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
@@ -9407,7 +9412,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
@@ -9435,7 +9440,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
@@ -9463,7 +9468,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
@@ -9491,7 +9496,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
@@ -9519,7 +9524,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
@@ -9547,7 +9552,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
@@ -9575,7 +9580,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
@@ -9603,7 +9608,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
@@ -9631,7 +9636,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
@@ -9659,7 +9664,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
@@ -9687,7 +9692,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
@@ -9715,7 +9720,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
@@ -9743,7 +9748,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
@@ -9771,7 +9776,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -9799,7 +9804,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
@@ -9827,7 +9832,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
@@ -9855,7 +9860,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
@@ -9883,7 +9888,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
@@ -9911,7 +9916,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
     </row>
-    <row r="335" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
@@ -9939,7 +9944,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
     </row>
-    <row r="336" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
@@ -9967,7 +9972,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="5"/>
     </row>
-    <row r="337" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
@@ -9995,7 +10000,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
     </row>
-    <row r="338" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
@@ -10023,7 +10028,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="5"/>
     </row>
-    <row r="339" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
@@ -10051,7 +10056,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
     </row>
-    <row r="340" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
@@ -10079,7 +10084,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
     </row>
-    <row r="341" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -10107,7 +10112,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
     </row>
-    <row r="342" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
@@ -10135,7 +10140,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="5"/>
     </row>
-    <row r="343" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
@@ -10163,7 +10168,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
     </row>
-    <row r="344" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
@@ -10191,7 +10196,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
     </row>
-    <row r="345" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
@@ -10219,7 +10224,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
     </row>
-    <row r="346" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
@@ -10247,7 +10252,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="5"/>
     </row>
-    <row r="347" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
@@ -10275,7 +10280,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="5"/>
     </row>
-    <row r="348" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
@@ -10303,7 +10308,7 @@
       <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
     </row>
-    <row r="349" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
@@ -10331,7 +10336,7 @@
       <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
     </row>
-    <row r="350" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
@@ -10359,7 +10364,7 @@
       <c r="Y350" s="5"/>
       <c r="Z350" s="5"/>
     </row>
-    <row r="351" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
@@ -10387,7 +10392,7 @@
       <c r="Y351" s="5"/>
       <c r="Z351" s="5"/>
     </row>
-    <row r="352" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
@@ -10415,7 +10420,7 @@
       <c r="Y352" s="5"/>
       <c r="Z352" s="5"/>
     </row>
-    <row r="353" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
@@ -10443,7 +10448,7 @@
       <c r="Y353" s="5"/>
       <c r="Z353" s="5"/>
     </row>
-    <row r="354" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
@@ -10471,7 +10476,7 @@
       <c r="Y354" s="5"/>
       <c r="Z354" s="5"/>
     </row>
-    <row r="355" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
@@ -10499,7 +10504,7 @@
       <c r="Y355" s="5"/>
       <c r="Z355" s="5"/>
     </row>
-    <row r="356" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
@@ -10527,7 +10532,7 @@
       <c r="Y356" s="5"/>
       <c r="Z356" s="5"/>
     </row>
-    <row r="357" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
@@ -10555,7 +10560,7 @@
       <c r="Y357" s="5"/>
       <c r="Z357" s="5"/>
     </row>
-    <row r="358" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
@@ -10583,7 +10588,7 @@
       <c r="Y358" s="5"/>
       <c r="Z358" s="5"/>
     </row>
-    <row r="359" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
@@ -10611,7 +10616,7 @@
       <c r="Y359" s="5"/>
       <c r="Z359" s="5"/>
     </row>
-    <row r="360" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
@@ -10639,7 +10644,7 @@
       <c r="Y360" s="5"/>
       <c r="Z360" s="5"/>
     </row>
-    <row r="361" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
@@ -10667,7 +10672,7 @@
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
     </row>
-    <row r="362" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
@@ -10695,7 +10700,7 @@
       <c r="Y362" s="5"/>
       <c r="Z362" s="5"/>
     </row>
-    <row r="363" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
@@ -10723,7 +10728,7 @@
       <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
     </row>
-    <row r="364" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
@@ -10751,7 +10756,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
@@ -10779,7 +10784,7 @@
       <c r="Y365" s="5"/>
       <c r="Z365" s="5"/>
     </row>
-    <row r="366" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
@@ -10807,7 +10812,7 @@
       <c r="Y366" s="5"/>
       <c r="Z366" s="5"/>
     </row>
-    <row r="367" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
@@ -10835,7 +10840,7 @@
       <c r="Y367" s="5"/>
       <c r="Z367" s="5"/>
     </row>
-    <row r="368" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
@@ -10863,7 +10868,7 @@
       <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
     </row>
-    <row r="369" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
@@ -10891,7 +10896,7 @@
       <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
     </row>
-    <row r="370" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
@@ -10919,7 +10924,7 @@
       <c r="Y370" s="5"/>
       <c r="Z370" s="5"/>
     </row>
-    <row r="371" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
@@ -10947,7 +10952,7 @@
       <c r="Y371" s="5"/>
       <c r="Z371" s="5"/>
     </row>
-    <row r="372" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
@@ -10975,7 +10980,7 @@
       <c r="Y372" s="5"/>
       <c r="Z372" s="5"/>
     </row>
-    <row r="373" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
@@ -11003,7 +11008,7 @@
       <c r="Y373" s="5"/>
       <c r="Z373" s="5"/>
     </row>
-    <row r="374" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
@@ -11031,7 +11036,7 @@
       <c r="Y374" s="5"/>
       <c r="Z374" s="5"/>
     </row>
-    <row r="375" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
@@ -11059,7 +11064,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
@@ -11087,7 +11092,7 @@
       <c r="Y376" s="5"/>
       <c r="Z376" s="5"/>
     </row>
-    <row r="377" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
@@ -11115,7 +11120,7 @@
       <c r="Y377" s="5"/>
       <c r="Z377" s="5"/>
     </row>
-    <row r="378" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
@@ -11143,7 +11148,7 @@
       <c r="Y378" s="5"/>
       <c r="Z378" s="5"/>
     </row>
-    <row r="379" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
@@ -11171,7 +11176,7 @@
       <c r="Y379" s="5"/>
       <c r="Z379" s="5"/>
     </row>
-    <row r="380" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
@@ -11199,7 +11204,7 @@
       <c r="Y380" s="5"/>
       <c r="Z380" s="5"/>
     </row>
-    <row r="381" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
@@ -11227,7 +11232,7 @@
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
     </row>
-    <row r="382" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
@@ -11255,7 +11260,7 @@
       <c r="Y382" s="5"/>
       <c r="Z382" s="5"/>
     </row>
-    <row r="383" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
@@ -11283,7 +11288,7 @@
       <c r="Y383" s="5"/>
       <c r="Z383" s="5"/>
     </row>
-    <row r="384" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
@@ -11311,7 +11316,7 @@
       <c r="Y384" s="5"/>
       <c r="Z384" s="5"/>
     </row>
-    <row r="385" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
@@ -11339,7 +11344,7 @@
       <c r="Y385" s="5"/>
       <c r="Z385" s="5"/>
     </row>
-    <row r="386" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
@@ -11367,7 +11372,7 @@
       <c r="Y386" s="5"/>
       <c r="Z386" s="5"/>
     </row>
-    <row r="387" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
@@ -11395,7 +11400,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
@@ -11423,7 +11428,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
@@ -11451,7 +11456,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
@@ -11479,7 +11484,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
@@ -11507,7 +11512,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -11535,7 +11540,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
@@ -11563,7 +11568,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
@@ -11591,7 +11596,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
@@ -11619,7 +11624,7 @@
       <c r="Y395" s="5"/>
       <c r="Z395" s="5"/>
     </row>
-    <row r="396" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
@@ -11647,7 +11652,7 @@
       <c r="Y396" s="5"/>
       <c r="Z396" s="5"/>
     </row>
-    <row r="397" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
@@ -11675,7 +11680,7 @@
       <c r="Y397" s="5"/>
       <c r="Z397" s="5"/>
     </row>
-    <row r="398" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
@@ -11703,7 +11708,7 @@
       <c r="Y398" s="5"/>
       <c r="Z398" s="5"/>
     </row>
-    <row r="399" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
@@ -11731,7 +11736,7 @@
       <c r="Y399" s="5"/>
       <c r="Z399" s="5"/>
     </row>
-    <row r="400" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
@@ -11759,7 +11764,7 @@
       <c r="Y400" s="5"/>
       <c r="Z400" s="5"/>
     </row>
-    <row r="401" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
@@ -11787,7 +11792,7 @@
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
     </row>
-    <row r="402" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
@@ -11815,7 +11820,7 @@
       <c r="Y402" s="5"/>
       <c r="Z402" s="5"/>
     </row>
-    <row r="403" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
@@ -11843,7 +11848,7 @@
       <c r="Y403" s="5"/>
       <c r="Z403" s="5"/>
     </row>
-    <row r="404" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
@@ -11871,7 +11876,7 @@
       <c r="Y404" s="5"/>
       <c r="Z404" s="5"/>
     </row>
-    <row r="405" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -11899,7 +11904,7 @@
       <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
     </row>
-    <row r="406" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
@@ -11927,7 +11932,7 @@
       <c r="Y406" s="5"/>
       <c r="Z406" s="5"/>
     </row>
-    <row r="407" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
@@ -11955,7 +11960,7 @@
       <c r="Y407" s="5"/>
       <c r="Z407" s="5"/>
     </row>
-    <row r="408" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
@@ -11983,7 +11988,7 @@
       <c r="Y408" s="5"/>
       <c r="Z408" s="5"/>
     </row>
-    <row r="409" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
@@ -12011,7 +12016,7 @@
       <c r="Y409" s="5"/>
       <c r="Z409" s="5"/>
     </row>
-    <row r="410" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
@@ -12039,7 +12044,7 @@
       <c r="Y410" s="5"/>
       <c r="Z410" s="5"/>
     </row>
-    <row r="411" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
@@ -12067,7 +12072,7 @@
       <c r="Y411" s="5"/>
       <c r="Z411" s="5"/>
     </row>
-    <row r="412" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
@@ -12095,7 +12100,7 @@
       <c r="Y412" s="5"/>
       <c r="Z412" s="5"/>
     </row>
-    <row r="413" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
@@ -12123,7 +12128,7 @@
       <c r="Y413" s="5"/>
       <c r="Z413" s="5"/>
     </row>
-    <row r="414" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
@@ -12151,7 +12156,7 @@
       <c r="Y414" s="5"/>
       <c r="Z414" s="5"/>
     </row>
-    <row r="415" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
@@ -12179,7 +12184,7 @@
       <c r="Y415" s="5"/>
       <c r="Z415" s="5"/>
     </row>
-    <row r="416" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
@@ -12207,7 +12212,7 @@
       <c r="Y416" s="5"/>
       <c r="Z416" s="5"/>
     </row>
-    <row r="417" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
@@ -12235,7 +12240,7 @@
       <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
     </row>
-    <row r="418" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
@@ -12263,7 +12268,7 @@
       <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
     </row>
-    <row r="419" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
@@ -12291,7 +12296,7 @@
       <c r="Y419" s="5"/>
       <c r="Z419" s="5"/>
     </row>
-    <row r="420" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
@@ -12319,7 +12324,7 @@
       <c r="Y420" s="5"/>
       <c r="Z420" s="5"/>
     </row>
-    <row r="421" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
@@ -12347,7 +12352,7 @@
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
     </row>
-    <row r="422" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
@@ -12375,7 +12380,7 @@
       <c r="Y422" s="5"/>
       <c r="Z422" s="5"/>
     </row>
-    <row r="423" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
@@ -12403,7 +12408,7 @@
       <c r="Y423" s="5"/>
       <c r="Z423" s="5"/>
     </row>
-    <row r="424" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
@@ -12431,7 +12436,7 @@
       <c r="Y424" s="5"/>
       <c r="Z424" s="5"/>
     </row>
-    <row r="425" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
@@ -12459,7 +12464,7 @@
       <c r="Y425" s="5"/>
       <c r="Z425" s="5"/>
     </row>
-    <row r="426" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
@@ -12487,7 +12492,7 @@
       <c r="Y426" s="5"/>
       <c r="Z426" s="5"/>
     </row>
-    <row r="427" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
@@ -12515,7 +12520,7 @@
       <c r="Y427" s="5"/>
       <c r="Z427" s="5"/>
     </row>
-    <row r="428" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -12543,7 +12548,7 @@
       <c r="Y428" s="5"/>
       <c r="Z428" s="5"/>
     </row>
-    <row r="429" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
@@ -12571,7 +12576,7 @@
       <c r="Y429" s="5"/>
       <c r="Z429" s="5"/>
     </row>
-    <row r="430" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
@@ -12599,7 +12604,7 @@
       <c r="Y430" s="5"/>
       <c r="Z430" s="5"/>
     </row>
-    <row r="431" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
@@ -12627,7 +12632,7 @@
       <c r="Y431" s="5"/>
       <c r="Z431" s="5"/>
     </row>
-    <row r="432" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
@@ -12655,7 +12660,7 @@
       <c r="Y432" s="5"/>
       <c r="Z432" s="5"/>
     </row>
-    <row r="433" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -12683,7 +12688,7 @@
       <c r="Y433" s="5"/>
       <c r="Z433" s="5"/>
     </row>
-    <row r="434" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
@@ -12711,7 +12716,7 @@
       <c r="Y434" s="5"/>
       <c r="Z434" s="5"/>
     </row>
-    <row r="435" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
@@ -12739,7 +12744,7 @@
       <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
     </row>
-    <row r="436" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
@@ -12767,7 +12772,7 @@
       <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
     </row>
-    <row r="437" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
@@ -12795,7 +12800,7 @@
       <c r="Y437" s="5"/>
       <c r="Z437" s="5"/>
     </row>
-    <row r="438" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
@@ -12823,7 +12828,7 @@
       <c r="Y438" s="5"/>
       <c r="Z438" s="5"/>
     </row>
-    <row r="439" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
@@ -12851,7 +12856,7 @@
       <c r="Y439" s="5"/>
       <c r="Z439" s="5"/>
     </row>
-    <row r="440" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
@@ -12879,7 +12884,7 @@
       <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
     </row>
-    <row r="441" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
@@ -12907,7 +12912,7 @@
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
     </row>
-    <row r="442" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
@@ -12935,7 +12940,7 @@
       <c r="Y442" s="5"/>
       <c r="Z442" s="5"/>
     </row>
-    <row r="443" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
@@ -12963,7 +12968,7 @@
       <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
     </row>
-    <row r="444" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
@@ -12991,7 +12996,7 @@
       <c r="Y444" s="5"/>
       <c r="Z444" s="5"/>
     </row>
-    <row r="445" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
@@ -13019,7 +13024,7 @@
       <c r="Y445" s="5"/>
       <c r="Z445" s="5"/>
     </row>
-    <row r="446" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
@@ -13047,7 +13052,7 @@
       <c r="Y446" s="5"/>
       <c r="Z446" s="5"/>
     </row>
-    <row r="447" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
@@ -13075,7 +13080,7 @@
       <c r="Y447" s="5"/>
       <c r="Z447" s="5"/>
     </row>
-    <row r="448" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -13103,7 +13108,7 @@
       <c r="Y448" s="5"/>
       <c r="Z448" s="5"/>
     </row>
-    <row r="449" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="6"/>
@@ -13131,7 +13136,7 @@
       <c r="Y449" s="5"/>
       <c r="Z449" s="5"/>
     </row>
-    <row r="450" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="6"/>
@@ -13159,7 +13164,7 @@
       <c r="Y450" s="5"/>
       <c r="Z450" s="5"/>
     </row>
-    <row r="451" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="6"/>
@@ -13187,7 +13192,7 @@
       <c r="Y451" s="5"/>
       <c r="Z451" s="5"/>
     </row>
-    <row r="452" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="6"/>
@@ -13215,7 +13220,7 @@
       <c r="Y452" s="5"/>
       <c r="Z452" s="5"/>
     </row>
-    <row r="453" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="6"/>
@@ -13243,7 +13248,7 @@
       <c r="Y453" s="5"/>
       <c r="Z453" s="5"/>
     </row>
-    <row r="454" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="6"/>
@@ -13271,7 +13276,7 @@
       <c r="Y454" s="5"/>
       <c r="Z454" s="5"/>
     </row>
-    <row r="455" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="6"/>
@@ -13299,7 +13304,7 @@
       <c r="Y455" s="5"/>
       <c r="Z455" s="5"/>
     </row>
-    <row r="456" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="6"/>
@@ -13327,7 +13332,7 @@
       <c r="Y456" s="5"/>
       <c r="Z456" s="5"/>
     </row>
-    <row r="457" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="6"/>
@@ -13355,7 +13360,7 @@
       <c r="Y457" s="5"/>
       <c r="Z457" s="5"/>
     </row>
-    <row r="458" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="6"/>
@@ -13383,7 +13388,7 @@
       <c r="Y458" s="5"/>
       <c r="Z458" s="5"/>
     </row>
-    <row r="459" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="6"/>
@@ -13411,7 +13416,7 @@
       <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
     </row>
-    <row r="460" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="6"/>
@@ -13439,7 +13444,7 @@
       <c r="Y460" s="5"/>
       <c r="Z460" s="5"/>
     </row>
-    <row r="461" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="6"/>
@@ -13467,7 +13472,7 @@
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
     </row>
-    <row r="462" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="6"/>
@@ -13495,7 +13500,7 @@
       <c r="Y462" s="5"/>
       <c r="Z462" s="5"/>
     </row>
-    <row r="463" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="6"/>
@@ -13523,7 +13528,7 @@
       <c r="Y463" s="5"/>
       <c r="Z463" s="5"/>
     </row>
-    <row r="464" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="6"/>
@@ -13551,7 +13556,7 @@
       <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
     </row>
-    <row r="465" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="6"/>
@@ -13579,7 +13584,7 @@
       <c r="Y465" s="5"/>
       <c r="Z465" s="5"/>
     </row>
-    <row r="466" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="6"/>
@@ -13607,7 +13612,7 @@
       <c r="Y466" s="5"/>
       <c r="Z466" s="5"/>
     </row>
-    <row r="467" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="6"/>
@@ -13635,7 +13640,7 @@
       <c r="Y467" s="5"/>
       <c r="Z467" s="5"/>
     </row>
-    <row r="468" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="6"/>
@@ -13663,7 +13668,7 @@
       <c r="Y468" s="5"/>
       <c r="Z468" s="5"/>
     </row>
-    <row r="469" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="6"/>
@@ -13691,7 +13696,7 @@
       <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
     </row>
-    <row r="470" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="6"/>
@@ -13719,7 +13724,7 @@
       <c r="Y470" s="5"/>
       <c r="Z470" s="5"/>
     </row>
-    <row r="471" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
@@ -13747,7 +13752,7 @@
       <c r="Y471" s="5"/>
       <c r="Z471" s="5"/>
     </row>
-    <row r="472" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="6"/>
@@ -13775,7 +13780,7 @@
       <c r="Y472" s="5"/>
       <c r="Z472" s="5"/>
     </row>
-    <row r="473" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="6"/>
@@ -13803,7 +13808,7 @@
       <c r="Y473" s="5"/>
       <c r="Z473" s="5"/>
     </row>
-    <row r="474" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="6"/>
@@ -13831,7 +13836,7 @@
       <c r="Y474" s="5"/>
       <c r="Z474" s="5"/>
     </row>
-    <row r="475" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4"/>
       <c r="B475" s="5"/>
       <c r="C475" s="6"/>
@@ -13859,7 +13864,7 @@
       <c r="Y475" s="5"/>
       <c r="Z475" s="5"/>
     </row>
-    <row r="476" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="6"/>
@@ -13887,7 +13892,7 @@
       <c r="Y476" s="5"/>
       <c r="Z476" s="5"/>
     </row>
-    <row r="477" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="6"/>
@@ -13915,7 +13920,7 @@
       <c r="Y477" s="5"/>
       <c r="Z477" s="5"/>
     </row>
-    <row r="478" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="6"/>
@@ -13943,7 +13948,7 @@
       <c r="Y478" s="5"/>
       <c r="Z478" s="5"/>
     </row>
-    <row r="479" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="6"/>
@@ -13971,7 +13976,7 @@
       <c r="Y479" s="5"/>
       <c r="Z479" s="5"/>
     </row>
-    <row r="480" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="6"/>
@@ -13999,7 +14004,7 @@
       <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
     </row>
-    <row r="481" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="6"/>
@@ -14027,7 +14032,7 @@
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
     </row>
-    <row r="482" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="6"/>
@@ -14055,7 +14060,7 @@
       <c r="Y482" s="5"/>
       <c r="Z482" s="5"/>
     </row>
-    <row r="483" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="6"/>
@@ -14083,7 +14088,7 @@
       <c r="Y483" s="5"/>
       <c r="Z483" s="5"/>
     </row>
-    <row r="484" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="6"/>
@@ -14111,7 +14116,7 @@
       <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
     </row>
-    <row r="485" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="6"/>
@@ -14139,7 +14144,7 @@
       <c r="Y485" s="5"/>
       <c r="Z485" s="5"/>
     </row>
-    <row r="486" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="6"/>
@@ -14167,7 +14172,7 @@
       <c r="Y486" s="5"/>
       <c r="Z486" s="5"/>
     </row>
-    <row r="487" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="6"/>
@@ -14195,7 +14200,7 @@
       <c r="Y487" s="5"/>
       <c r="Z487" s="5"/>
     </row>
-    <row r="488" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="6"/>
@@ -14223,7 +14228,7 @@
       <c r="Y488" s="5"/>
       <c r="Z488" s="5"/>
     </row>
-    <row r="489" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="6"/>
@@ -14251,7 +14256,7 @@
       <c r="Y489" s="5"/>
       <c r="Z489" s="5"/>
     </row>
-    <row r="490" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6"/>
@@ -14279,7 +14284,7 @@
       <c r="Y490" s="5"/>
       <c r="Z490" s="5"/>
     </row>
-    <row r="491" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6"/>
@@ -14307,7 +14312,7 @@
       <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
     </row>
-    <row r="492" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6"/>
@@ -14335,7 +14340,7 @@
       <c r="Y492" s="5"/>
       <c r="Z492" s="5"/>
     </row>
-    <row r="493" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6"/>
@@ -14363,7 +14368,7 @@
       <c r="Y493" s="5"/>
       <c r="Z493" s="5"/>
     </row>
-    <row r="494" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6"/>
@@ -14391,7 +14396,7 @@
       <c r="Y494" s="5"/>
       <c r="Z494" s="5"/>
     </row>
-    <row r="495" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6"/>
@@ -14419,7 +14424,7 @@
       <c r="Y495" s="5"/>
       <c r="Z495" s="5"/>
     </row>
-    <row r="496" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6"/>
@@ -14447,7 +14452,7 @@
       <c r="Y496" s="5"/>
       <c r="Z496" s="5"/>
     </row>
-    <row r="497" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6"/>
@@ -14475,7 +14480,7 @@
       <c r="Y497" s="5"/>
       <c r="Z497" s="5"/>
     </row>
-    <row r="498" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6"/>
@@ -14503,7 +14508,7 @@
       <c r="Y498" s="5"/>
       <c r="Z498" s="5"/>
     </row>
-    <row r="499" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6"/>
@@ -14531,7 +14536,7 @@
       <c r="Y499" s="5"/>
       <c r="Z499" s="5"/>
     </row>
-    <row r="500" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
@@ -14559,7 +14564,7 @@
       <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
     </row>
-    <row r="501" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6"/>
@@ -14587,7 +14592,7 @@
       <c r="Y501" s="5"/>
       <c r="Z501" s="5"/>
     </row>
-    <row r="502" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6"/>
@@ -14615,7 +14620,7 @@
       <c r="Y502" s="5"/>
       <c r="Z502" s="5"/>
     </row>
-    <row r="503" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6"/>
@@ -14643,7 +14648,7 @@
       <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
     </row>
-    <row r="504" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6"/>
@@ -14671,7 +14676,7 @@
       <c r="Y504" s="5"/>
       <c r="Z504" s="5"/>
     </row>
-    <row r="505" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6"/>
@@ -14699,7 +14704,7 @@
       <c r="Y505" s="5"/>
       <c r="Z505" s="5"/>
     </row>
-    <row r="506" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6"/>
@@ -14727,7 +14732,7 @@
       <c r="Y506" s="5"/>
       <c r="Z506" s="5"/>
     </row>
-    <row r="507" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6"/>
@@ -14755,7 +14760,7 @@
       <c r="Y507" s="5"/>
       <c r="Z507" s="5"/>
     </row>
-    <row r="508" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6"/>
@@ -14783,7 +14788,7 @@
       <c r="Y508" s="5"/>
       <c r="Z508" s="5"/>
     </row>
-    <row r="509" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6"/>
@@ -14811,7 +14816,7 @@
       <c r="Y509" s="5"/>
       <c r="Z509" s="5"/>
     </row>
-    <row r="510" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6"/>
@@ -14839,7 +14844,7 @@
       <c r="Y510" s="5"/>
       <c r="Z510" s="5"/>
     </row>
-    <row r="511" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6"/>
@@ -14867,7 +14872,7 @@
       <c r="Y511" s="5"/>
       <c r="Z511" s="5"/>
     </row>
-    <row r="512" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6"/>
@@ -14895,7 +14900,7 @@
       <c r="Y512" s="5"/>
       <c r="Z512" s="5"/>
     </row>
-    <row r="513" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6"/>
@@ -14923,7 +14928,7 @@
       <c r="Y513" s="5"/>
       <c r="Z513" s="5"/>
     </row>
-    <row r="514" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6"/>
@@ -14951,7 +14956,7 @@
       <c r="Y514" s="5"/>
       <c r="Z514" s="5"/>
     </row>
-    <row r="515" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6"/>
@@ -14979,7 +14984,7 @@
       <c r="Y515" s="5"/>
       <c r="Z515" s="5"/>
     </row>
-    <row r="516" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6"/>
@@ -15007,7 +15012,7 @@
       <c r="Y516" s="5"/>
       <c r="Z516" s="5"/>
     </row>
-    <row r="517" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6"/>
@@ -15035,7 +15040,7 @@
       <c r="Y517" s="5"/>
       <c r="Z517" s="5"/>
     </row>
-    <row r="518" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6"/>
@@ -15063,7 +15068,7 @@
       <c r="Y518" s="5"/>
       <c r="Z518" s="5"/>
     </row>
-    <row r="519" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6"/>
@@ -15091,7 +15096,7 @@
       <c r="Y519" s="5"/>
       <c r="Z519" s="5"/>
     </row>
-    <row r="520" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6"/>
@@ -15119,7 +15124,7 @@
       <c r="Y520" s="5"/>
       <c r="Z520" s="5"/>
     </row>
-    <row r="521" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6"/>
@@ -15147,7 +15152,7 @@
       <c r="Y521" s="5"/>
       <c r="Z521" s="5"/>
     </row>
-    <row r="522" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6"/>
@@ -15175,7 +15180,7 @@
       <c r="Y522" s="5"/>
       <c r="Z522" s="5"/>
     </row>
-    <row r="523" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6"/>
@@ -15203,7 +15208,7 @@
       <c r="Y523" s="5"/>
       <c r="Z523" s="5"/>
     </row>
-    <row r="524" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6"/>
@@ -15231,7 +15236,7 @@
       <c r="Y524" s="5"/>
       <c r="Z524" s="5"/>
     </row>
-    <row r="525" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6"/>
@@ -15259,7 +15264,7 @@
       <c r="Y525" s="5"/>
       <c r="Z525" s="5"/>
     </row>
-    <row r="526" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6"/>
@@ -15287,7 +15292,7 @@
       <c r="Y526" s="5"/>
       <c r="Z526" s="5"/>
     </row>
-    <row r="527" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6"/>
@@ -15315,7 +15320,7 @@
       <c r="Y527" s="5"/>
       <c r="Z527" s="5"/>
     </row>
-    <row r="528" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6"/>
@@ -15343,7 +15348,7 @@
       <c r="Y528" s="5"/>
       <c r="Z528" s="5"/>
     </row>
-    <row r="529" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6"/>
@@ -15371,7 +15376,7 @@
       <c r="Y529" s="5"/>
       <c r="Z529" s="5"/>
     </row>
-    <row r="530" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6"/>
@@ -15399,7 +15404,7 @@
       <c r="Y530" s="5"/>
       <c r="Z530" s="5"/>
     </row>
-    <row r="531" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
       <c r="C531" s="6"/>
@@ -15427,7 +15432,7 @@
       <c r="Y531" s="5"/>
       <c r="Z531" s="5"/>
     </row>
-    <row r="532" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6"/>
@@ -15455,7 +15460,7 @@
       <c r="Y532" s="5"/>
       <c r="Z532" s="5"/>
     </row>
-    <row r="533" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
       <c r="C533" s="6"/>
@@ -15483,7 +15488,7 @@
       <c r="Y533" s="5"/>
       <c r="Z533" s="5"/>
     </row>
-    <row r="534" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6"/>
@@ -15511,7 +15516,7 @@
       <c r="Y534" s="5"/>
       <c r="Z534" s="5"/>
     </row>
-    <row r="535" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6"/>
@@ -15539,7 +15544,7 @@
       <c r="Y535" s="5"/>
       <c r="Z535" s="5"/>
     </row>
-    <row r="536" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6"/>
@@ -15567,7 +15572,7 @@
       <c r="Y536" s="5"/>
       <c r="Z536" s="5"/>
     </row>
-    <row r="537" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6"/>
@@ -15595,7 +15600,7 @@
       <c r="Y537" s="5"/>
       <c r="Z537" s="5"/>
     </row>
-    <row r="538" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6"/>
@@ -15623,7 +15628,7 @@
       <c r="Y538" s="5"/>
       <c r="Z538" s="5"/>
     </row>
-    <row r="539" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6"/>
@@ -15651,7 +15656,7 @@
       <c r="Y539" s="5"/>
       <c r="Z539" s="5"/>
     </row>
-    <row r="540" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6"/>
@@ -15679,7 +15684,7 @@
       <c r="Y540" s="5"/>
       <c r="Z540" s="5"/>
     </row>
-    <row r="541" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6"/>
@@ -15707,7 +15712,7 @@
       <c r="Y541" s="5"/>
       <c r="Z541" s="5"/>
     </row>
-    <row r="542" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
       <c r="C542" s="6"/>
@@ -15735,7 +15740,7 @@
       <c r="Y542" s="5"/>
       <c r="Z542" s="5"/>
     </row>
-    <row r="543" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6"/>
@@ -15763,7 +15768,7 @@
       <c r="Y543" s="5"/>
       <c r="Z543" s="5"/>
     </row>
-    <row r="544" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6"/>
@@ -15791,7 +15796,7 @@
       <c r="Y544" s="5"/>
       <c r="Z544" s="5"/>
     </row>
-    <row r="545" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
       <c r="C545" s="6"/>
@@ -15819,7 +15824,7 @@
       <c r="Y545" s="5"/>
       <c r="Z545" s="5"/>
     </row>
-    <row r="546" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6"/>
@@ -15847,7 +15852,7 @@
       <c r="Y546" s="5"/>
       <c r="Z546" s="5"/>
     </row>
-    <row r="547" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6"/>
@@ -15875,7 +15880,7 @@
       <c r="Y547" s="5"/>
       <c r="Z547" s="5"/>
     </row>
-    <row r="548" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6"/>
@@ -15903,7 +15908,7 @@
       <c r="Y548" s="5"/>
       <c r="Z548" s="5"/>
     </row>
-    <row r="549" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6"/>
@@ -15931,7 +15936,7 @@
       <c r="Y549" s="5"/>
       <c r="Z549" s="5"/>
     </row>
-    <row r="550" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6"/>
@@ -15959,7 +15964,7 @@
       <c r="Y550" s="5"/>
       <c r="Z550" s="5"/>
     </row>
-    <row r="551" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6"/>
@@ -15987,7 +15992,7 @@
       <c r="Y551" s="5"/>
       <c r="Z551" s="5"/>
     </row>
-    <row r="552" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
       <c r="C552" s="6"/>
@@ -16015,7 +16020,7 @@
       <c r="Y552" s="5"/>
       <c r="Z552" s="5"/>
     </row>
-    <row r="553" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6"/>
@@ -16043,7 +16048,7 @@
       <c r="Y553" s="5"/>
       <c r="Z553" s="5"/>
     </row>
-    <row r="554" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6"/>
@@ -16071,7 +16076,7 @@
       <c r="Y554" s="5"/>
       <c r="Z554" s="5"/>
     </row>
-    <row r="555" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6"/>
@@ -16099,7 +16104,7 @@
       <c r="Y555" s="5"/>
       <c r="Z555" s="5"/>
     </row>
-    <row r="556" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6"/>
@@ -16127,7 +16132,7 @@
       <c r="Y556" s="5"/>
       <c r="Z556" s="5"/>
     </row>
-    <row r="557" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6"/>
@@ -16155,7 +16160,7 @@
       <c r="Y557" s="5"/>
       <c r="Z557" s="5"/>
     </row>
-    <row r="558" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6"/>
@@ -16183,7 +16188,7 @@
       <c r="Y558" s="5"/>
       <c r="Z558" s="5"/>
     </row>
-    <row r="559" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6"/>
@@ -16211,7 +16216,7 @@
       <c r="Y559" s="5"/>
       <c r="Z559" s="5"/>
     </row>
-    <row r="560" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6"/>
@@ -16239,7 +16244,7 @@
       <c r="Y560" s="5"/>
       <c r="Z560" s="5"/>
     </row>
-    <row r="561" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6"/>
@@ -16267,7 +16272,7 @@
       <c r="Y561" s="5"/>
       <c r="Z561" s="5"/>
     </row>
-    <row r="562" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6"/>
@@ -16295,7 +16300,7 @@
       <c r="Y562" s="5"/>
       <c r="Z562" s="5"/>
     </row>
-    <row r="563" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6"/>
@@ -16323,7 +16328,7 @@
       <c r="Y563" s="5"/>
       <c r="Z563" s="5"/>
     </row>
-    <row r="564" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6"/>
@@ -16351,7 +16356,7 @@
       <c r="Y564" s="5"/>
       <c r="Z564" s="5"/>
     </row>
-    <row r="565" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6"/>
@@ -16379,7 +16384,7 @@
       <c r="Y565" s="5"/>
       <c r="Z565" s="5"/>
     </row>
-    <row r="566" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6"/>
@@ -16407,7 +16412,7 @@
       <c r="Y566" s="5"/>
       <c r="Z566" s="5"/>
     </row>
-    <row r="567" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6"/>
@@ -16435,7 +16440,7 @@
       <c r="Y567" s="5"/>
       <c r="Z567" s="5"/>
     </row>
-    <row r="568" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6"/>
@@ -16463,7 +16468,7 @@
       <c r="Y568" s="5"/>
       <c r="Z568" s="5"/>
     </row>
-    <row r="569" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6"/>
@@ -16491,7 +16496,7 @@
       <c r="Y569" s="5"/>
       <c r="Z569" s="5"/>
     </row>
-    <row r="570" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6"/>
@@ -16519,7 +16524,7 @@
       <c r="Y570" s="5"/>
       <c r="Z570" s="5"/>
     </row>
-    <row r="571" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6"/>
@@ -16547,7 +16552,7 @@
       <c r="Y571" s="5"/>
       <c r="Z571" s="5"/>
     </row>
-    <row r="572" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6"/>
@@ -16575,7 +16580,7 @@
       <c r="Y572" s="5"/>
       <c r="Z572" s="5"/>
     </row>
-    <row r="573" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6"/>
@@ -16603,7 +16608,7 @@
       <c r="Y573" s="5"/>
       <c r="Z573" s="5"/>
     </row>
-    <row r="574" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6"/>
@@ -16631,7 +16636,7 @@
       <c r="Y574" s="5"/>
       <c r="Z574" s="5"/>
     </row>
-    <row r="575" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6"/>
@@ -16659,7 +16664,7 @@
       <c r="Y575" s="5"/>
       <c r="Z575" s="5"/>
     </row>
-    <row r="576" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4"/>
       <c r="B576" s="5"/>
       <c r="C576" s="6"/>
@@ -16687,7 +16692,7 @@
       <c r="Y576" s="5"/>
       <c r="Z576" s="5"/>
     </row>
-    <row r="577" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
       <c r="C577" s="6"/>
@@ -16715,7 +16720,7 @@
       <c r="Y577" s="5"/>
       <c r="Z577" s="5"/>
     </row>
-    <row r="578" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4"/>
       <c r="B578" s="5"/>
       <c r="C578" s="6"/>
@@ -16743,7 +16748,7 @@
       <c r="Y578" s="5"/>
       <c r="Z578" s="5"/>
     </row>
-    <row r="579" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
       <c r="C579" s="6"/>
@@ -16771,7 +16776,7 @@
       <c r="Y579" s="5"/>
       <c r="Z579" s="5"/>
     </row>
-    <row r="580" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4"/>
       <c r="B580" s="5"/>
       <c r="C580" s="6"/>
@@ -16799,7 +16804,7 @@
       <c r="Y580" s="5"/>
       <c r="Z580" s="5"/>
     </row>
-    <row r="581" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4"/>
       <c r="B581" s="5"/>
       <c r="C581" s="6"/>
@@ -16827,7 +16832,7 @@
       <c r="Y581" s="5"/>
       <c r="Z581" s="5"/>
     </row>
-    <row r="582" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4"/>
       <c r="B582" s="5"/>
       <c r="C582" s="6"/>
@@ -16855,7 +16860,7 @@
       <c r="Y582" s="5"/>
       <c r="Z582" s="5"/>
     </row>
-    <row r="583" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4"/>
       <c r="B583" s="5"/>
       <c r="C583" s="6"/>
@@ -16883,7 +16888,7 @@
       <c r="Y583" s="5"/>
       <c r="Z583" s="5"/>
     </row>
-    <row r="584" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4"/>
       <c r="B584" s="5"/>
       <c r="C584" s="6"/>
@@ -16911,7 +16916,7 @@
       <c r="Y584" s="5"/>
       <c r="Z584" s="5"/>
     </row>
-    <row r="585" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6"/>
@@ -16939,7 +16944,7 @@
       <c r="Y585" s="5"/>
       <c r="Z585" s="5"/>
     </row>
-    <row r="586" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
@@ -16967,7 +16972,7 @@
       <c r="Y586" s="5"/>
       <c r="Z586" s="5"/>
     </row>
-    <row r="587" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6"/>
@@ -16995,7 +17000,7 @@
       <c r="Y587" s="5"/>
       <c r="Z587" s="5"/>
     </row>
-    <row r="588" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4"/>
       <c r="B588" s="5"/>
       <c r="C588" s="6"/>
@@ -17023,7 +17028,7 @@
       <c r="Y588" s="5"/>
       <c r="Z588" s="5"/>
     </row>
-    <row r="589" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6"/>
@@ -17051,7 +17056,7 @@
       <c r="Y589" s="5"/>
       <c r="Z589" s="5"/>
     </row>
-    <row r="590" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4"/>
       <c r="B590" s="5"/>
       <c r="C590" s="6"/>
@@ -17079,7 +17084,7 @@
       <c r="Y590" s="5"/>
       <c r="Z590" s="5"/>
     </row>
-    <row r="591" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4"/>
       <c r="B591" s="5"/>
       <c r="C591" s="6"/>
@@ -17107,7 +17112,7 @@
       <c r="Y591" s="5"/>
       <c r="Z591" s="5"/>
     </row>
-    <row r="592" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4"/>
       <c r="B592" s="5"/>
       <c r="C592" s="6"/>
@@ -17135,7 +17140,7 @@
       <c r="Y592" s="5"/>
       <c r="Z592" s="5"/>
     </row>
-    <row r="593" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6"/>
@@ -17163,7 +17168,7 @@
       <c r="Y593" s="5"/>
       <c r="Z593" s="5"/>
     </row>
-    <row r="594" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
@@ -17191,7 +17196,7 @@
       <c r="Y594" s="5"/>
       <c r="Z594" s="5"/>
     </row>
-    <row r="595" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6"/>
@@ -17219,7 +17224,7 @@
       <c r="Y595" s="5"/>
       <c r="Z595" s="5"/>
     </row>
-    <row r="596" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
@@ -17247,7 +17252,7 @@
       <c r="Y596" s="5"/>
       <c r="Z596" s="5"/>
     </row>
-    <row r="597" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6"/>
@@ -17275,7 +17280,7 @@
       <c r="Y597" s="5"/>
       <c r="Z597" s="5"/>
     </row>
-    <row r="598" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
@@ -17303,7 +17308,7 @@
       <c r="Y598" s="5"/>
       <c r="Z598" s="5"/>
     </row>
-    <row r="599" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6"/>
@@ -17331,7 +17336,7 @@
       <c r="Y599" s="5"/>
       <c r="Z599" s="5"/>
     </row>
-    <row r="600" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
@@ -17359,7 +17364,7 @@
       <c r="Y600" s="5"/>
       <c r="Z600" s="5"/>
     </row>
-    <row r="601" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="4"/>
       <c r="B601" s="5"/>
       <c r="C601" s="6"/>
@@ -17387,7 +17392,7 @@
       <c r="Y601" s="5"/>
       <c r="Z601" s="5"/>
     </row>
-    <row r="602" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
@@ -17415,7 +17420,7 @@
       <c r="Y602" s="5"/>
       <c r="Z602" s="5"/>
     </row>
-    <row r="603" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6"/>
@@ -17443,7 +17448,7 @@
       <c r="Y603" s="5"/>
       <c r="Z603" s="5"/>
     </row>
-    <row r="604" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
@@ -17471,7 +17476,7 @@
       <c r="Y604" s="5"/>
       <c r="Z604" s="5"/>
     </row>
-    <row r="605" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6"/>
@@ -17499,7 +17504,7 @@
       <c r="Y605" s="5"/>
       <c r="Z605" s="5"/>
     </row>
-    <row r="606" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6"/>
@@ -17527,7 +17532,7 @@
       <c r="Y606" s="5"/>
       <c r="Z606" s="5"/>
     </row>
-    <row r="607" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6"/>
@@ -17555,7 +17560,7 @@
       <c r="Y607" s="5"/>
       <c r="Z607" s="5"/>
     </row>
-    <row r="608" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6"/>
@@ -17583,7 +17588,7 @@
       <c r="Y608" s="5"/>
       <c r="Z608" s="5"/>
     </row>
-    <row r="609" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6"/>
@@ -17611,7 +17616,7 @@
       <c r="Y609" s="5"/>
       <c r="Z609" s="5"/>
     </row>
-    <row r="610" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6"/>
@@ -17639,7 +17644,7 @@
       <c r="Y610" s="5"/>
       <c r="Z610" s="5"/>
     </row>
-    <row r="611" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4"/>
       <c r="B611" s="5"/>
       <c r="C611" s="6"/>
@@ -17667,7 +17672,7 @@
       <c r="Y611" s="5"/>
       <c r="Z611" s="5"/>
     </row>
-    <row r="612" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6"/>
@@ -17695,7 +17700,7 @@
       <c r="Y612" s="5"/>
       <c r="Z612" s="5"/>
     </row>
-    <row r="613" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6"/>
@@ -17723,7 +17728,7 @@
       <c r="Y613" s="5"/>
       <c r="Z613" s="5"/>
     </row>
-    <row r="614" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4"/>
       <c r="B614" s="5"/>
       <c r="C614" s="6"/>
@@ -17751,7 +17756,7 @@
       <c r="Y614" s="5"/>
       <c r="Z614" s="5"/>
     </row>
-    <row r="615" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4"/>
       <c r="B615" s="5"/>
       <c r="C615" s="6"/>
@@ -17779,7 +17784,7 @@
       <c r="Y615" s="5"/>
       <c r="Z615" s="5"/>
     </row>
-    <row r="616" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4"/>
       <c r="B616" s="5"/>
       <c r="C616" s="6"/>
@@ -17807,7 +17812,7 @@
       <c r="Y616" s="5"/>
       <c r="Z616" s="5"/>
     </row>
-    <row r="617" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6"/>
@@ -17835,7 +17840,7 @@
       <c r="Y617" s="5"/>
       <c r="Z617" s="5"/>
     </row>
-    <row r="618" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6"/>
@@ -17863,7 +17868,7 @@
       <c r="Y618" s="5"/>
       <c r="Z618" s="5"/>
     </row>
-    <row r="619" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6"/>
@@ -17891,7 +17896,7 @@
       <c r="Y619" s="5"/>
       <c r="Z619" s="5"/>
     </row>
-    <row r="620" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6"/>
@@ -17919,7 +17924,7 @@
       <c r="Y620" s="5"/>
       <c r="Z620" s="5"/>
     </row>
-    <row r="621" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="4"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6"/>
@@ -17947,7 +17952,7 @@
       <c r="Y621" s="5"/>
       <c r="Z621" s="5"/>
     </row>
-    <row r="622" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="4"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6"/>
@@ -17975,7 +17980,7 @@
       <c r="Y622" s="5"/>
       <c r="Z622" s="5"/>
     </row>
-    <row r="623" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="4"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6"/>
@@ -18003,7 +18008,7 @@
       <c r="Y623" s="5"/>
       <c r="Z623" s="5"/>
     </row>
-    <row r="624" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="4"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6"/>
@@ -18031,7 +18036,7 @@
       <c r="Y624" s="5"/>
       <c r="Z624" s="5"/>
     </row>
-    <row r="625" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="4"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6"/>
@@ -18059,7 +18064,7 @@
       <c r="Y625" s="5"/>
       <c r="Z625" s="5"/>
     </row>
-    <row r="626" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="4"/>
       <c r="B626" s="5"/>
       <c r="C626" s="6"/>
@@ -18087,7 +18092,7 @@
       <c r="Y626" s="5"/>
       <c r="Z626" s="5"/>
     </row>
-    <row r="627" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="4"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6"/>
@@ -18115,7 +18120,7 @@
       <c r="Y627" s="5"/>
       <c r="Z627" s="5"/>
     </row>
-    <row r="628" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="4"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6"/>
@@ -18143,7 +18148,7 @@
       <c r="Y628" s="5"/>
       <c r="Z628" s="5"/>
     </row>
-    <row r="629" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="4"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6"/>
@@ -18171,7 +18176,7 @@
       <c r="Y629" s="5"/>
       <c r="Z629" s="5"/>
     </row>
-    <row r="630" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="4"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6"/>
@@ -18199,7 +18204,7 @@
       <c r="Y630" s="5"/>
       <c r="Z630" s="5"/>
     </row>
-    <row r="631" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="4"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6"/>
@@ -18227,7 +18232,7 @@
       <c r="Y631" s="5"/>
       <c r="Z631" s="5"/>
     </row>
-    <row r="632" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="4"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6"/>
@@ -18255,7 +18260,7 @@
       <c r="Y632" s="5"/>
       <c r="Z632" s="5"/>
     </row>
-    <row r="633" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="4"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6"/>
@@ -18283,7 +18288,7 @@
       <c r="Y633" s="5"/>
       <c r="Z633" s="5"/>
     </row>
-    <row r="634" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="4"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
@@ -18311,7 +18316,7 @@
       <c r="Y634" s="5"/>
       <c r="Z634" s="5"/>
     </row>
-    <row r="635" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="4"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6"/>
@@ -18339,7 +18344,7 @@
       <c r="Y635" s="5"/>
       <c r="Z635" s="5"/>
     </row>
-    <row r="636" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="4"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
@@ -18367,7 +18372,7 @@
       <c r="Y636" s="5"/>
       <c r="Z636" s="5"/>
     </row>
-    <row r="637" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6"/>
@@ -18395,7 +18400,7 @@
       <c r="Y637" s="5"/>
       <c r="Z637" s="5"/>
     </row>
-    <row r="638" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="4"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
@@ -18423,7 +18428,7 @@
       <c r="Y638" s="5"/>
       <c r="Z638" s="5"/>
     </row>
-    <row r="639" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="4"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6"/>
@@ -18451,7 +18456,7 @@
       <c r="Y639" s="5"/>
       <c r="Z639" s="5"/>
     </row>
-    <row r="640" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="4"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
@@ -18479,7 +18484,7 @@
       <c r="Y640" s="5"/>
       <c r="Z640" s="5"/>
     </row>
-    <row r="641" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6"/>
@@ -18507,7 +18512,7 @@
       <c r="Y641" s="5"/>
       <c r="Z641" s="5"/>
     </row>
-    <row r="642" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="4"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
@@ -18535,7 +18540,7 @@
       <c r="Y642" s="5"/>
       <c r="Z642" s="5"/>
     </row>
-    <row r="643" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="4"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6"/>
@@ -18563,7 +18568,7 @@
       <c r="Y643" s="5"/>
       <c r="Z643" s="5"/>
     </row>
-    <row r="644" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="4"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
@@ -18591,7 +18596,7 @@
       <c r="Y644" s="5"/>
       <c r="Z644" s="5"/>
     </row>
-    <row r="645" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="4"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6"/>
@@ -18619,7 +18624,7 @@
       <c r="Y645" s="5"/>
       <c r="Z645" s="5"/>
     </row>
-    <row r="646" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="4"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
@@ -18647,7 +18652,7 @@
       <c r="Y646" s="5"/>
       <c r="Z646" s="5"/>
     </row>
-    <row r="647" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="4"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6"/>
@@ -18675,7 +18680,7 @@
       <c r="Y647" s="5"/>
       <c r="Z647" s="5"/>
     </row>
-    <row r="648" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="4"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
@@ -18703,7 +18708,7 @@
       <c r="Y648" s="5"/>
       <c r="Z648" s="5"/>
     </row>
-    <row r="649" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="4"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6"/>
@@ -18731,7 +18736,7 @@
       <c r="Y649" s="5"/>
       <c r="Z649" s="5"/>
     </row>
-    <row r="650" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="4"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
@@ -18759,7 +18764,7 @@
       <c r="Y650" s="5"/>
       <c r="Z650" s="5"/>
     </row>
-    <row r="651" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="4"/>
       <c r="B651" s="5"/>
       <c r="C651" s="6"/>
@@ -18787,7 +18792,7 @@
       <c r="Y651" s="5"/>
       <c r="Z651" s="5"/>
     </row>
-    <row r="652" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="4"/>
       <c r="B652" s="5"/>
       <c r="C652" s="6"/>
@@ -18815,7 +18820,7 @@
       <c r="Y652" s="5"/>
       <c r="Z652" s="5"/>
     </row>
-    <row r="653" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="4"/>
       <c r="B653" s="5"/>
       <c r="C653" s="6"/>
@@ -18843,7 +18848,7 @@
       <c r="Y653" s="5"/>
       <c r="Z653" s="5"/>
     </row>
-    <row r="654" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="4"/>
       <c r="B654" s="5"/>
       <c r="C654" s="6"/>
@@ -18871,7 +18876,7 @@
       <c r="Y654" s="5"/>
       <c r="Z654" s="5"/>
     </row>
-    <row r="655" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="4"/>
       <c r="B655" s="5"/>
       <c r="C655" s="6"/>
@@ -18899,7 +18904,7 @@
       <c r="Y655" s="5"/>
       <c r="Z655" s="5"/>
     </row>
-    <row r="656" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="4"/>
       <c r="B656" s="5"/>
       <c r="C656" s="6"/>
@@ -18927,7 +18932,7 @@
       <c r="Y656" s="5"/>
       <c r="Z656" s="5"/>
     </row>
-    <row r="657" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="4"/>
       <c r="B657" s="5"/>
       <c r="C657" s="6"/>
@@ -18955,7 +18960,7 @@
       <c r="Y657" s="5"/>
       <c r="Z657" s="5"/>
     </row>
-    <row r="658" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="4"/>
       <c r="B658" s="5"/>
       <c r="C658" s="6"/>
@@ -18983,7 +18988,7 @@
       <c r="Y658" s="5"/>
       <c r="Z658" s="5"/>
     </row>
-    <row r="659" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="4"/>
       <c r="B659" s="5"/>
       <c r="C659" s="6"/>
@@ -19011,7 +19016,7 @@
       <c r="Y659" s="5"/>
       <c r="Z659" s="5"/>
     </row>
-    <row r="660" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="4"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6"/>
@@ -19039,7 +19044,7 @@
       <c r="Y660" s="5"/>
       <c r="Z660" s="5"/>
     </row>
-    <row r="661" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="4"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6"/>
@@ -19067,7 +19072,7 @@
       <c r="Y661" s="5"/>
       <c r="Z661" s="5"/>
     </row>
-    <row r="662" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="4"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6"/>
@@ -19095,7 +19100,7 @@
       <c r="Y662" s="5"/>
       <c r="Z662" s="5"/>
     </row>
-    <row r="663" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="4"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6"/>
@@ -19123,7 +19128,7 @@
       <c r="Y663" s="5"/>
       <c r="Z663" s="5"/>
     </row>
-    <row r="664" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="4"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6"/>
@@ -19151,7 +19156,7 @@
       <c r="Y664" s="5"/>
       <c r="Z664" s="5"/>
     </row>
-    <row r="665" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="4"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6"/>
@@ -19179,7 +19184,7 @@
       <c r="Y665" s="5"/>
       <c r="Z665" s="5"/>
     </row>
-    <row r="666" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="4"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6"/>
@@ -19207,7 +19212,7 @@
       <c r="Y666" s="5"/>
       <c r="Z666" s="5"/>
     </row>
-    <row r="667" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="4"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6"/>
@@ -19235,7 +19240,7 @@
       <c r="Y667" s="5"/>
       <c r="Z667" s="5"/>
     </row>
-    <row r="668" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="4"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6"/>
@@ -19263,7 +19268,7 @@
       <c r="Y668" s="5"/>
       <c r="Z668" s="5"/>
     </row>
-    <row r="669" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="4"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6"/>
@@ -19291,7 +19296,7 @@
       <c r="Y669" s="5"/>
       <c r="Z669" s="5"/>
     </row>
-    <row r="670" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="4"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6"/>
@@ -19319,7 +19324,7 @@
       <c r="Y670" s="5"/>
       <c r="Z670" s="5"/>
     </row>
-    <row r="671" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="4"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6"/>
@@ -19347,7 +19352,7 @@
       <c r="Y671" s="5"/>
       <c r="Z671" s="5"/>
     </row>
-    <row r="672" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="4"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6"/>
@@ -19375,7 +19380,7 @@
       <c r="Y672" s="5"/>
       <c r="Z672" s="5"/>
     </row>
-    <row r="673" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="4"/>
       <c r="B673" s="5"/>
       <c r="C673" s="6"/>
@@ -19403,7 +19408,7 @@
       <c r="Y673" s="5"/>
       <c r="Z673" s="5"/>
     </row>
-    <row r="674" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="4"/>
       <c r="B674" s="5"/>
       <c r="C674" s="6"/>
@@ -19431,7 +19436,7 @@
       <c r="Y674" s="5"/>
       <c r="Z674" s="5"/>
     </row>
-    <row r="675" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="4"/>
       <c r="B675" s="5"/>
       <c r="C675" s="6"/>
@@ -19459,7 +19464,7 @@
       <c r="Y675" s="5"/>
       <c r="Z675" s="5"/>
     </row>
-    <row r="676" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="4"/>
       <c r="B676" s="5"/>
       <c r="C676" s="6"/>
@@ -19487,7 +19492,7 @@
       <c r="Y676" s="5"/>
       <c r="Z676" s="5"/>
     </row>
-    <row r="677" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="4"/>
       <c r="B677" s="5"/>
       <c r="C677" s="6"/>
@@ -19515,7 +19520,7 @@
       <c r="Y677" s="5"/>
       <c r="Z677" s="5"/>
     </row>
-    <row r="678" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="4"/>
       <c r="B678" s="5"/>
       <c r="C678" s="6"/>
@@ -19543,7 +19548,7 @@
       <c r="Y678" s="5"/>
       <c r="Z678" s="5"/>
     </row>
-    <row r="679" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="4"/>
       <c r="B679" s="5"/>
       <c r="C679" s="6"/>
@@ -19571,7 +19576,7 @@
       <c r="Y679" s="5"/>
       <c r="Z679" s="5"/>
     </row>
-    <row r="680" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="4"/>
       <c r="B680" s="5"/>
       <c r="C680" s="6"/>
@@ -19599,7 +19604,7 @@
       <c r="Y680" s="5"/>
       <c r="Z680" s="5"/>
     </row>
-    <row r="681" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="4"/>
       <c r="B681" s="5"/>
       <c r="C681" s="6"/>
@@ -19627,7 +19632,7 @@
       <c r="Y681" s="5"/>
       <c r="Z681" s="5"/>
     </row>
-    <row r="682" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="4"/>
       <c r="B682" s="5"/>
       <c r="C682" s="6"/>
@@ -19655,7 +19660,7 @@
       <c r="Y682" s="5"/>
       <c r="Z682" s="5"/>
     </row>
-    <row r="683" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="4"/>
       <c r="B683" s="5"/>
       <c r="C683" s="6"/>
@@ -19683,7 +19688,7 @@
       <c r="Y683" s="5"/>
       <c r="Z683" s="5"/>
     </row>
-    <row r="684" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="4"/>
       <c r="B684" s="5"/>
       <c r="C684" s="6"/>
@@ -19711,7 +19716,7 @@
       <c r="Y684" s="5"/>
       <c r="Z684" s="5"/>
     </row>
-    <row r="685" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="4"/>
       <c r="B685" s="5"/>
       <c r="C685" s="6"/>
@@ -19739,7 +19744,7 @@
       <c r="Y685" s="5"/>
       <c r="Z685" s="5"/>
     </row>
-    <row r="686" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="4"/>
       <c r="B686" s="5"/>
       <c r="C686" s="6"/>
@@ -19767,7 +19772,7 @@
       <c r="Y686" s="5"/>
       <c r="Z686" s="5"/>
     </row>
-    <row r="687" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="4"/>
       <c r="B687" s="5"/>
       <c r="C687" s="6"/>
@@ -19795,7 +19800,7 @@
       <c r="Y687" s="5"/>
       <c r="Z687" s="5"/>
     </row>
-    <row r="688" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="4"/>
       <c r="B688" s="5"/>
       <c r="C688" s="6"/>
@@ -19823,7 +19828,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="4"/>
       <c r="B689" s="5"/>
       <c r="C689" s="6"/>
@@ -19851,7 +19856,7 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="4"/>
       <c r="B690" s="5"/>
       <c r="C690" s="6"/>
@@ -19879,7 +19884,7 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="4"/>
       <c r="B691" s="5"/>
       <c r="C691" s="6"/>
@@ -19907,7 +19912,7 @@
       <c r="Y691" s="5"/>
       <c r="Z691" s="5"/>
     </row>
-    <row r="692" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="4"/>
       <c r="B692" s="5"/>
       <c r="C692" s="6"/>
@@ -19935,7 +19940,7 @@
       <c r="Y692" s="5"/>
       <c r="Z692" s="5"/>
     </row>
-    <row r="693" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="4"/>
       <c r="B693" s="5"/>
       <c r="C693" s="6"/>
@@ -19963,7 +19968,7 @@
       <c r="Y693" s="5"/>
       <c r="Z693" s="5"/>
     </row>
-    <row r="694" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="4"/>
       <c r="B694" s="5"/>
       <c r="C694" s="6"/>
@@ -19991,7 +19996,7 @@
       <c r="Y694" s="5"/>
       <c r="Z694" s="5"/>
     </row>
-    <row r="695" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="4"/>
       <c r="B695" s="5"/>
       <c r="C695" s="6"/>
@@ -20019,7 +20024,7 @@
       <c r="Y695" s="5"/>
       <c r="Z695" s="5"/>
     </row>
-    <row r="696" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="4"/>
       <c r="B696" s="5"/>
       <c r="C696" s="6"/>
@@ -20047,7 +20052,7 @@
       <c r="Y696" s="5"/>
       <c r="Z696" s="5"/>
     </row>
-    <row r="697" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="4"/>
       <c r="B697" s="5"/>
       <c r="C697" s="6"/>
@@ -20075,7 +20080,7 @@
       <c r="Y697" s="5"/>
       <c r="Z697" s="5"/>
     </row>
-    <row r="698" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="4"/>
       <c r="B698" s="5"/>
       <c r="C698" s="6"/>
@@ -20103,7 +20108,7 @@
       <c r="Y698" s="5"/>
       <c r="Z698" s="5"/>
     </row>
-    <row r="699" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="4"/>
       <c r="B699" s="5"/>
       <c r="C699" s="6"/>
@@ -20131,7 +20136,7 @@
       <c r="Y699" s="5"/>
       <c r="Z699" s="5"/>
     </row>
-    <row r="700" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="4"/>
       <c r="B700" s="5"/>
       <c r="C700" s="6"/>
@@ -20159,7 +20164,7 @@
       <c r="Y700" s="5"/>
       <c r="Z700" s="5"/>
     </row>
-    <row r="701" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="4"/>
       <c r="B701" s="5"/>
       <c r="C701" s="6"/>
@@ -20187,7 +20192,7 @@
       <c r="Y701" s="5"/>
       <c r="Z701" s="5"/>
     </row>
-    <row r="702" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="4"/>
       <c r="B702" s="5"/>
       <c r="C702" s="6"/>
@@ -20215,7 +20220,7 @@
       <c r="Y702" s="5"/>
       <c r="Z702" s="5"/>
     </row>
-    <row r="703" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="4"/>
       <c r="B703" s="5"/>
       <c r="C703" s="6"/>
@@ -20243,7 +20248,7 @@
       <c r="Y703" s="5"/>
       <c r="Z703" s="5"/>
     </row>
-    <row r="704" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="4"/>
       <c r="B704" s="5"/>
       <c r="C704" s="6"/>
@@ -20271,7 +20276,7 @@
       <c r="Y704" s="5"/>
       <c r="Z704" s="5"/>
     </row>
-    <row r="705" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="4"/>
       <c r="B705" s="5"/>
       <c r="C705" s="6"/>
@@ -20299,7 +20304,7 @@
       <c r="Y705" s="5"/>
       <c r="Z705" s="5"/>
     </row>
-    <row r="706" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="4"/>
       <c r="B706" s="5"/>
       <c r="C706" s="6"/>
@@ -20327,7 +20332,7 @@
       <c r="Y706" s="5"/>
       <c r="Z706" s="5"/>
     </row>
-    <row r="707" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="4"/>
       <c r="B707" s="5"/>
       <c r="C707" s="6"/>
@@ -20355,7 +20360,7 @@
       <c r="Y707" s="5"/>
       <c r="Z707" s="5"/>
     </row>
-    <row r="708" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="4"/>
       <c r="B708" s="5"/>
       <c r="C708" s="6"/>
@@ -20383,7 +20388,7 @@
       <c r="Y708" s="5"/>
       <c r="Z708" s="5"/>
     </row>
-    <row r="709" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="4"/>
       <c r="B709" s="5"/>
       <c r="C709" s="6"/>
@@ -20411,7 +20416,7 @@
       <c r="Y709" s="5"/>
       <c r="Z709" s="5"/>
     </row>
-    <row r="710" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="4"/>
       <c r="B710" s="5"/>
       <c r="C710" s="6"/>
@@ -20439,7 +20444,7 @@
       <c r="Y710" s="5"/>
       <c r="Z710" s="5"/>
     </row>
-    <row r="711" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="4"/>
       <c r="B711" s="5"/>
       <c r="C711" s="6"/>
@@ -20467,7 +20472,7 @@
       <c r="Y711" s="5"/>
       <c r="Z711" s="5"/>
     </row>
-    <row r="712" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="4"/>
       <c r="B712" s="5"/>
       <c r="C712" s="6"/>
@@ -20495,7 +20500,7 @@
       <c r="Y712" s="5"/>
       <c r="Z712" s="5"/>
     </row>
-    <row r="713" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="4"/>
       <c r="B713" s="5"/>
       <c r="C713" s="6"/>
@@ -20523,7 +20528,7 @@
       <c r="Y713" s="5"/>
       <c r="Z713" s="5"/>
     </row>
-    <row r="714" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="4"/>
       <c r="B714" s="5"/>
       <c r="C714" s="6"/>
@@ -20551,7 +20556,7 @@
       <c r="Y714" s="5"/>
       <c r="Z714" s="5"/>
     </row>
-    <row r="715" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="4"/>
       <c r="B715" s="5"/>
       <c r="C715" s="6"/>
@@ -20579,7 +20584,7 @@
       <c r="Y715" s="5"/>
       <c r="Z715" s="5"/>
     </row>
-    <row r="716" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="4"/>
       <c r="B716" s="5"/>
       <c r="C716" s="6"/>
@@ -20607,7 +20612,7 @@
       <c r="Y716" s="5"/>
       <c r="Z716" s="5"/>
     </row>
-    <row r="717" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="4"/>
       <c r="B717" s="5"/>
       <c r="C717" s="6"/>
@@ -20635,7 +20640,7 @@
       <c r="Y717" s="5"/>
       <c r="Z717" s="5"/>
     </row>
-    <row r="718" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="4"/>
       <c r="B718" s="5"/>
       <c r="C718" s="6"/>
@@ -20663,7 +20668,7 @@
       <c r="Y718" s="5"/>
       <c r="Z718" s="5"/>
     </row>
-    <row r="719" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="4"/>
       <c r="B719" s="5"/>
       <c r="C719" s="6"/>
@@ -20691,7 +20696,7 @@
       <c r="Y719" s="5"/>
       <c r="Z719" s="5"/>
     </row>
-    <row r="720" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="4"/>
       <c r="B720" s="5"/>
       <c r="C720" s="6"/>
@@ -20719,7 +20724,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="4"/>
       <c r="B721" s="5"/>
       <c r="C721" s="6"/>
@@ -20747,7 +20752,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="4"/>
       <c r="B722" s="5"/>
       <c r="C722" s="6"/>
@@ -20775,7 +20780,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="4"/>
       <c r="B723" s="5"/>
       <c r="C723" s="6"/>
@@ -20803,7 +20808,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="4"/>
       <c r="B724" s="5"/>
       <c r="C724" s="6"/>
@@ -20831,7 +20836,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="4"/>
       <c r="B725" s="5"/>
       <c r="C725" s="6"/>
@@ -20859,7 +20864,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="4"/>
       <c r="B726" s="5"/>
       <c r="C726" s="6"/>
@@ -20887,7 +20892,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="4"/>
       <c r="B727" s="5"/>
       <c r="C727" s="6"/>
@@ -20915,7 +20920,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="4"/>
       <c r="B728" s="5"/>
       <c r="C728" s="6"/>
@@ -20943,7 +20948,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="4"/>
       <c r="B729" s="5"/>
       <c r="C729" s="6"/>
@@ -20971,7 +20976,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="4"/>
       <c r="B730" s="5"/>
       <c r="C730" s="6"/>
@@ -20999,7 +21004,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="4"/>
       <c r="B731" s="5"/>
       <c r="C731" s="6"/>
@@ -21027,7 +21032,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="4"/>
       <c r="B732" s="5"/>
       <c r="C732" s="6"/>
@@ -21055,7 +21060,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="4"/>
       <c r="B733" s="5"/>
       <c r="C733" s="6"/>
@@ -21083,7 +21088,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="4"/>
       <c r="B734" s="5"/>
       <c r="C734" s="6"/>
@@ -21111,7 +21116,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="4"/>
       <c r="B735" s="5"/>
       <c r="C735" s="6"/>
@@ -21139,7 +21144,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="4"/>
       <c r="B736" s="5"/>
       <c r="C736" s="6"/>
@@ -21167,7 +21172,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="4"/>
       <c r="B737" s="5"/>
       <c r="C737" s="6"/>
@@ -21195,7 +21200,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="4"/>
       <c r="B738" s="5"/>
       <c r="C738" s="6"/>
@@ -21223,7 +21228,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="4"/>
       <c r="B739" s="5"/>
       <c r="C739" s="6"/>
@@ -21251,7 +21256,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="4"/>
       <c r="B740" s="5"/>
       <c r="C740" s="6"/>
@@ -21279,7 +21284,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="4"/>
       <c r="B741" s="5"/>
       <c r="C741" s="6"/>
@@ -21307,7 +21312,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="4"/>
       <c r="B742" s="5"/>
       <c r="C742" s="6"/>
@@ -21335,7 +21340,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="4"/>
       <c r="B743" s="5"/>
       <c r="C743" s="6"/>
@@ -21363,7 +21368,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="4"/>
       <c r="B744" s="5"/>
       <c r="C744" s="6"/>
@@ -21391,7 +21396,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="4"/>
       <c r="B745" s="5"/>
       <c r="C745" s="6"/>
@@ -21419,7 +21424,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="4"/>
       <c r="B746" s="5"/>
       <c r="C746" s="6"/>
@@ -21447,7 +21452,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="4"/>
       <c r="B747" s="5"/>
       <c r="C747" s="6"/>
@@ -21475,7 +21480,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="4"/>
       <c r="B748" s="5"/>
       <c r="C748" s="6"/>
@@ -21503,7 +21508,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="4"/>
       <c r="B749" s="5"/>
       <c r="C749" s="6"/>
@@ -21531,7 +21536,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="4"/>
       <c r="B750" s="5"/>
       <c r="C750" s="6"/>
@@ -21559,7 +21564,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="4"/>
       <c r="B751" s="5"/>
       <c r="C751" s="6"/>
@@ -21587,7 +21592,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="4"/>
       <c r="B752" s="5"/>
       <c r="C752" s="6"/>
@@ -21615,7 +21620,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="4"/>
       <c r="B753" s="5"/>
       <c r="C753" s="6"/>
@@ -21643,7 +21648,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="4"/>
       <c r="B754" s="5"/>
       <c r="C754" s="6"/>
@@ -21671,7 +21676,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="4"/>
       <c r="B755" s="5"/>
       <c r="C755" s="6"/>
@@ -21699,7 +21704,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="4"/>
       <c r="B756" s="5"/>
       <c r="C756" s="6"/>
@@ -21727,7 +21732,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="4"/>
       <c r="B757" s="5"/>
       <c r="C757" s="6"/>
@@ -21755,7 +21760,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="4"/>
       <c r="B758" s="5"/>
       <c r="C758" s="6"/>
@@ -21783,7 +21788,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="4"/>
       <c r="B759" s="5"/>
       <c r="C759" s="6"/>
@@ -21811,7 +21816,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="4"/>
       <c r="B760" s="5"/>
       <c r="C760" s="6"/>
@@ -21839,7 +21844,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="4"/>
       <c r="B761" s="5"/>
       <c r="C761" s="6"/>
@@ -21867,7 +21872,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="4"/>
       <c r="B762" s="5"/>
       <c r="C762" s="6"/>
@@ -21895,7 +21900,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="4"/>
       <c r="B763" s="5"/>
       <c r="C763" s="6"/>
@@ -21923,7 +21928,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="4"/>
       <c r="B764" s="5"/>
       <c r="C764" s="6"/>
@@ -21951,7 +21956,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="4"/>
       <c r="B765" s="5"/>
       <c r="C765" s="6"/>
@@ -21979,7 +21984,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="4"/>
       <c r="B766" s="5"/>
       <c r="C766" s="6"/>
@@ -22007,7 +22012,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="4"/>
       <c r="B767" s="5"/>
       <c r="C767" s="6"/>
@@ -22035,7 +22040,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="4"/>
       <c r="B768" s="5"/>
       <c r="C768" s="6"/>
@@ -22063,7 +22068,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="4"/>
       <c r="B769" s="5"/>
       <c r="C769" s="6"/>
@@ -22091,7 +22096,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="4"/>
       <c r="B770" s="5"/>
       <c r="C770" s="6"/>
@@ -22119,7 +22124,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="4"/>
       <c r="B771" s="5"/>
       <c r="C771" s="6"/>
@@ -22147,7 +22152,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="4"/>
       <c r="B772" s="5"/>
       <c r="C772" s="6"/>
@@ -22175,7 +22180,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="4"/>
       <c r="B773" s="5"/>
       <c r="C773" s="6"/>
@@ -22203,7 +22208,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="4"/>
       <c r="B774" s="5"/>
       <c r="C774" s="6"/>
@@ -22231,7 +22236,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="4"/>
       <c r="B775" s="5"/>
       <c r="C775" s="6"/>
@@ -22259,7 +22264,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="4"/>
       <c r="B776" s="5"/>
       <c r="C776" s="6"/>
@@ -22287,7 +22292,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="4"/>
       <c r="B777" s="5"/>
       <c r="C777" s="6"/>
@@ -22315,7 +22320,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="4"/>
       <c r="B778" s="5"/>
       <c r="C778" s="6"/>
@@ -22343,7 +22348,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="4"/>
       <c r="B779" s="5"/>
       <c r="C779" s="6"/>
@@ -22371,7 +22376,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="4"/>
       <c r="B780" s="5"/>
       <c r="C780" s="6"/>
@@ -22399,7 +22404,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="4"/>
       <c r="B781" s="5"/>
       <c r="C781" s="6"/>
@@ -22427,7 +22432,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="4"/>
       <c r="B782" s="5"/>
       <c r="C782" s="6"/>
@@ -22455,7 +22460,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="4"/>
       <c r="B783" s="5"/>
       <c r="C783" s="6"/>
@@ -22483,7 +22488,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="4"/>
       <c r="B784" s="5"/>
       <c r="C784" s="6"/>
@@ -22511,7 +22516,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="4"/>
       <c r="B785" s="5"/>
       <c r="C785" s="6"/>
@@ -22539,7 +22544,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="4"/>
       <c r="B786" s="5"/>
       <c r="C786" s="6"/>
@@ -22567,7 +22572,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="4"/>
       <c r="B787" s="5"/>
       <c r="C787" s="6"/>
@@ -22595,7 +22600,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="4"/>
       <c r="B788" s="5"/>
       <c r="C788" s="6"/>
@@ -22623,7 +22628,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="4"/>
       <c r="B789" s="5"/>
       <c r="C789" s="6"/>
@@ -22651,7 +22656,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="4"/>
       <c r="B790" s="5"/>
       <c r="C790" s="6"/>
@@ -22679,7 +22684,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="4"/>
       <c r="B791" s="5"/>
       <c r="C791" s="6"/>
@@ -22707,7 +22712,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="4"/>
       <c r="B792" s="5"/>
       <c r="C792" s="6"/>
@@ -22735,7 +22740,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="4"/>
       <c r="B793" s="5"/>
       <c r="C793" s="6"/>
@@ -22763,7 +22768,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="4"/>
       <c r="B794" s="5"/>
       <c r="C794" s="6"/>
@@ -22791,7 +22796,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="4"/>
       <c r="B795" s="5"/>
       <c r="C795" s="6"/>
@@ -22819,7 +22824,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="4"/>
       <c r="B796" s="5"/>
       <c r="C796" s="6"/>
@@ -22847,7 +22852,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="4"/>
       <c r="B797" s="5"/>
       <c r="C797" s="6"/>
@@ -22875,7 +22880,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="4"/>
       <c r="B798" s="5"/>
       <c r="C798" s="6"/>
@@ -22903,7 +22908,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="4"/>
       <c r="B799" s="5"/>
       <c r="C799" s="6"/>
@@ -22931,7 +22936,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="4"/>
       <c r="B800" s="5"/>
       <c r="C800" s="6"/>
@@ -22959,7 +22964,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="4"/>
       <c r="B801" s="5"/>
       <c r="C801" s="6"/>
@@ -22987,7 +22992,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="4"/>
       <c r="B802" s="5"/>
       <c r="C802" s="6"/>
@@ -23015,7 +23020,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="4"/>
       <c r="B803" s="5"/>
       <c r="C803" s="6"/>
@@ -23043,7 +23048,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="4"/>
       <c r="B804" s="5"/>
       <c r="C804" s="6"/>
@@ -23071,7 +23076,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="4"/>
       <c r="B805" s="5"/>
       <c r="C805" s="6"/>
@@ -23099,7 +23104,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="4"/>
       <c r="B806" s="5"/>
       <c r="C806" s="6"/>
@@ -23127,7 +23132,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="4"/>
       <c r="B807" s="5"/>
       <c r="C807" s="6"/>
@@ -23155,7 +23160,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="4"/>
       <c r="B808" s="5"/>
       <c r="C808" s="6"/>
@@ -23183,7 +23188,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="4"/>
       <c r="B809" s="5"/>
       <c r="C809" s="6"/>
@@ -23211,7 +23216,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="4"/>
       <c r="B810" s="5"/>
       <c r="C810" s="6"/>
@@ -23239,7 +23244,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="4"/>
       <c r="B811" s="5"/>
       <c r="C811" s="6"/>
@@ -23267,7 +23272,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="4"/>
       <c r="B812" s="5"/>
       <c r="C812" s="6"/>
@@ -23295,7 +23300,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="4"/>
       <c r="B813" s="5"/>
       <c r="C813" s="6"/>
@@ -23323,7 +23328,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="4"/>
       <c r="B814" s="5"/>
       <c r="C814" s="6"/>
@@ -23351,7 +23356,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="4"/>
       <c r="B815" s="5"/>
       <c r="C815" s="6"/>
@@ -23379,7 +23384,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="4"/>
       <c r="B816" s="5"/>
       <c r="C816" s="6"/>
@@ -23407,7 +23412,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="4"/>
       <c r="B817" s="5"/>
       <c r="C817" s="6"/>
@@ -23435,7 +23440,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="4"/>
       <c r="B818" s="5"/>
       <c r="C818" s="6"/>
@@ -23463,7 +23468,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="4"/>
       <c r="B819" s="5"/>
       <c r="C819" s="6"/>
@@ -23491,7 +23496,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="4"/>
       <c r="B820" s="5"/>
       <c r="C820" s="6"/>
@@ -23519,7 +23524,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="4"/>
       <c r="B821" s="5"/>
       <c r="C821" s="6"/>
@@ -23547,7 +23552,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="4"/>
       <c r="B822" s="5"/>
       <c r="C822" s="6"/>
@@ -23575,7 +23580,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="4"/>
       <c r="B823" s="5"/>
       <c r="C823" s="6"/>
@@ -23603,7 +23608,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="4"/>
       <c r="B824" s="5"/>
       <c r="C824" s="6"/>
@@ -23631,7 +23636,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="4"/>
       <c r="B825" s="5"/>
       <c r="C825" s="6"/>
@@ -23659,7 +23664,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="4"/>
       <c r="B826" s="5"/>
       <c r="C826" s="6"/>
@@ -23687,7 +23692,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="4"/>
       <c r="B827" s="5"/>
       <c r="C827" s="6"/>
@@ -23715,7 +23720,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="4"/>
       <c r="B828" s="5"/>
       <c r="C828" s="6"/>
@@ -23743,7 +23748,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="4"/>
       <c r="B829" s="5"/>
       <c r="C829" s="6"/>
@@ -23771,7 +23776,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="4"/>
       <c r="B830" s="5"/>
       <c r="C830" s="6"/>
@@ -23799,7 +23804,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="4"/>
       <c r="B831" s="5"/>
       <c r="C831" s="6"/>
@@ -23827,7 +23832,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="4"/>
       <c r="B832" s="5"/>
       <c r="C832" s="6"/>
@@ -23855,7 +23860,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="4"/>
       <c r="B833" s="5"/>
       <c r="C833" s="6"/>
@@ -23883,7 +23888,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="4"/>
       <c r="B834" s="5"/>
       <c r="C834" s="6"/>
@@ -23911,7 +23916,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="4"/>
       <c r="B835" s="5"/>
       <c r="C835" s="6"/>
@@ -23939,7 +23944,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="4"/>
       <c r="B836" s="5"/>
       <c r="C836" s="6"/>
@@ -23967,7 +23972,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="4"/>
       <c r="B837" s="5"/>
       <c r="C837" s="6"/>
@@ -23995,7 +24000,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="4"/>
       <c r="B838" s="5"/>
       <c r="C838" s="6"/>
@@ -24023,7 +24028,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="4"/>
       <c r="B839" s="5"/>
       <c r="C839" s="6"/>
@@ -24051,7 +24056,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="4"/>
       <c r="B840" s="5"/>
       <c r="C840" s="6"/>
@@ -24079,7 +24084,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="4"/>
       <c r="B841" s="5"/>
       <c r="C841" s="6"/>
@@ -24107,7 +24112,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="4"/>
       <c r="B842" s="5"/>
       <c r="C842" s="6"/>
@@ -24135,7 +24140,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="4"/>
       <c r="B843" s="5"/>
       <c r="C843" s="6"/>
@@ -24163,7 +24168,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="4"/>
       <c r="B844" s="5"/>
       <c r="C844" s="6"/>
@@ -24191,7 +24196,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="4"/>
       <c r="B845" s="5"/>
       <c r="C845" s="6"/>
@@ -24219,7 +24224,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="4"/>
       <c r="B846" s="5"/>
       <c r="C846" s="6"/>
@@ -24247,7 +24252,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="4"/>
       <c r="B847" s="5"/>
       <c r="C847" s="6"/>
@@ -24275,7 +24280,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="4"/>
       <c r="B848" s="5"/>
       <c r="C848" s="6"/>
@@ -24303,7 +24308,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="4"/>
       <c r="B849" s="5"/>
       <c r="C849" s="6"/>
@@ -24331,7 +24336,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="4"/>
       <c r="B850" s="5"/>
       <c r="C850" s="6"/>
@@ -24359,7 +24364,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="4"/>
       <c r="B851" s="5"/>
       <c r="C851" s="6"/>
@@ -24387,7 +24392,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="4"/>
       <c r="B852" s="5"/>
       <c r="C852" s="6"/>
@@ -24415,7 +24420,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="4"/>
       <c r="B853" s="5"/>
       <c r="C853" s="6"/>
@@ -24443,7 +24448,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="4"/>
       <c r="B854" s="5"/>
       <c r="C854" s="6"/>
@@ -24471,7 +24476,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="4"/>
       <c r="B855" s="5"/>
       <c r="C855" s="6"/>
@@ -24499,7 +24504,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="4"/>
       <c r="B856" s="5"/>
       <c r="C856" s="6"/>
@@ -24527,7 +24532,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="4"/>
       <c r="B857" s="5"/>
       <c r="C857" s="6"/>
@@ -24555,7 +24560,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="4"/>
       <c r="B858" s="5"/>
       <c r="C858" s="6"/>
@@ -24583,7 +24588,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="4"/>
       <c r="B859" s="5"/>
       <c r="C859" s="6"/>
@@ -24611,7 +24616,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="4"/>
       <c r="B860" s="5"/>
       <c r="C860" s="6"/>
@@ -24639,7 +24644,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="4"/>
       <c r="B861" s="5"/>
       <c r="C861" s="6"/>
@@ -24667,7 +24672,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="4"/>
       <c r="B862" s="5"/>
       <c r="C862" s="6"/>
@@ -24695,7 +24700,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="4"/>
       <c r="B863" s="5"/>
       <c r="C863" s="6"/>
@@ -24723,7 +24728,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="4"/>
       <c r="B864" s="5"/>
       <c r="C864" s="6"/>
@@ -24751,7 +24756,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="4"/>
       <c r="B865" s="5"/>
       <c r="C865" s="6"/>
@@ -24779,7 +24784,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="4"/>
       <c r="B866" s="5"/>
       <c r="C866" s="6"/>
@@ -24807,7 +24812,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="4"/>
       <c r="B867" s="5"/>
       <c r="C867" s="6"/>
@@ -24835,7 +24840,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="4"/>
       <c r="B868" s="5"/>
       <c r="C868" s="6"/>
@@ -24863,7 +24868,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="4"/>
       <c r="B869" s="5"/>
       <c r="C869" s="6"/>
@@ -24891,7 +24896,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="4"/>
       <c r="B870" s="5"/>
       <c r="C870" s="6"/>
@@ -24919,7 +24924,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="4"/>
       <c r="B871" s="5"/>
       <c r="C871" s="6"/>
@@ -24947,7 +24952,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="4"/>
       <c r="B872" s="5"/>
       <c r="C872" s="6"/>
@@ -24975,7 +24980,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="4"/>
       <c r="B873" s="5"/>
       <c r="C873" s="6"/>
@@ -25003,7 +25008,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="4"/>
       <c r="B874" s="5"/>
       <c r="C874" s="6"/>
@@ -25031,7 +25036,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="4"/>
       <c r="B875" s="5"/>
       <c r="C875" s="6"/>
@@ -25059,7 +25064,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="4"/>
       <c r="B876" s="5"/>
       <c r="C876" s="6"/>
@@ -25087,7 +25092,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="4"/>
       <c r="B877" s="5"/>
       <c r="C877" s="6"/>
@@ -25115,7 +25120,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="4"/>
       <c r="B878" s="5"/>
       <c r="C878" s="6"/>
@@ -25143,7 +25148,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="4"/>
       <c r="B879" s="5"/>
       <c r="C879" s="6"/>
@@ -25171,7 +25176,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="4"/>
       <c r="B880" s="5"/>
       <c r="C880" s="6"/>
@@ -25199,7 +25204,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="4"/>
       <c r="B881" s="5"/>
       <c r="C881" s="6"/>
@@ -25227,7 +25232,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="4"/>
       <c r="B882" s="5"/>
       <c r="C882" s="6"/>
@@ -25255,7 +25260,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="4"/>
       <c r="B883" s="5"/>
       <c r="C883" s="6"/>
@@ -25283,7 +25288,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="4"/>
       <c r="B884" s="5"/>
       <c r="C884" s="6"/>
@@ -25311,7 +25316,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="4"/>
       <c r="B885" s="5"/>
       <c r="C885" s="6"/>
@@ -25339,7 +25344,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="4"/>
       <c r="B886" s="5"/>
       <c r="C886" s="6"/>
@@ -25367,7 +25372,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="4"/>
       <c r="B887" s="5"/>
       <c r="C887" s="6"/>
@@ -25395,7 +25400,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="4"/>
       <c r="B888" s="5"/>
       <c r="C888" s="6"/>
@@ -25423,7 +25428,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="4"/>
       <c r="B889" s="5"/>
       <c r="C889" s="6"/>
@@ -25451,7 +25456,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="4"/>
       <c r="B890" s="5"/>
       <c r="C890" s="6"/>
@@ -25479,7 +25484,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="4"/>
       <c r="B891" s="5"/>
       <c r="C891" s="6"/>
@@ -25507,7 +25512,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="4"/>
       <c r="B892" s="5"/>
       <c r="C892" s="6"/>
@@ -25535,7 +25540,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="4"/>
       <c r="B893" s="5"/>
       <c r="C893" s="6"/>
@@ -25563,7 +25568,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="4"/>
       <c r="B894" s="5"/>
       <c r="C894" s="6"/>
@@ -25591,7 +25596,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="4"/>
       <c r="B895" s="5"/>
       <c r="C895" s="6"/>
@@ -25619,7 +25624,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="4"/>
       <c r="B896" s="5"/>
       <c r="C896" s="6"/>
@@ -25647,7 +25652,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="4"/>
       <c r="B897" s="5"/>
       <c r="C897" s="6"/>
@@ -25675,7 +25680,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="4"/>
       <c r="B898" s="5"/>
       <c r="C898" s="6"/>
@@ -25703,7 +25708,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="4"/>
       <c r="B899" s="5"/>
       <c r="C899" s="6"/>
@@ -25731,7 +25736,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="4"/>
       <c r="B900" s="5"/>
       <c r="C900" s="6"/>
@@ -25759,7 +25764,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="4"/>
       <c r="B901" s="5"/>
       <c r="C901" s="6"/>
@@ -25787,7 +25792,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="4"/>
       <c r="B902" s="5"/>
       <c r="C902" s="6"/>
@@ -25815,7 +25820,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="4"/>
       <c r="B903" s="5"/>
       <c r="C903" s="6"/>
@@ -25843,7 +25848,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="4"/>
       <c r="B904" s="5"/>
       <c r="C904" s="6"/>
@@ -25871,7 +25876,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="4"/>
       <c r="B905" s="5"/>
       <c r="C905" s="6"/>
@@ -25899,7 +25904,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="4"/>
       <c r="B906" s="5"/>
       <c r="C906" s="6"/>
@@ -25927,7 +25932,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="4"/>
       <c r="B907" s="5"/>
       <c r="C907" s="6"/>
@@ -25955,7 +25960,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="4"/>
       <c r="B908" s="5"/>
       <c r="C908" s="6"/>
@@ -25983,7 +25988,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="4"/>
       <c r="B909" s="5"/>
       <c r="C909" s="6"/>
@@ -26011,7 +26016,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="4"/>
       <c r="B910" s="5"/>
       <c r="C910" s="6"/>
@@ -26039,7 +26044,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="4"/>
       <c r="B911" s="5"/>
       <c r="C911" s="6"/>
@@ -26067,7 +26072,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="4"/>
       <c r="B912" s="5"/>
       <c r="C912" s="6"/>
@@ -26095,7 +26100,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="4"/>
       <c r="B913" s="5"/>
       <c r="C913" s="6"/>
@@ -26123,7 +26128,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="4"/>
       <c r="B914" s="5"/>
       <c r="C914" s="6"/>
@@ -26151,7 +26156,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="4"/>
       <c r="B915" s="5"/>
       <c r="C915" s="6"/>
@@ -26179,7 +26184,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="4"/>
       <c r="B916" s="5"/>
       <c r="C916" s="6"/>
@@ -26207,7 +26212,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="4"/>
       <c r="B917" s="5"/>
       <c r="C917" s="6"/>
@@ -26235,7 +26240,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="4"/>
       <c r="B918" s="5"/>
       <c r="C918" s="6"/>
@@ -26263,7 +26268,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="4"/>
       <c r="B919" s="5"/>
       <c r="C919" s="6"/>
@@ -26291,7 +26296,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="4"/>
       <c r="B920" s="5"/>
       <c r="C920" s="6"/>
@@ -26319,7 +26324,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="4"/>
       <c r="B921" s="5"/>
       <c r="C921" s="6"/>
@@ -26347,7 +26352,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="4"/>
       <c r="B922" s="5"/>
       <c r="C922" s="6"/>
@@ -26375,7 +26380,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="4"/>
       <c r="B923" s="5"/>
       <c r="C923" s="6"/>
@@ -26403,7 +26408,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="4"/>
       <c r="B924" s="5"/>
       <c r="C924" s="6"/>
@@ -26431,7 +26436,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="4"/>
       <c r="B925" s="5"/>
       <c r="C925" s="6"/>
@@ -26459,7 +26464,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="4"/>
       <c r="B926" s="5"/>
       <c r="C926" s="6"/>
@@ -26487,7 +26492,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="4"/>
       <c r="B927" s="5"/>
       <c r="C927" s="6"/>
@@ -26515,7 +26520,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="4"/>
       <c r="B928" s="5"/>
       <c r="C928" s="6"/>
@@ -26543,7 +26548,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="4"/>
       <c r="B929" s="5"/>
       <c r="C929" s="6"/>
@@ -26571,7 +26576,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="4"/>
       <c r="B930" s="5"/>
       <c r="C930" s="6"/>
@@ -26599,7 +26604,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="4"/>
       <c r="B931" s="5"/>
       <c r="C931" s="6"/>
@@ -26627,7 +26632,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="4"/>
       <c r="B932" s="5"/>
       <c r="C932" s="6"/>
@@ -26655,7 +26660,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="4"/>
       <c r="B933" s="5"/>
       <c r="C933" s="6"/>
@@ -26683,7 +26688,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="4"/>
       <c r="B934" s="5"/>
       <c r="C934" s="6"/>
@@ -26711,7 +26716,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="4"/>
       <c r="B935" s="5"/>
       <c r="C935" s="6"/>
@@ -26739,7 +26744,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="4"/>
       <c r="B936" s="5"/>
       <c r="C936" s="6"/>
@@ -26767,7 +26772,7 @@
       <c r="Y936" s="5"/>
       <c r="Z936" s="5"/>
     </row>
-    <row r="937" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="4"/>
       <c r="B937" s="5"/>
       <c r="C937" s="6"/>
@@ -26795,7 +26800,7 @@
       <c r="Y937" s="5"/>
       <c r="Z937" s="5"/>
     </row>
-    <row r="938" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="4"/>
       <c r="B938" s="5"/>
       <c r="C938" s="6"/>
@@ -26823,7 +26828,7 @@
       <c r="Y938" s="5"/>
       <c r="Z938" s="5"/>
     </row>
-    <row r="939" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="4"/>
       <c r="B939" s="5"/>
       <c r="C939" s="6"/>
@@ -26851,7 +26856,7 @@
       <c r="Y939" s="5"/>
       <c r="Z939" s="5"/>
     </row>
-    <row r="940" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="4"/>
       <c r="B940" s="5"/>
       <c r="C940" s="6"/>
@@ -26879,7 +26884,7 @@
       <c r="Y940" s="5"/>
       <c r="Z940" s="5"/>
     </row>
-    <row r="941" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="4"/>
       <c r="B941" s="5"/>
       <c r="C941" s="6"/>
@@ -26907,7 +26912,7 @@
       <c r="Y941" s="5"/>
       <c r="Z941" s="5"/>
     </row>
-    <row r="942" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="4"/>
       <c r="B942" s="5"/>
       <c r="C942" s="6"/>
@@ -26935,7 +26940,7 @@
       <c r="Y942" s="5"/>
       <c r="Z942" s="5"/>
     </row>
-    <row r="943" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="4"/>
       <c r="B943" s="5"/>
       <c r="C943" s="6"/>
@@ -26963,7 +26968,7 @@
       <c r="Y943" s="5"/>
       <c r="Z943" s="5"/>
     </row>
-    <row r="944" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="4"/>
       <c r="B944" s="5"/>
       <c r="C944" s="6"/>
@@ -26991,7 +26996,7 @@
       <c r="Y944" s="5"/>
       <c r="Z944" s="5"/>
     </row>
-    <row r="945" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="4"/>
       <c r="B945" s="5"/>
       <c r="C945" s="6"/>
@@ -27019,7 +27024,7 @@
       <c r="Y945" s="5"/>
       <c r="Z945" s="5"/>
     </row>
-    <row r="946" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="4"/>
       <c r="B946" s="5"/>
       <c r="C946" s="6"/>
@@ -27047,7 +27052,7 @@
       <c r="Y946" s="5"/>
       <c r="Z946" s="5"/>
     </row>
-    <row r="947" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="4"/>
       <c r="B947" s="5"/>
       <c r="C947" s="6"/>
@@ -27075,7 +27080,7 @@
       <c r="Y947" s="5"/>
       <c r="Z947" s="5"/>
     </row>
-    <row r="948" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="4"/>
       <c r="B948" s="5"/>
       <c r="C948" s="6"/>
@@ -27103,7 +27108,7 @@
       <c r="Y948" s="5"/>
       <c r="Z948" s="5"/>
     </row>
-    <row r="949" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="4"/>
       <c r="B949" s="5"/>
       <c r="C949" s="6"/>
@@ -27131,7 +27136,7 @@
       <c r="Y949" s="5"/>
       <c r="Z949" s="5"/>
     </row>
-    <row r="950" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="4"/>
       <c r="B950" s="5"/>
       <c r="C950" s="6"/>
@@ -27159,7 +27164,7 @@
       <c r="Y950" s="5"/>
       <c r="Z950" s="5"/>
     </row>
-    <row r="951" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="4"/>
       <c r="B951" s="5"/>
       <c r="C951" s="6"/>
@@ -27187,7 +27192,7 @@
       <c r="Y951" s="5"/>
       <c r="Z951" s="5"/>
     </row>
-    <row r="952" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="4"/>
       <c r="B952" s="5"/>
       <c r="C952" s="6"/>
@@ -27215,7 +27220,7 @@
       <c r="Y952" s="5"/>
       <c r="Z952" s="5"/>
     </row>
-    <row r="953" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="4"/>
       <c r="B953" s="5"/>
       <c r="C953" s="6"/>
@@ -27243,7 +27248,7 @@
       <c r="Y953" s="5"/>
       <c r="Z953" s="5"/>
     </row>
-    <row r="954" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="4"/>
       <c r="B954" s="5"/>
       <c r="C954" s="6"/>
@@ -27271,7 +27276,7 @@
       <c r="Y954" s="5"/>
       <c r="Z954" s="5"/>
     </row>
-    <row r="955" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="4"/>
       <c r="B955" s="5"/>
       <c r="C955" s="6"/>
@@ -27299,7 +27304,7 @@
       <c r="Y955" s="5"/>
       <c r="Z955" s="5"/>
     </row>
-    <row r="956" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="4"/>
       <c r="B956" s="5"/>
       <c r="C956" s="6"/>
@@ -27327,7 +27332,7 @@
       <c r="Y956" s="5"/>
       <c r="Z956" s="5"/>
     </row>
-    <row r="957" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="4"/>
       <c r="B957" s="5"/>
       <c r="C957" s="6"/>
@@ -27355,7 +27360,7 @@
       <c r="Y957" s="5"/>
       <c r="Z957" s="5"/>
     </row>
-    <row r="958" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="4"/>
       <c r="B958" s="5"/>
       <c r="C958" s="6"/>
@@ -27383,7 +27388,7 @@
       <c r="Y958" s="5"/>
       <c r="Z958" s="5"/>
     </row>
-    <row r="959" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="4"/>
       <c r="B959" s="5"/>
       <c r="C959" s="6"/>
@@ -27411,7 +27416,7 @@
       <c r="Y959" s="5"/>
       <c r="Z959" s="5"/>
     </row>
-    <row r="960" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="4"/>
       <c r="B960" s="5"/>
       <c r="C960" s="6"/>
@@ -27439,7 +27444,7 @@
       <c r="Y960" s="5"/>
       <c r="Z960" s="5"/>
     </row>
-    <row r="961" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="4"/>
       <c r="B961" s="5"/>
       <c r="C961" s="6"/>
@@ -27467,7 +27472,7 @@
       <c r="Y961" s="5"/>
       <c r="Z961" s="5"/>
     </row>
-    <row r="962" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="4"/>
       <c r="B962" s="5"/>
       <c r="C962" s="6"/>
@@ -27495,7 +27500,7 @@
       <c r="Y962" s="5"/>
       <c r="Z962" s="5"/>
     </row>
-    <row r="963" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="4"/>
       <c r="B963" s="5"/>
       <c r="C963" s="6"/>
@@ -27523,7 +27528,7 @@
       <c r="Y963" s="5"/>
       <c r="Z963" s="5"/>
     </row>
-    <row r="964" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="4"/>
       <c r="B964" s="5"/>
       <c r="C964" s="6"/>
@@ -27551,7 +27556,7 @@
       <c r="Y964" s="5"/>
       <c r="Z964" s="5"/>
     </row>
-    <row r="965" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="4"/>
       <c r="B965" s="5"/>
       <c r="C965" s="6"/>
@@ -27579,7 +27584,7 @@
       <c r="Y965" s="5"/>
       <c r="Z965" s="5"/>
     </row>
-    <row r="966" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="4"/>
       <c r="B966" s="5"/>
       <c r="C966" s="6"/>
@@ -27607,7 +27612,7 @@
       <c r="Y966" s="5"/>
       <c r="Z966" s="5"/>
     </row>
-    <row r="967" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="4"/>
       <c r="B967" s="5"/>
       <c r="C967" s="6"/>
@@ -27635,7 +27640,7 @@
       <c r="Y967" s="5"/>
       <c r="Z967" s="5"/>
     </row>
-    <row r="968" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="4"/>
       <c r="B968" s="5"/>
       <c r="C968" s="6"/>
@@ -27663,7 +27668,7 @@
       <c r="Y968" s="5"/>
       <c r="Z968" s="5"/>
     </row>
-    <row r="969" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="4"/>
       <c r="B969" s="5"/>
       <c r="C969" s="6"/>
@@ -27691,7 +27696,7 @@
       <c r="Y969" s="5"/>
       <c r="Z969" s="5"/>
     </row>
-    <row r="970" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="4"/>
       <c r="B970" s="5"/>
       <c r="C970" s="6"/>
@@ -27719,7 +27724,7 @@
       <c r="Y970" s="5"/>
       <c r="Z970" s="5"/>
     </row>
-    <row r="971" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="4"/>
       <c r="B971" s="5"/>
       <c r="C971" s="6"/>
@@ -27747,7 +27752,7 @@
       <c r="Y971" s="5"/>
       <c r="Z971" s="5"/>
     </row>
-    <row r="972" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="4"/>
       <c r="B972" s="5"/>
       <c r="C972" s="6"/>
@@ -27775,7 +27780,7 @@
       <c r="Y972" s="5"/>
       <c r="Z972" s="5"/>
     </row>
-    <row r="973" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="4"/>
       <c r="B973" s="5"/>
       <c r="C973" s="6"/>
@@ -27803,7 +27808,7 @@
       <c r="Y973" s="5"/>
       <c r="Z973" s="5"/>
     </row>
-    <row r="974" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="4"/>
       <c r="B974" s="5"/>
       <c r="C974" s="6"/>
@@ -27831,7 +27836,7 @@
       <c r="Y974" s="5"/>
       <c r="Z974" s="5"/>
     </row>
-    <row r="975" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="4"/>
       <c r="B975" s="5"/>
       <c r="C975" s="6"/>
@@ -27859,7 +27864,7 @@
       <c r="Y975" s="5"/>
       <c r="Z975" s="5"/>
     </row>
-    <row r="976" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="4"/>
       <c r="B976" s="5"/>
       <c r="C976" s="6"/>
@@ -27887,7 +27892,7 @@
       <c r="Y976" s="5"/>
       <c r="Z976" s="5"/>
     </row>
-    <row r="977" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="4"/>
       <c r="B977" s="5"/>
       <c r="C977" s="6"/>
@@ -27915,7 +27920,7 @@
       <c r="Y977" s="5"/>
       <c r="Z977" s="5"/>
     </row>
-    <row r="978" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="4"/>
       <c r="B978" s="5"/>
       <c r="C978" s="6"/>
@@ -27943,7 +27948,7 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="4"/>
       <c r="B979" s="5"/>
       <c r="C979" s="6"/>
@@ -27971,7 +27976,7 @@
       <c r="Y979" s="5"/>
       <c r="Z979" s="5"/>
     </row>
-    <row r="980" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="4"/>
       <c r="B980" s="5"/>
       <c r="C980" s="6"/>
@@ -27999,7 +28004,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="4"/>
       <c r="B981" s="5"/>
       <c r="C981" s="6"/>
@@ -28027,7 +28032,7 @@
       <c r="Y981" s="5"/>
       <c r="Z981" s="5"/>
     </row>
-    <row r="982" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="4"/>
       <c r="B982" s="5"/>
       <c r="C982" s="6"/>
@@ -28055,7 +28060,7 @@
       <c r="Y982" s="5"/>
       <c r="Z982" s="5"/>
     </row>
-    <row r="983" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="4"/>
       <c r="B983" s="5"/>
       <c r="C983" s="6"/>
@@ -28083,7 +28088,7 @@
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
     </row>
-    <row r="984" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="4"/>
       <c r="B984" s="5"/>
       <c r="C984" s="6"/>
@@ -28111,7 +28116,7 @@
       <c r="Y984" s="5"/>
       <c r="Z984" s="5"/>
     </row>
-    <row r="985" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="4"/>
       <c r="B985" s="5"/>
       <c r="C985" s="6"/>
@@ -28139,7 +28144,7 @@
       <c r="Y985" s="5"/>
       <c r="Z985" s="5"/>
     </row>
-    <row r="986" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="4"/>
       <c r="B986" s="5"/>
       <c r="C986" s="6"/>
@@ -28167,7 +28172,7 @@
       <c r="Y986" s="5"/>
       <c r="Z986" s="5"/>
     </row>
-    <row r="987" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="4"/>
       <c r="B987" s="5"/>
       <c r="C987" s="6"/>
@@ -28195,7 +28200,7 @@
       <c r="Y987" s="5"/>
       <c r="Z987" s="5"/>
     </row>
-    <row r="988" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="4"/>
       <c r="B988" s="5"/>
       <c r="C988" s="6"/>
@@ -28223,7 +28228,7 @@
       <c r="Y988" s="5"/>
       <c r="Z988" s="5"/>
     </row>
-    <row r="989" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="4"/>
       <c r="B989" s="5"/>
       <c r="C989" s="6"/>
@@ -28251,7 +28256,7 @@
       <c r="Y989" s="5"/>
       <c r="Z989" s="5"/>
     </row>
-    <row r="990" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="4"/>
       <c r="B990" s="5"/>
       <c r="C990" s="6"/>
@@ -28279,7 +28284,7 @@
       <c r="Y990" s="5"/>
       <c r="Z990" s="5"/>
     </row>
-    <row r="991" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="4"/>
       <c r="B991" s="5"/>
       <c r="C991" s="6"/>
@@ -28307,7 +28312,7 @@
       <c r="Y991" s="5"/>
       <c r="Z991" s="5"/>
     </row>
-    <row r="992" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="4"/>
       <c r="B992" s="5"/>
       <c r="C992" s="6"/>
@@ -28335,7 +28340,7 @@
       <c r="Y992" s="5"/>
       <c r="Z992" s="5"/>
     </row>
-    <row r="993" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="4"/>
       <c r="B993" s="5"/>
       <c r="C993" s="6"/>
@@ -28363,7 +28368,7 @@
       <c r="Y993" s="5"/>
       <c r="Z993" s="5"/>
     </row>
-    <row r="994" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="4"/>
       <c r="B994" s="5"/>
       <c r="C994" s="6"/>
@@ -28391,7 +28396,7 @@
       <c r="Y994" s="5"/>
       <c r="Z994" s="5"/>
     </row>
-    <row r="995" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="4"/>
       <c r="B995" s="5"/>
       <c r="C995" s="6"/>
@@ -28419,7 +28424,7 @@
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
     </row>
-    <row r="996" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="4"/>
       <c r="B996" s="5"/>
       <c r="C996" s="6"/>
@@ -28447,7 +28452,7 @@
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
     </row>
-    <row r="997" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="4"/>
       <c r="B997" s="5"/>
       <c r="C997" s="6"/>
@@ -28475,7 +28480,7 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="4"/>
       <c r="B998" s="5"/>
       <c r="C998" s="6"/>
@@ -28503,7 +28508,7 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="4"/>
       <c r="B999" s="5"/>
       <c r="C999" s="6"/>
